--- a/data-raw/crudeoilstorage.xlsx
+++ b/data-raw/crudeoilstorage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs-f1\L6039\2020 Storage Capacity\PSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSB\OneDrive - Energy Information Administration\Documents\M_docs\work_2022\Pet_Storage_Cap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="13220" windowHeight="7010" tabRatio="861"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="13215" windowHeight="7005" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="57">
   <si>
     <t>(thousand barrels except where noted)</t>
   </si>
@@ -1943,15 +1943,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="68.875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="7" width="9" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1994,7 +1994,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -2056,8 +2056,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2135,16 +2138,19 @@
       </c>
       <c r="T5" s="9">
         <f t="shared" si="4"/>
-        <v>483308</v>
+        <v>483341</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" ref="U5" si="5">+U6+U7+U11</f>
         <v>501902</v>
       </c>
+      <c r="V5" s="9">
+        <v>414390</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2222,10 +2228,13 @@
         <f>'PADD 1'!U6+'PADD 2'!U6+'PADD 3'!U6+'PADD 4'!U6+'PADD 5'!U6</f>
         <v>91800</v>
       </c>
+      <c r="V6" s="9">
+        <v>81353</v>
+      </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -2297,16 +2306,19 @@
       </c>
       <c r="T7" s="9">
         <f>'PADD 1'!T7+'PADD 2'!T7+'PADD 3'!T7+'PADD 4'!T7+'PADD 5'!T7</f>
-        <v>379354</v>
+        <v>379387</v>
       </c>
       <c r="U7" s="9">
         <f>'PADD 1'!U7+'PADD 2'!U7+'PADD 3'!U7+'PADD 4'!U7+'PADD 5'!U7</f>
         <v>406554</v>
       </c>
+      <c r="V7" s="9">
+        <v>329045</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2384,10 +2396,13 @@
         <f>'PADD 1'!U8+'PADD 2'!U8+'PADD 3'!U8+'PADD 4'!U8+'PADD 5'!U8</f>
         <v>280824</v>
       </c>
+      <c r="V8" s="9">
+        <v>192398</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2465,16 +2480,19 @@
       </c>
       <c r="T9" s="9">
         <f t="shared" si="12"/>
-        <v>121708</v>
+        <v>121741</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" ref="U9" si="13">+U7-U8</f>
         <v>125730</v>
       </c>
+      <c r="V9" s="9">
+        <v>136647</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -2538,10 +2556,13 @@
       <c r="U10" s="31" t="s">
         <v>23</v>
       </c>
+      <c r="V10" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
@@ -2619,10 +2640,13 @@
         <f>'PADD 5'!U11</f>
         <v>3548</v>
       </c>
+      <c r="V11" s="9">
+        <v>3992</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2644,10 +2668,11 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2725,10 +2750,13 @@
         <f>'PADD 1'!U12+'PADD 2'!U12+'PADD 3'!U12+'PADD 4'!U12+'PADD 5'!U13</f>
         <v>166940</v>
       </c>
+      <c r="V13" s="9">
+        <v>163096</v>
+      </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -2806,10 +2834,13 @@
         <f>'PADD 1'!U13+'PADD 2'!U13+'PADD 3'!U13+'PADD 4'!U13+'PADD 5'!U14</f>
         <v>136538</v>
       </c>
+      <c r="V14" s="9">
+        <v>131162</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2893,10 +2924,13 @@
         <f t="shared" ref="U15" si="19">+U6/U14</f>
         <v>0.67234030086862262</v>
       </c>
+      <c r="V15" s="10">
+        <v>0.62024824263124989</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2918,10 +2952,11 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -2999,10 +3034,13 @@
         <f>'PADD 1'!U16+'PADD 2'!U16+'PADD 3'!U16+'PADD 4'!U16+'PADD 5'!U17</f>
         <v>669598</v>
       </c>
+      <c r="V17" s="9">
+        <v>663481</v>
+      </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -3080,10 +3118,13 @@
         <f>'PADD 1'!U17+'PADD 2'!U17+'PADD 3'!U17+'PADD 4'!U17+'PADD 5'!U18</f>
         <v>557206</v>
       </c>
+      <c r="V18" s="9">
+        <v>545432</v>
+      </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -3167,10 +3208,13 @@
         <f t="shared" ref="U19" si="25">U8/U18</f>
         <v>0.50398595851444528</v>
       </c>
+      <c r="V19" s="10">
+        <v>0.35274424676219951</v>
+      </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3192,10 +3236,11 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
+      <c r="V20" s="9"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -3279,10 +3324,13 @@
         <f t="shared" ref="U21" si="33">+U13+U17</f>
         <v>836538</v>
       </c>
+      <c r="V21" s="9">
+        <v>826577</v>
+      </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -3366,10 +3414,13 @@
         <f t="shared" ref="U22" si="41">+U14+U18</f>
         <v>693744</v>
       </c>
+      <c r="V22" s="9">
+        <v>676594</v>
+      </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -3453,10 +3504,13 @@
         <f t="shared" ref="U23" si="47">(U6+U8)/U22</f>
         <v>0.53712032104061436</v>
       </c>
+      <c r="V23" s="10">
+        <v>0.40460157790343987</v>
+      </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3478,10 +3532,11 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
+      <c r="V24" s="9"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -3559,16 +3614,19 @@
       </c>
       <c r="T25" s="9">
         <f t="shared" si="52"/>
-        <v>791235</v>
+        <v>791268</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" ref="U25" si="53">U22+U9</f>
         <v>819474</v>
       </c>
+      <c r="V25" s="9">
+        <v>813241</v>
+      </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -3646,16 +3704,19 @@
       </c>
       <c r="T26" s="10">
         <f t="shared" si="58"/>
-        <v>0.60346546853968797</v>
+        <v>0.60348200609654379</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" ref="U26" si="59">+(U5-U11)/U25</f>
         <v>0.60813887932991162</v>
       </c>
+      <c r="V26" s="10">
+        <v>0.50464499453421552</v>
+      </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3669,7 +3730,7 @@
       <c r="K27" s="4"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>49</v>
       </c>
@@ -3693,8 +3754,9 @@
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-    </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>50</v>
       </c>
@@ -3710,7 +3772,7 @@
       <c r="K29" s="18"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
@@ -3726,7 +3788,7 @@
       <c r="K30" s="18"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>52</v>
       </c>
@@ -3742,7 +3804,7 @@
       <c r="K31" s="34"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>53</v>
       </c>
@@ -3757,7 +3819,7 @@
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3770,7 +3832,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>9</v>
       </c>
@@ -3785,7 +3847,7 @@
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3798,7 +3860,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
   </sheetData>
@@ -3812,32 +3874,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -3899,8 +3961,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3977,15 +4042,17 @@
         <v>9779</v>
       </c>
       <c r="T5" s="25">
-        <f t="shared" si="2"/>
         <v>11369</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" si="2"/>
         <v>8542</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="25">
+        <v>6998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -4049,8 +4116,11 @@
       <c r="U6" s="25">
         <v>5462</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -4114,8 +4184,11 @@
       <c r="U7" s="25">
         <v>3080</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="25">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -4179,8 +4252,11 @@
       <c r="U8" s="25">
         <v>2776</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V8" s="25">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -4257,15 +4333,17 @@
         <v>316</v>
       </c>
       <c r="T9" s="25">
-        <f t="shared" ref="T9:U9" si="8">+T7-T8</f>
         <v>235</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="U9" si="8">+U7-U8</f>
         <v>304</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -4329,8 +4407,11 @@
       <c r="U10" s="30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4353,7 +4434,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -4417,8 +4498,11 @@
       <c r="U12" s="25">
         <v>11152</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V12" s="25">
+        <v>11152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -4482,8 +4566,11 @@
       <c r="U13" s="25">
         <v>8629</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="25">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -4567,8 +4654,11 @@
         <f t="shared" si="11"/>
         <v>0.63298180553945993</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="28">
+        <v>0.65546418782028359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4591,7 +4681,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -4655,8 +4745,11 @@
       <c r="U16" s="25">
         <v>12737</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V16" s="25">
+        <v>11605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -4720,8 +4813,11 @@
       <c r="U17" s="25">
         <v>9912</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="25">
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -4805,8 +4901,11 @@
         <f t="shared" si="14"/>
         <v>0.2800645682001614</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="28">
+        <v>0.12652550328569939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4829,7 +4928,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -4913,8 +5012,11 @@
         <f>U12+U16</f>
         <v>23889</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V20" s="25">
+        <v>22757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -4998,8 +5100,11 @@
         <f>U13+U17</f>
         <v>18541</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="25">
+        <v>17978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -5083,8 +5188,11 @@
         <f t="shared" si="32"/>
         <v>0.44431260449813925</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V22" s="28">
+        <v>0.37340082322839024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5107,7 +5215,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -5191,8 +5299,11 @@
         <f t="shared" si="37"/>
         <v>18845</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="25">
+        <v>18263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -5276,13 +5387,16 @@
         <f t="shared" si="42"/>
         <v>0.45327673122844253</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V25" s="28">
+        <v>0.38317910529485844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>54</v>
       </c>
@@ -5306,8 +5420,9 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>50</v>
       </c>
@@ -5323,7 +5438,7 @@
       <c r="K28" s="21"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>51</v>
       </c>
@@ -5339,7 +5454,7 @@
       <c r="K29" s="21"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>55</v>
       </c>
@@ -5354,7 +5469,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>53</v>
       </c>
@@ -5369,7 +5484,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5382,7 +5497,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
@@ -5408,27 +5523,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -5490,8 +5605,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -5568,15 +5686,17 @@
         <v>128143</v>
       </c>
       <c r="T5" s="25">
-        <f t="shared" si="3"/>
-        <v>139791</v>
+        <v>139824</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" si="3"/>
         <v>127464</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="25">
+        <v>106991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -5640,8 +5760,11 @@
       <c r="U6" s="25">
         <v>12845</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>13124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -5700,13 +5823,16 @@
         <v>114601</v>
       </c>
       <c r="T7" s="25">
-        <v>126037</v>
+        <v>126070</v>
       </c>
       <c r="U7" s="25">
         <v>114619</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="25">
+        <v>93867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -5770,8 +5896,11 @@
       <c r="U8" s="25">
         <v>72863</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V8" s="25">
+        <v>49832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -5836,7 +5965,7 @@
         <v>43055</v>
       </c>
       <c r="Q9" s="25">
-        <f t="shared" ref="Q9:T9" si="9">+Q7-Q8</f>
+        <f t="shared" ref="Q9:S9" si="9">+Q7-Q8</f>
         <v>42917</v>
       </c>
       <c r="R9" s="25">
@@ -5848,15 +5977,17 @@
         <v>43488</v>
       </c>
       <c r="T9" s="25">
-        <f t="shared" si="9"/>
-        <v>42013</v>
+        <v>42046</v>
       </c>
       <c r="U9" s="25">
         <f t="shared" ref="U9" si="10">+U7-U8</f>
         <v>41756</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="25">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -5920,8 +6051,11 @@
       <c r="U10" s="30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5944,7 +6078,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -6008,8 +6142,11 @@
       <c r="U12" s="25">
         <v>23801</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V12" s="25">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -6073,8 +6210,11 @@
       <c r="U13" s="25">
         <v>18678</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="25">
+        <v>17994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -6158,8 +6298,11 @@
         <f t="shared" si="14"/>
         <v>0.68770746332583788</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="28">
+        <v>0.72935422918750692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6182,7 +6325,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -6246,8 +6389,11 @@
       <c r="U16" s="25">
         <v>191060</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V16" s="25">
+        <v>192982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -6311,8 +6457,11 @@
       <c r="U17" s="25">
         <v>152811</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="25">
+        <v>152681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -6396,8 +6545,11 @@
         <f t="shared" si="17"/>
         <v>0.4768177683543724</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="28">
+        <v>0.32637983770082724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6420,7 +6572,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -6504,8 +6656,11 @@
         <f t="shared" si="24"/>
         <v>214861</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V20" s="25">
+        <v>216882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -6589,8 +6744,11 @@
         <f t="shared" si="31"/>
         <v>171489</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="25">
+        <v>170675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -6674,8 +6832,11 @@
         <f t="shared" si="36"/>
         <v>0.49978715836001142</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V22" s="28">
+        <v>0.3688648015233631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6698,7 +6859,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -6776,14 +6937,17 @@
       </c>
       <c r="T24" s="25">
         <f t="shared" ref="T24:U24" si="42">+T21+T9</f>
-        <v>212221</v>
+        <v>212254</v>
       </c>
       <c r="U24" s="25">
         <f t="shared" si="42"/>
         <v>213245</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="25">
+        <v>214710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -6861,15 +7025,18 @@
       </c>
       <c r="T25" s="28">
         <f t="shared" ref="T25:U25" si="48">+T5/T24</f>
-        <v>0.65870484070850666</v>
+        <v>0.65875790326684069</v>
       </c>
       <c r="U25" s="28">
         <f t="shared" si="48"/>
         <v>0.59773499964829191</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="28">
+        <v>0.4983046900470402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>54</v>
       </c>
@@ -6893,8 +7060,9 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="24"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>50</v>
       </c>
@@ -6909,7 +7077,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>51</v>
       </c>
@@ -6924,7 +7092,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>55</v>
       </c>
@@ -6939,7 +7107,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>53</v>
       </c>
@@ -6954,7 +7122,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6967,7 +7135,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
@@ -6993,27 +7161,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -7075,8 +7243,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -7135,13 +7306,16 @@
         <v>40363</v>
       </c>
       <c r="T5" s="25">
-        <v>47856</v>
+        <v>47889</v>
       </c>
       <c r="U5" s="25">
         <v>46467</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="25">
+        <v>26158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -7205,8 +7379,11 @@
       <c r="U6" s="25">
         <v>44015</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>23867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -7284,14 +7461,17 @@
       </c>
       <c r="T7" s="25">
         <f t="shared" si="4"/>
-        <v>2196</v>
+        <v>2229</v>
       </c>
       <c r="U7" s="25">
         <f t="shared" si="4"/>
         <v>2452</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="25">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -7314,7 +7494,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
     </row>
-    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -7378,8 +7558,11 @@
       <c r="U9" s="25">
         <v>94009</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="25">
+        <v>98181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -7443,8 +7626,11 @@
       <c r="U10" s="25">
         <v>76603</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="25">
+        <v>78449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -7528,8 +7714,11 @@
         <f t="shared" si="9"/>
         <v>0.57458585172904453</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V11" s="28">
+        <v>0.30423587298754606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7552,7 +7741,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -7630,14 +7819,17 @@
       </c>
       <c r="T13" s="25">
         <f t="shared" ref="T13:U13" si="15">+T10+T7</f>
-        <v>78538</v>
+        <v>78571</v>
       </c>
       <c r="U13" s="25">
         <f t="shared" si="15"/>
         <v>79055</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="25">
+        <v>80740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -7715,17 +7907,20 @@
       </c>
       <c r="T14" s="28">
         <f t="shared" ref="T14:U14" si="21">+T5/T13</f>
-        <v>0.60933560824059696</v>
+        <v>0.60949968818011735</v>
       </c>
       <c r="U14" s="28">
         <f t="shared" si="21"/>
         <v>0.58778065903484911</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V14" s="28">
+        <v>0.32397820163487739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>54</v>
       </c>
@@ -7749,8 +7944,9 @@
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>45</v>
       </c>
@@ -7765,7 +7961,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>56</v>
       </c>
@@ -7780,7 +7976,7 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>46</v>
       </c>
@@ -7795,7 +7991,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -7808,7 +8004,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
         <v>1</v>
       </c>
@@ -7834,28 +8030,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -7917,8 +8113,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -7995,15 +8194,17 @@
         <v>220603</v>
       </c>
       <c r="T5" s="25">
-        <f>+T6+T7</f>
         <v>251419</v>
       </c>
       <c r="U5" s="25">
         <f>+U6+U7</f>
         <v>294121</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="25">
+        <v>227905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -8067,8 +8268,11 @@
       <c r="U6" s="25">
         <v>51057</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>41565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -8132,8 +8336,11 @@
       <c r="U7" s="25">
         <v>243064</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="25">
+        <v>186340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -8197,8 +8404,11 @@
       <c r="U8" s="25">
         <v>181109</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V8" s="25">
+        <v>116389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -8263,7 +8473,7 @@
         <v>48881</v>
       </c>
       <c r="Q9" s="25">
-        <f t="shared" ref="Q9:T9" si="9">+Q7-Q8</f>
+        <f t="shared" ref="Q9:S9" si="9">+Q7-Q8</f>
         <v>50159</v>
       </c>
       <c r="R9" s="25">
@@ -8275,15 +8485,17 @@
         <v>57462</v>
       </c>
       <c r="T9" s="25">
-        <f t="shared" si="9"/>
         <v>57941</v>
       </c>
       <c r="U9" s="25">
         <f t="shared" ref="U9" si="10">+U7-U8</f>
         <v>61955</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="25">
+        <v>69951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -8347,8 +8559,11 @@
       <c r="U10" s="29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -8371,7 +8586,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -8435,8 +8650,11 @@
       <c r="U12" s="25">
         <v>90330</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V12" s="25">
+        <v>86594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -8500,8 +8718,11 @@
       <c r="U13" s="25">
         <v>73686</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="25">
+        <v>68867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -8585,8 +8806,11 @@
         <f t="shared" si="14"/>
         <v>0.69289960100968973</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="28">
+        <v>0.6035546778573192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8609,7 +8833,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -8673,8 +8897,11 @@
       <c r="U16" s="25">
         <v>405820</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V16" s="25">
+        <v>398522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -8738,8 +8965,11 @@
       <c r="U17" s="25">
         <v>346331</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="25">
+        <v>334045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -8823,8 +9053,11 @@
         <f t="shared" si="18"/>
         <v>0.52293615067666477</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="28">
+        <v>0.34842311664596087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8847,7 +9080,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -8931,8 +9164,11 @@
         <f t="shared" si="25"/>
         <v>496150</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V20" s="25">
+        <v>485116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -9016,8 +9252,11 @@
         <f t="shared" si="32"/>
         <v>420017</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="25">
+        <v>402912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -9101,8 +9340,11 @@
         <f t="shared" si="38"/>
         <v>0.55275381710740279</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V22" s="28">
+        <v>0.39203101421650383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9125,7 +9367,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -9209,8 +9451,11 @@
         <f t="shared" si="44"/>
         <v>481972</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="25">
+        <v>472863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -9294,11 +9539,14 @@
         <f>+U5/U24</f>
         <v>0.61024499348509875</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V25" s="28">
+        <v>0.48196835024097889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
@@ -9322,8 +9570,9 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="24"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>50</v>
       </c>
@@ -9339,7 +9588,7 @@
       <c r="K28" s="19"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
@@ -9355,7 +9604,7 @@
       <c r="K29" s="19"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>55</v>
       </c>
@@ -9370,7 +9619,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>53</v>
       </c>
@@ -9385,7 +9634,7 @@
       <c r="J31" s="43"/>
       <c r="K31" s="43"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -9398,7 +9647,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
@@ -9427,27 +9676,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -9509,8 +9758,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -9587,15 +9839,17 @@
         <v>20850</v>
       </c>
       <c r="T5" s="25">
-        <f t="shared" si="3"/>
         <v>23655</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" si="3"/>
         <v>23494</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="25">
+        <v>25698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -9659,8 +9913,11 @@
       <c r="U6" s="25">
         <v>2514</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -9724,8 +9981,11 @@
       <c r="U7" s="25">
         <v>20980</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="25">
+        <v>23091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -9789,8 +10049,11 @@
       <c r="U8" s="25">
         <v>11099</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V8" s="25">
+        <v>12511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -9867,15 +10130,17 @@
         <v>9227</v>
       </c>
       <c r="T9" s="25">
-        <f t="shared" ref="T9:U9" si="10">+T7-T8</f>
         <v>9289</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U9" si="10">+U7-U8</f>
         <v>9881</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="25">
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -9939,8 +10204,11 @@
       <c r="U10" s="29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -9963,7 +10231,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -10027,8 +10295,11 @@
       <c r="U12" s="25">
         <v>4359</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V12" s="25">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -10092,8 +10363,11 @@
       <c r="U13" s="25">
         <v>3823</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="25">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -10177,8 +10451,11 @@
         <f t="shared" si="14"/>
         <v>0.6575987444415381</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="28">
+        <v>0.70005370569280345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -10201,7 +10478,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -10265,8 +10542,11 @@
       <c r="U16" s="25">
         <v>30067</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V16" s="25">
+        <v>30435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -10330,8 +10610,11 @@
       <c r="U17" s="25">
         <v>23346</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="25">
+        <v>23446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -10415,8 +10698,11 @@
         <f t="shared" si="18"/>
         <v>0.47541334704017818</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="28">
+        <v>0.53360914441695817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -10439,7 +10725,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10523,8 +10809,11 @@
         <f t="shared" si="25"/>
         <v>34426</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V20" s="25">
+        <v>34731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -10608,8 +10897,11 @@
         <f t="shared" si="32"/>
         <v>27169</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="25">
+        <v>27170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -10693,8 +10985,11 @@
         <f t="shared" si="38"/>
         <v>0.50104898965733002</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V22" s="28">
+        <v>0.55642252484357746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -10717,7 +11012,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -10801,8 +11096,11 @@
         <f t="shared" si="44"/>
         <v>37050</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="25">
+        <v>37750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -10886,11 +11184,14 @@
         <f t="shared" si="50"/>
         <v>0.63411605937921722</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V25" s="28">
+        <v>0.68074172185430459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
@@ -10914,8 +11215,9 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V27" s="24"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>50</v>
       </c>
@@ -10930,7 +11232,7 @@
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
@@ -10945,7 +11247,7 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
         <v>47</v>
       </c>
@@ -10960,7 +11262,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>48</v>
       </c>
@@ -10975,7 +11277,7 @@
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -10988,7 +11290,7 @@
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>9</v>
       </c>
@@ -11014,27 +11316,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -11096,8 +11398,11 @@
       <c r="U4" s="12">
         <v>44256</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="V4" s="12">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -11174,15 +11479,17 @@
         <v>46239</v>
       </c>
       <c r="T5" s="25">
-        <f t="shared" si="3"/>
         <v>57074</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" si="3"/>
         <v>48281</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="25">
+        <v>46798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -11246,8 +11553,11 @@
       <c r="U6" s="25">
         <v>19922</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>18557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -11311,8 +11621,11 @@
       <c r="U7" s="25">
         <v>24811</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="25">
+        <v>24249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -11376,8 +11689,11 @@
       <c r="U8" s="25">
         <v>12977</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V8" s="25">
+        <v>12453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -11454,15 +11770,17 @@
         <v>11706</v>
       </c>
       <c r="T9" s="25">
-        <f t="shared" ref="T9:U9" si="9">+T7-T8</f>
         <v>12230</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="U9" si="9">+U7-U8</f>
         <v>11834</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V9" s="25">
+        <v>11796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -11526,8 +11844,11 @@
       <c r="U10" s="29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V10" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -11591,8 +11912,11 @@
       <c r="U11" s="25">
         <v>3548</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V11" s="25">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -11614,8 +11938,9 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -11679,8 +12004,11 @@
       <c r="U13" s="25">
         <v>37298</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="25">
+        <v>37154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -11744,8 +12072,12 @@
       <c r="U14" s="25">
         <v>31722</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="25">
+        <v>32186</v>
+      </c>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -11829,8 +12161,12 @@
         <f t="shared" si="13"/>
         <v>0.62801840993632174</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V15" s="28">
+        <v>0.57655502392344493</v>
+      </c>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -11852,8 +12188,9 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -11917,8 +12254,12 @@
       <c r="U17" s="25">
         <v>29914</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="25">
+        <v>29937</v>
+      </c>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -11982,8 +12323,12 @@
       <c r="U18" s="25">
         <v>24806</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="25">
+        <v>25673</v>
+      </c>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
@@ -12067,8 +12412,11 @@
         <f t="shared" si="18"/>
         <v>0.52313956300894948</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V19" s="28">
+        <v>0.48506212752697386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -12091,7 +12439,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -12175,8 +12523,11 @@
         <f t="shared" si="25"/>
         <v>67212</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="25">
+        <v>67091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -12260,8 +12611,11 @@
         <f t="shared" si="32"/>
         <v>56528</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V22" s="25">
+        <v>57859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -12345,8 +12699,11 @@
         <f t="shared" si="38"/>
         <v>0.5819947636569488</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V23" s="28">
+        <v>0.53595810504847996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -12369,7 +12726,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -12453,8 +12810,11 @@
         <f t="shared" si="44"/>
         <v>68362</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V25" s="25">
+        <v>69655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -12538,11 +12898,14 @@
         <f t="shared" si="50"/>
         <v>0.65435475849155966</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V26" s="28">
+        <v>0.61454310530471612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>49</v>
       </c>
@@ -12566,8 +12929,9 @@
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="24"/>
+    </row>
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>50</v>
       </c>
@@ -12582,7 +12946,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>51</v>
       </c>
@@ -12597,7 +12961,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>52</v>
       </c>
@@ -12612,7 +12976,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>53</v>
       </c>
@@ -12627,7 +12991,7 @@
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -12640,7 +13004,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>9</v>
       </c>

--- a/data-raw/crudeoilstorage.xlsx
+++ b/data-raw/crudeoilstorage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSB\OneDrive - Energy Information Administration\Documents\M_docs\work_2022\Pet_Storage_Cap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2021 Storage Capacity\PSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="13215" windowHeight="7005" tabRatio="861"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="13220" windowHeight="7010" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="5" r:id="rId1"/>
@@ -1943,15 +1943,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.875" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="68.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="7" width="9" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1994,7 +1994,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -2060,7 +2060,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2141,16 +2141,17 @@
         <v>483341</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" ref="U5" si="5">+U6+U7+U11</f>
-        <v>501902</v>
+        <f t="shared" ref="U5:V5" si="5">+U6+U7+U11</f>
+        <v>502622</v>
       </c>
       <c r="V5" s="9">
+        <f t="shared" si="5"/>
         <v>414390</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2226,15 +2227,16 @@
       </c>
       <c r="U6" s="9">
         <f>'PADD 1'!U6+'PADD 2'!U6+'PADD 3'!U6+'PADD 4'!U6+'PADD 5'!U6</f>
-        <v>91800</v>
+        <v>91801</v>
       </c>
       <c r="V6" s="9">
+        <f>'PADD 1'!V6+'PADD 2'!V6+'PADD 3'!V6+'PADD 4'!V6+'PADD 5'!V6</f>
         <v>81353</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -2310,15 +2312,16 @@
       </c>
       <c r="U7" s="9">
         <f>'PADD 1'!U7+'PADD 2'!U7+'PADD 3'!U7+'PADD 4'!U7+'PADD 5'!U7</f>
-        <v>406554</v>
+        <v>407273</v>
       </c>
       <c r="V7" s="9">
+        <f>'PADD 1'!V7+'PADD 2'!V7+'PADD 3'!V7+'PADD 4'!V7+'PADD 5'!V7</f>
         <v>329045</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2394,15 +2397,16 @@
       </c>
       <c r="U8" s="9">
         <f>'PADD 1'!U8+'PADD 2'!U8+'PADD 3'!U8+'PADD 4'!U8+'PADD 5'!U8</f>
-        <v>280824</v>
+        <v>276289</v>
       </c>
       <c r="V8" s="9">
+        <f>'PADD 1'!V8+'PADD 2'!V8+'PADD 3'!V8+'PADD 4'!V8+'PADD 5'!V8</f>
         <v>192398</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2483,16 +2487,17 @@
         <v>121741</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" ref="U9" si="13">+U7-U8</f>
-        <v>125730</v>
+        <f t="shared" ref="U9:V9" si="13">+U7-U8</f>
+        <v>130984</v>
       </c>
       <c r="V9" s="9">
+        <f t="shared" si="13"/>
         <v>136647</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2567,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
@@ -2641,12 +2646,13 @@
         <v>3548</v>
       </c>
       <c r="V11" s="9">
+        <f>'PADD 5'!V11</f>
         <v>3992</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2672,7 +2678,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2748,15 +2754,16 @@
       </c>
       <c r="U13" s="9">
         <f>'PADD 1'!U12+'PADD 2'!U12+'PADD 3'!U12+'PADD 4'!U12+'PADD 5'!U13</f>
-        <v>166940</v>
+        <v>166092</v>
       </c>
       <c r="V13" s="9">
+        <f>'PADD 1'!V12+'PADD 2'!V12+'PADD 3'!V12+'PADD 4'!V12+'PADD 5'!V13</f>
         <v>163096</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -2832,15 +2839,16 @@
       </c>
       <c r="U14" s="9">
         <f>'PADD 1'!U13+'PADD 2'!U13+'PADD 3'!U13+'PADD 4'!U13+'PADD 5'!U14</f>
-        <v>136538</v>
+        <v>135721</v>
       </c>
       <c r="V14" s="9">
+        <f>'PADD 1'!V13+'PADD 2'!V13+'PADD 3'!V13+'PADD 4'!V13+'PADD 5'!V14</f>
         <v>131162</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2921,16 +2929,17 @@
         <v>0.68594336523204036</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" ref="U15" si="19">+U6/U14</f>
-        <v>0.67234030086862262</v>
+        <f t="shared" ref="U15:V15" si="19">+U6/U14</f>
+        <v>0.67639495730211241</v>
       </c>
       <c r="V15" s="10">
+        <f t="shared" si="19"/>
         <v>0.62024824263124989</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2956,7 +2965,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -3032,15 +3041,16 @@
       </c>
       <c r="U17" s="9">
         <f>'PADD 1'!U16+'PADD 2'!U16+'PADD 3'!U16+'PADD 4'!U16+'PADD 5'!U17</f>
-        <v>669598</v>
+        <v>661405</v>
       </c>
       <c r="V17" s="9">
+        <f>'PADD 1'!V16+'PADD 2'!V16+'PADD 3'!V16+'PADD 4'!V16+'PADD 5'!V17</f>
         <v>663481</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -3116,15 +3126,16 @@
       </c>
       <c r="U18" s="9">
         <f>'PADD 1'!U17+'PADD 2'!U17+'PADD 3'!U17+'PADD 4'!U17+'PADD 5'!U18</f>
-        <v>557206</v>
+        <v>548621</v>
       </c>
       <c r="V18" s="9">
+        <f>'PADD 1'!V17+'PADD 2'!V17+'PADD 3'!V17+'PADD 4'!V17+'PADD 5'!V18</f>
         <v>545432</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -3205,16 +3216,17 @@
         <v>0.48938401048492791</v>
       </c>
       <c r="U19" s="10">
-        <f t="shared" ref="U19" si="25">U8/U18</f>
-        <v>0.50398595851444528</v>
+        <f t="shared" ref="U19:V19" si="25">U8/U18</f>
+        <v>0.50360631474187101</v>
       </c>
       <c r="V19" s="10">
+        <f t="shared" si="25"/>
         <v>0.35274424676219951</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3236,11 +3248,11 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="9"/>
+      <c r="V20" s="8"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -3321,16 +3333,17 @@
         <v>810405</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" ref="U21" si="33">+U13+U17</f>
-        <v>836538</v>
+        <f t="shared" ref="U21:V21" si="33">+U13+U17</f>
+        <v>827497</v>
       </c>
       <c r="V21" s="9">
+        <f t="shared" si="33"/>
         <v>826577</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -3411,16 +3424,17 @@
         <v>669527</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" ref="U22" si="41">+U14+U18</f>
-        <v>693744</v>
+        <f t="shared" ref="U22:V22" si="41">+U14+U18</f>
+        <v>684342</v>
       </c>
       <c r="V22" s="9">
+        <f t="shared" si="41"/>
         <v>676594</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -3501,16 +3515,17 @@
         <v>0.53138260294207706</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23" si="47">(U6+U8)/U22</f>
-        <v>0.53712032104061436</v>
+        <f t="shared" ref="U23:V23" si="47">(U6+U8)/U22</f>
+        <v>0.53787433768495874</v>
       </c>
       <c r="V23" s="10">
+        <f t="shared" si="47"/>
         <v>0.40460157790343987</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3532,11 +3547,11 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
-      <c r="V24" s="9"/>
+      <c r="V24" s="8"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -3617,16 +3632,17 @@
         <v>791268</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" ref="U25" si="53">U22+U9</f>
-        <v>819474</v>
+        <f t="shared" ref="U25:V25" si="53">U22+U9</f>
+        <v>815326</v>
       </c>
       <c r="V25" s="9">
+        <f t="shared" si="53"/>
         <v>813241</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -3707,16 +3723,17 @@
         <v>0.60348200609654379</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" ref="U26" si="59">+(U5-U11)/U25</f>
-        <v>0.60813887932991162</v>
+        <f t="shared" ref="U26:V26" si="59">+(U5-U11)/U25</f>
+        <v>0.6121158898403829</v>
       </c>
       <c r="V26" s="10">
+        <f t="shared" si="59"/>
         <v>0.50464499453421552</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3730,7 +3747,7 @@
       <c r="K27" s="4"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>49</v>
       </c>
@@ -3756,7 +3773,7 @@
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +3789,7 @@
       <c r="K29" s="18"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
@@ -3788,7 +3805,7 @@
       <c r="K30" s="18"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>52</v>
       </c>
@@ -3804,7 +3821,7 @@
       <c r="K31" s="34"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>53</v>
       </c>
@@ -3819,7 +3836,7 @@
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3832,7 +3849,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>9</v>
       </c>
@@ -3847,7 +3864,7 @@
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3860,7 +3877,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
     </row>
   </sheetData>
@@ -3883,23 +3900,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -3965,7 +3982,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4039,7 @@
         <v>18812</v>
       </c>
       <c r="O5" s="25">
-        <f t="shared" ref="O5:U5" si="2">+O6+O7</f>
+        <f t="shared" ref="O5:V5" si="2">+O6+O7</f>
         <v>11969</v>
       </c>
       <c r="P5" s="25">
@@ -4046,13 +4063,14 @@
       </c>
       <c r="U5" s="25">
         <f t="shared" si="2"/>
-        <v>8542</v>
+        <v>8649</v>
       </c>
       <c r="V5" s="25">
+        <f t="shared" si="2"/>
         <v>6998</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -4120,7 +4138,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -4182,13 +4200,13 @@
         <v>3300</v>
       </c>
       <c r="U7" s="25">
-        <v>3080</v>
+        <v>3187</v>
       </c>
       <c r="V7" s="25">
         <v>1498</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -4250,13 +4268,13 @@
         <v>3065</v>
       </c>
       <c r="U8" s="25">
-        <v>2776</v>
+        <v>2883</v>
       </c>
       <c r="V8" s="25">
         <v>1213</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -4336,14 +4354,15 @@
         <v>235</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" ref="U9" si="8">+U7-U8</f>
+        <f t="shared" ref="U9:V9" si="8">+U7-U8</f>
         <v>304</v>
       </c>
       <c r="V9" s="25">
+        <f t="shared" si="8"/>
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -4411,7 +4430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4434,7 +4453,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>11152</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4589,7 @@
         <v>8391</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -4627,7 +4646,7 @@
         <v>0.85240168910002634</v>
       </c>
       <c r="O14" s="28">
-        <f t="shared" ref="O14:U14" si="11">+O6/O13</f>
+        <f t="shared" ref="O14:V14" si="11">+O6/O13</f>
         <v>0.75848032564450474</v>
       </c>
       <c r="P14" s="28">
@@ -4655,10 +4674,11 @@
         <v>0.63298180553945993</v>
       </c>
       <c r="V14" s="28">
+        <f t="shared" si="11"/>
         <v>0.65546418782028359</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4681,7 +4701,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -4743,13 +4763,13 @@
         <v>12825</v>
       </c>
       <c r="U16" s="25">
-        <v>12737</v>
+        <v>12887</v>
       </c>
       <c r="V16" s="25">
         <v>11605</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -4811,13 +4831,13 @@
         <v>11076</v>
       </c>
       <c r="U17" s="25">
-        <v>9912</v>
+        <v>10054</v>
       </c>
       <c r="V17" s="25">
         <v>9587</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -4874,7 +4894,7 @@
         <v>0.62341419986645896</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" ref="O18:U18" si="14">+O8/O17</f>
+        <f t="shared" ref="O18:V18" si="14">+O8/O17</f>
         <v>0.19888991674375578</v>
       </c>
       <c r="P18" s="28">
@@ -4899,13 +4919,14 @@
       </c>
       <c r="U18" s="28">
         <f t="shared" si="14"/>
-        <v>0.2800645682001614</v>
+        <v>0.28675154167495526</v>
       </c>
       <c r="V18" s="28">
+        <f t="shared" si="14"/>
         <v>0.12652550328569939</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4928,7 +4949,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -5005,18 +5026,19 @@
         <v>26244</v>
       </c>
       <c r="T20" s="25">
-        <f>T12+T16</f>
+        <f t="shared" ref="T20:V21" si="22">T12+T16</f>
         <v>28395</v>
       </c>
       <c r="U20" s="25">
-        <f>U12+U16</f>
-        <v>23889</v>
+        <f t="shared" si="22"/>
+        <v>24039</v>
       </c>
       <c r="V20" s="25">
+        <f t="shared" si="22"/>
         <v>22757</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -5025,174 +5047,176 @@
         <v>21585</v>
       </c>
       <c r="C21" s="25">
-        <f t="shared" ref="C21:H21" si="22">+C13+C17</f>
+        <f t="shared" ref="C21:H21" si="23">+C13+C17</f>
         <v>21744</v>
       </c>
       <c r="D21" s="25">
+        <f t="shared" si="23"/>
+        <v>20618</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="23"/>
+        <v>19869</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="23"/>
+        <v>17577</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="23"/>
+        <v>17953</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="23"/>
+        <v>19172</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" ref="I21:J21" si="24">+I13+I17</f>
+        <v>19479</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" si="24"/>
+        <v>19499</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" ref="K21:L21" si="25">+K13+K17</f>
+        <v>20281</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="25"/>
+        <v>23578</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" ref="M21:N21" si="26">+M13+M17</f>
+        <v>23931</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="26"/>
+        <v>24142</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" ref="O21:P21" si="27">+O13+O17</f>
+        <v>21914</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" si="27"/>
+        <v>20693</v>
+      </c>
+      <c r="Q21" s="25">
+        <f t="shared" ref="Q21" si="28">+Q13+Q17</f>
+        <v>20576</v>
+      </c>
+      <c r="R21" s="25">
+        <f t="shared" ref="R21:S21" si="29">+R13+R17</f>
+        <v>22764</v>
+      </c>
+      <c r="S21" s="25">
+        <f t="shared" si="29"/>
+        <v>22413</v>
+      </c>
+      <c r="T21" s="25">
         <f t="shared" si="22"/>
-        <v>20618</v>
-      </c>
-      <c r="E21" s="25">
+        <v>23686</v>
+      </c>
+      <c r="U21" s="25">
         <f t="shared" si="22"/>
-        <v>19869</v>
-      </c>
-      <c r="F21" s="25">
+        <v>18683</v>
+      </c>
+      <c r="V21" s="25">
         <f t="shared" si="22"/>
-        <v>17577</v>
-      </c>
-      <c r="G21" s="25">
-        <f t="shared" si="22"/>
-        <v>17953</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="22"/>
-        <v>19172</v>
-      </c>
-      <c r="I21" s="25">
-        <f t="shared" ref="I21:J21" si="23">+I13+I17</f>
-        <v>19479</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" si="23"/>
-        <v>19499</v>
-      </c>
-      <c r="K21" s="25">
-        <f t="shared" ref="K21:L21" si="24">+K13+K17</f>
-        <v>20281</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="24"/>
-        <v>23578</v>
-      </c>
-      <c r="M21" s="25">
-        <f t="shared" ref="M21:N21" si="25">+M13+M17</f>
-        <v>23931</v>
-      </c>
-      <c r="N21" s="25">
-        <f t="shared" si="25"/>
-        <v>24142</v>
-      </c>
-      <c r="O21" s="25">
-        <f t="shared" ref="O21:P21" si="26">+O13+O17</f>
-        <v>21914</v>
-      </c>
-      <c r="P21" s="25">
-        <f t="shared" si="26"/>
-        <v>20693</v>
-      </c>
-      <c r="Q21" s="25">
-        <f t="shared" ref="Q21" si="27">+Q13+Q17</f>
-        <v>20576</v>
-      </c>
-      <c r="R21" s="25">
-        <f t="shared" ref="R21:S21" si="28">+R13+R17</f>
-        <v>22764</v>
-      </c>
-      <c r="S21" s="25">
-        <f t="shared" si="28"/>
-        <v>22413</v>
-      </c>
-      <c r="T21" s="25">
-        <f>T13+T17</f>
-        <v>23686</v>
-      </c>
-      <c r="U21" s="25">
-        <f>U13+U17</f>
-        <v>18541</v>
-      </c>
-      <c r="V21" s="25">
         <v>17978</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="28">
-        <f t="shared" ref="B22:L22" si="29">(B6+B8)/B21</f>
+        <f t="shared" ref="B22:L22" si="30">(B6+B8)/B21</f>
         <v>0.50970581422283989</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49048013245033112</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.57716558347075375</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49735769288841913</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.63742390624111056</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.54876622291539023</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.55534112247026912</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.50444067970635043</v>
       </c>
       <c r="J22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.75916713677624492</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.71022138947783642</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.8089744677241496</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" ref="M22:N22" si="30">(M6+M8)/M21</f>
+        <f t="shared" ref="M22:N22" si="31">(M6+M8)/M21</f>
         <v>0.67097070745058707</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.76716924861237679</v>
       </c>
       <c r="O22" s="28">
-        <f t="shared" ref="O22:S22" si="31">(O6+O8)/O21</f>
+        <f t="shared" ref="O22:S22" si="32">(O6+O8)/O21</f>
         <v>0.53764716619512642</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.58778330836514758</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.58514774494556765</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.6072307151642945</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.42221032436532369</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" ref="T22:U22" si="32">(T6+T8)/T21</f>
+        <f t="shared" ref="T22:U22" si="33">(T6+T8)/T21</f>
         <v>0.47006670607109685</v>
       </c>
       <c r="U22" s="28">
-        <f t="shared" si="32"/>
-        <v>0.44431260449813925</v>
+        <f t="shared" si="33"/>
+        <v>0.4466627415297329</v>
       </c>
       <c r="V22" s="28">
+        <f t="shared" ref="V22" si="34">(V6+V8)/V21</f>
         <v>0.37340082322839024</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5215,7 +5239,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -5224,179 +5248,181 @@
         <v>21953</v>
       </c>
       <c r="C24" s="25">
-        <f t="shared" ref="C24:L24" si="33">+C21+C9</f>
+        <f t="shared" ref="C24:L24" si="35">+C21+C9</f>
         <v>22081</v>
       </c>
       <c r="D24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>20947</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>20197</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>17887</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>18273</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>19418</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>19702</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>19760</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>20514</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>23782</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" ref="M24:N24" si="34">+M21+M9</f>
+        <f t="shared" ref="M24:N24" si="36">+M21+M9</f>
         <v>24166</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>24433</v>
       </c>
       <c r="O24" s="25">
-        <f t="shared" ref="O24:Q24" si="35">+O21+O9</f>
+        <f t="shared" ref="O24:Q24" si="37">+O21+O9</f>
         <v>22101</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>20839</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>20795</v>
       </c>
       <c r="R24" s="25">
-        <f t="shared" ref="R24:S24" si="36">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="38">+R21+R9</f>
         <v>22814</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>22729</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:U24" si="37">+T21+T9</f>
+        <f t="shared" ref="T24:U24" si="39">+T21+T9</f>
         <v>23921</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" si="37"/>
-        <v>18845</v>
+        <f t="shared" si="39"/>
+        <v>18987</v>
       </c>
       <c r="V24" s="25">
+        <f t="shared" ref="V24" si="40">+V21+V9</f>
         <v>18263</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:L25" si="38">+B5/B24</f>
+        <f t="shared" ref="B25:L25" si="41">+B5/B24</f>
         <v>0.51792465722224756</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.49825641954621619</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.58380675036998142</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.50552062187453584</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.64370772069100468</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.55666830843320747</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.5609743536924503</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.51004974114303114</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.76234817813765188</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.71351272301842639</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.81061306870742578</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" ref="M25:N25" si="39">+M5/M24</f>
+        <f t="shared" ref="M25:N25" si="42">+M5/M24</f>
         <v>0.67417032193991555</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.76994229116359025</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" ref="O25:Q25" si="40">+O5/O24</f>
+        <f t="shared" ref="O25:Q25" si="43">+O5/O24</f>
         <v>0.54155920546581604</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.59067133739622824</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.5895167107477759</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" ref="R25:S25" si="41">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="44">+R5/R24</f>
         <v>0.6080915227491891</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.4302433015090853</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" ref="T25:U25" si="42">+T5/T24</f>
+        <f t="shared" ref="T25:U25" si="45">+T5/T24</f>
         <v>0.47527277287738806</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="42"/>
-        <v>0.45327673122844253</v>
+        <f t="shared" si="45"/>
+        <v>0.45552219939958921</v>
       </c>
       <c r="V25" s="28">
+        <f t="shared" ref="V25" si="46">+V5/V24</f>
         <v>0.38317910529485844</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>54</v>
       </c>
@@ -5422,7 +5448,7 @@
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>50</v>
       </c>
@@ -5438,7 +5464,7 @@
       <c r="K28" s="21"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>51</v>
       </c>
@@ -5454,7 +5480,7 @@
       <c r="K29" s="21"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>55</v>
       </c>
@@ -5469,7 +5495,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>53</v>
       </c>
@@ -5484,7 +5510,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5497,7 +5523,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
@@ -5527,23 +5553,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -5609,7 +5635,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -5670,7 +5696,7 @@
         <v>149558</v>
       </c>
       <c r="P5" s="25">
-        <f t="shared" ref="P5:U5" si="3">+P6+P7</f>
+        <f t="shared" ref="P5:V5" si="3">+P6+P7</f>
         <v>122305</v>
       </c>
       <c r="Q5" s="25">
@@ -5690,13 +5716,14 @@
       </c>
       <c r="U5" s="25">
         <f t="shared" si="3"/>
-        <v>127464</v>
+        <v>127460</v>
       </c>
       <c r="V5" s="25">
+        <f t="shared" si="3"/>
         <v>106991</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -5764,7 +5791,7 @@
         <v>13124</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -5826,13 +5853,13 @@
         <v>126070</v>
       </c>
       <c r="U7" s="25">
-        <v>114619</v>
+        <v>114615</v>
       </c>
       <c r="V7" s="25">
         <v>93867</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -5894,13 +5921,13 @@
         <v>84024</v>
       </c>
       <c r="U8" s="25">
-        <v>72863</v>
+        <v>72912</v>
       </c>
       <c r="V8" s="25">
         <v>49832</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -5980,14 +6007,15 @@
         <v>42046</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" ref="U9" si="10">+U7-U8</f>
-        <v>41756</v>
+        <f t="shared" ref="U9:V9" si="10">+U7-U8</f>
+        <v>41703</v>
       </c>
       <c r="V9" s="25">
+        <f t="shared" si="10"/>
         <v>44035</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -6055,7 +6083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6078,7 +6106,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -6146,7 +6174,7 @@
         <v>23900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -6214,7 +6242,7 @@
         <v>17994</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -6275,7 +6303,7 @@
         <v>0.70425999581327192</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" ref="P14:U14" si="14">+P6/P13</f>
+        <f t="shared" ref="P14:V14" si="14">+P6/P13</f>
         <v>0.75719376628902713</v>
       </c>
       <c r="Q14" s="28">
@@ -6299,10 +6327,11 @@
         <v>0.68770746332583788</v>
       </c>
       <c r="V14" s="28">
+        <f t="shared" si="14"/>
         <v>0.72935422918750692</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6325,7 +6354,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -6387,13 +6416,13 @@
         <v>187745</v>
       </c>
       <c r="U16" s="25">
-        <v>191060</v>
+        <v>190347</v>
       </c>
       <c r="V16" s="25">
         <v>192982</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -6455,13 +6484,13 @@
         <v>151121</v>
       </c>
       <c r="U17" s="25">
-        <v>152811</v>
+        <v>152147</v>
       </c>
       <c r="V17" s="25">
         <v>152681</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -6522,7 +6551,7 @@
         <v>0.58389555426384432</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" ref="P18:U18" si="17">+P8/P17</f>
+        <f t="shared" ref="P18:V18" si="17">+P8/P17</f>
         <v>0.43556091515090611</v>
       </c>
       <c r="Q18" s="28">
@@ -6543,13 +6572,14 @@
       </c>
       <c r="U18" s="28">
         <f t="shared" si="17"/>
-        <v>0.4768177683543724</v>
+        <v>0.47922075361328187</v>
       </c>
       <c r="V18" s="28">
+        <f t="shared" si="17"/>
         <v>0.32637983770082724</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6572,7 +6602,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -6654,13 +6684,14 @@
       </c>
       <c r="U20" s="25">
         <f t="shared" si="24"/>
-        <v>214861</v>
+        <v>214148</v>
       </c>
       <c r="V20" s="25">
+        <f t="shared" ref="V20" si="25">+V12+V16</f>
         <v>216882</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -6669,174 +6700,176 @@
         <v>108496</v>
       </c>
       <c r="C21" s="25">
-        <f t="shared" ref="C21:I21" si="25">+C13+C17</f>
+        <f t="shared" ref="C21:I21" si="26">+C13+C17</f>
         <v>111794</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>121542</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>125636</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>127681</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>130487</v>
       </c>
       <c r="H21" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>132164</v>
       </c>
       <c r="I21" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>135859</v>
       </c>
       <c r="J21" s="25">
-        <f t="shared" ref="J21:K21" si="26">+J13+J17</f>
+        <f t="shared" ref="J21:K21" si="27">+J13+J17</f>
         <v>153315</v>
       </c>
       <c r="K21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>157711</v>
       </c>
       <c r="L21" s="25">
-        <f t="shared" ref="L21:M21" si="27">+L13+L17</f>
+        <f t="shared" ref="L21:M21" si="28">+L13+L17</f>
         <v>165382</v>
       </c>
       <c r="M21" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>168878</v>
       </c>
       <c r="N21" s="25">
-        <f t="shared" ref="N21:O21" si="28">+N13+N17</f>
+        <f t="shared" ref="N21:O21" si="29">+N13+N17</f>
         <v>173914</v>
       </c>
       <c r="O21" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>172221</v>
       </c>
       <c r="P21" s="25">
-        <f t="shared" ref="P21:Q21" si="29">+P13+P17</f>
+        <f t="shared" ref="P21:Q21" si="30">+P13+P17</f>
         <v>168066</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>166692</v>
       </c>
       <c r="R21" s="25">
-        <f t="shared" ref="R21:S21" si="30">+R13+R17</f>
+        <f t="shared" ref="R21:S21" si="31">+R13+R17</f>
         <v>171520</v>
       </c>
       <c r="S21" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>172749</v>
       </c>
       <c r="T21" s="25">
-        <f t="shared" ref="T21:U21" si="31">+T13+T17</f>
+        <f t="shared" ref="T21:U21" si="32">+T13+T17</f>
         <v>170208</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" si="31"/>
-        <v>171489</v>
+        <f t="shared" si="32"/>
+        <v>170825</v>
       </c>
       <c r="V21" s="25">
+        <f t="shared" ref="V21" si="33">+V13+V17</f>
         <v>170675</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="28">
-        <f t="shared" ref="B22:K22" si="32">+(B6+B8)/B21</f>
+        <f t="shared" ref="B22:K22" si="34">+(B6+B8)/B21</f>
         <v>0.72373175047928029</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.57971805284720113</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.61359036382485066</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.60721449266133909</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68308518886913483</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.54164782698659641</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.49577040646469539</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.40043721799807153</v>
       </c>
       <c r="J22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68333822522258092</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.58872875068955244</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" ref="L22:M22" si="33">+(L6+L8)/L21</f>
+        <f t="shared" ref="L22:M22" si="35">+(L6+L8)/L21</f>
         <v>0.67092549370548182</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.61228816068404412</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" ref="N22:O22" si="34">+(N6+N8)/N21</f>
+        <f t="shared" ref="N22:O22" si="36">+(N6+N8)/N21</f>
         <v>0.65681313752774362</v>
       </c>
       <c r="O22" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.59725004500031931</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" ref="P22:S22" si="35">+(P6+P8)/P21</f>
+        <f t="shared" ref="P22:S22" si="37">+(P6+P8)/P21</f>
         <v>0.47154094224887844</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.42057807213303577</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.55268773320895526</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.49004625207671243</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" ref="T22:U22" si="36">+(T6+T8)/T21</f>
+        <f t="shared" ref="T22:U22" si="38">+(T6+T8)/T21</f>
         <v>0.57446183493137803</v>
       </c>
       <c r="U22" s="28">
-        <f t="shared" si="36"/>
-        <v>0.49978715836001142</v>
+        <f t="shared" si="38"/>
+        <v>0.50201668374067032</v>
       </c>
       <c r="V22" s="28">
+        <f t="shared" ref="V22" si="39">+(V6+V8)/V21</f>
         <v>0.3688648015233631</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6858,185 +6891,188 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="25">
-        <f t="shared" ref="B24:K24" si="37">+B21+B9</f>
+        <f t="shared" ref="B24:K24" si="40">+B21+B9</f>
         <v>133752</v>
       </c>
       <c r="C24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>137040</v>
       </c>
       <c r="D24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>147401</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>152906</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>156733</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>159397</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>162044</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>167968</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>187925</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>192102</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" ref="L24:M24" si="38">+L21+L9</f>
+        <f t="shared" ref="L24:M24" si="41">+L21+L9</f>
         <v>204742</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>209127</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" ref="N24:O24" si="39">+N21+N9</f>
+        <f t="shared" ref="N24:O24" si="42">+N21+N9</f>
         <v>215829</v>
       </c>
       <c r="O24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>218920</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" ref="P24:Q24" si="40">+P21+P9</f>
+        <f t="shared" ref="P24:Q24" si="43">+P21+P9</f>
         <v>211121</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>209609</v>
       </c>
       <c r="R24" s="25">
-        <f t="shared" ref="R24:S24" si="41">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="44">+R21+R9</f>
         <v>215160</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>216237</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:U24" si="42">+T21+T9</f>
+        <f t="shared" ref="T24:U24" si="45">+T21+T9</f>
         <v>212254</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" si="42"/>
-        <v>213245</v>
+        <f t="shared" si="45"/>
+        <v>212528</v>
       </c>
       <c r="V24" s="25">
+        <f t="shared" ref="V24" si="46">+V21+V9</f>
         <v>214710</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:L25" si="43">+B5/B24</f>
+        <f t="shared" ref="B25:L25" si="47">+B5/B24</f>
         <v>0.77589867815060709</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.65714389959136021</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.68137936649005093</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.67726577112735931</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.74182845986486567</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.6247796382616988</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.58874750067882797</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.51505048580682034</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.74165757616070238</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.66235645646583585</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.73418741635814833</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" ref="M25:N25" si="44">+M5/M24</f>
+        <f t="shared" ref="M25:N25" si="48">+M5/M24</f>
         <v>0.68690795545290662</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.72346162934545399</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" ref="O25:P25" si="45">+O5/O24</f>
+        <f t="shared" ref="O25:P25" si="49">+O5/O24</f>
         <v>0.68316279919605338</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.57931233747471833</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" ref="Q25" si="46">+Q5/Q24</f>
+        <f t="shared" ref="Q25" si="50">+Q5/Q24</f>
         <v>0.53921348797045932</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" ref="R25:S25" si="47">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="51">+R5/R24</f>
         <v>0.6434142033835285</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.59260441090100213</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" ref="T25:U25" si="48">+T5/T24</f>
+        <f t="shared" ref="T25:U25" si="52">+T5/T24</f>
         <v>0.65875790326684069</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="48"/>
-        <v>0.59773499964829191</v>
+        <f t="shared" si="52"/>
+        <v>0.59973274109764363</v>
       </c>
       <c r="V25" s="28">
+        <f t="shared" ref="V25" si="53">+V5/V24</f>
         <v>0.4983046900470402</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>54</v>
       </c>
@@ -7062,7 +7098,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>50</v>
       </c>
@@ -7077,7 +7113,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>51</v>
       </c>
@@ -7092,7 +7128,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>55</v>
       </c>
@@ -7107,7 +7143,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>53</v>
       </c>
@@ -7122,7 +7158,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -7135,7 +7171,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
@@ -7165,23 +7201,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -7247,7 +7283,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -7309,13 +7345,13 @@
         <v>47889</v>
       </c>
       <c r="U5" s="25">
-        <v>46467</v>
+        <v>46499</v>
       </c>
       <c r="V5" s="25">
         <v>26158</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -7383,7 +7419,7 @@
         <v>23867</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -7440,7 +7476,7 @@
         <v>1928</v>
       </c>
       <c r="O7" s="25">
-        <f t="shared" ref="O7:U7" si="4">+O5-O6</f>
+        <f t="shared" ref="O7:V7" si="4">+O5-O6</f>
         <v>2072</v>
       </c>
       <c r="P7" s="25">
@@ -7465,13 +7501,14 @@
       </c>
       <c r="U7" s="25">
         <f t="shared" si="4"/>
-        <v>2452</v>
+        <v>2484</v>
       </c>
       <c r="V7" s="25">
+        <f t="shared" si="4"/>
         <v>2291</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -7494,7 +7531,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -7562,7 +7599,7 @@
         <v>98181</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -7630,7 +7667,7 @@
         <v>78449</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -7691,7 +7728,7 @@
         <v>0.77820777323577273</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" ref="P11:U11" si="9">+P6/P10</f>
+        <f t="shared" ref="P11:V11" si="9">+P6/P10</f>
         <v>0.44586554041490689</v>
       </c>
       <c r="Q11" s="28">
@@ -7715,10 +7752,11 @@
         <v>0.57458585172904453</v>
       </c>
       <c r="V11" s="28">
+        <f t="shared" si="9"/>
         <v>0.30423587298754606</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7741,7 +7779,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -7823,13 +7861,14 @@
       </c>
       <c r="U13" s="25">
         <f t="shared" si="15"/>
-        <v>79055</v>
+        <v>79087</v>
       </c>
       <c r="V13" s="25">
+        <f t="shared" ref="V13" si="16">+V10+V7</f>
         <v>80740</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -7838,89 +7877,90 @@
         <v>0.86516301004716012</v>
       </c>
       <c r="C14" s="28">
-        <f t="shared" ref="C14:K14" si="16">+C5/C13</f>
+        <f t="shared" ref="C14:K14" si="17">+C5/C13</f>
         <v>0.53849047815260032</v>
       </c>
       <c r="D14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.66620514044720303</v>
       </c>
       <c r="E14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.67476043276661513</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.75395211942834606</v>
       </c>
       <c r="G14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.4851089463863299</v>
       </c>
       <c r="H14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39260832254592526</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26534478229006792</v>
       </c>
       <c r="J14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.8124195888423531</v>
       </c>
       <c r="K14" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.71796353277884528</v>
       </c>
       <c r="L14" s="28">
-        <f t="shared" ref="L14:M14" si="17">+L5/L13</f>
+        <f t="shared" ref="L14:M14" si="18">+L5/L13</f>
         <v>0.84415947892018417</v>
       </c>
       <c r="M14" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.79694370177016938</v>
       </c>
       <c r="N14" s="28">
-        <f t="shared" ref="N14:O14" si="18">+N5/N13</f>
+        <f t="shared" ref="N14:O14" si="19">+N5/N13</f>
         <v>0.88006187083195986</v>
       </c>
       <c r="O14" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.78394437578798881</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" ref="P14:Q14" si="19">+P5/P13</f>
+        <f t="shared" ref="P14:Q14" si="20">+P5/P13</f>
         <v>0.46133984016938429</v>
       </c>
       <c r="Q14" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.33795960642154327</v>
       </c>
       <c r="R14" s="28">
-        <f t="shared" ref="R14:S14" si="20">+R5/R13</f>
+        <f t="shared" ref="R14:S14" si="21">+R5/R13</f>
         <v>0.60171379824036464</v>
       </c>
       <c r="S14" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.51526137741750178</v>
       </c>
       <c r="T14" s="28">
-        <f t="shared" ref="T14:U14" si="21">+T5/T13</f>
+        <f t="shared" ref="T14:U14" si="22">+T5/T13</f>
         <v>0.60949968818011735</v>
       </c>
       <c r="U14" s="28">
-        <f t="shared" si="21"/>
-        <v>0.58778065903484911</v>
+        <f t="shared" si="22"/>
+        <v>0.58794745027627804</v>
       </c>
       <c r="V14" s="28">
+        <f t="shared" ref="V14" si="23">+V5/V13</f>
         <v>0.32397820163487739</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>54</v>
       </c>
@@ -7946,7 +7986,7 @@
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>45</v>
       </c>
@@ -7961,7 +8001,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>56</v>
       </c>
@@ -7976,7 +8016,7 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>46</v>
       </c>
@@ -7991,7 +8031,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -8004,7 +8044,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>1</v>
       </c>
@@ -8034,24 +8074,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -8117,7 +8157,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -8198,13 +8238,14 @@
       </c>
       <c r="U5" s="25">
         <f>+U6+U7</f>
-        <v>294121</v>
+        <v>294615</v>
       </c>
       <c r="V5" s="25">
+        <f>+V6+V7</f>
         <v>227905</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -8266,13 +8307,13 @@
         <v>49303</v>
       </c>
       <c r="U6" s="25">
-        <v>51057</v>
+        <v>51058</v>
       </c>
       <c r="V6" s="25">
         <v>41565</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -8334,13 +8375,13 @@
         <v>202116</v>
       </c>
       <c r="U7" s="25">
-        <v>243064</v>
+        <v>243557</v>
       </c>
       <c r="V7" s="25">
         <v>186340</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -8402,13 +8443,13 @@
         <v>144175</v>
       </c>
       <c r="U8" s="25">
-        <v>181109</v>
+        <v>176411</v>
       </c>
       <c r="V8" s="25">
         <v>116389</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -8488,14 +8529,15 @@
         <v>57941</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" ref="U9" si="10">+U7-U8</f>
-        <v>61955</v>
+        <f t="shared" ref="U9:V9" si="10">+U7-U8</f>
+        <v>67146</v>
       </c>
       <c r="V9" s="25">
+        <f t="shared" si="10"/>
         <v>69951</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -8563,7 +8605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -8586,7 +8628,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -8648,13 +8690,13 @@
         <v>89680</v>
       </c>
       <c r="U12" s="25">
-        <v>90330</v>
+        <v>90051</v>
       </c>
       <c r="V12" s="25">
         <v>86594</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -8716,13 +8758,13 @@
         <v>73279</v>
       </c>
       <c r="U13" s="25">
-        <v>73686</v>
+        <v>73449</v>
       </c>
       <c r="V13" s="25">
         <v>68867</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -8783,7 +8825,7 @@
         <v>0.67675558278108816</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" ref="P14:U14" si="14">+P6/P13</f>
+        <f t="shared" ref="P14:V14" si="14">+P6/P13</f>
         <v>0.64523303444489799</v>
       </c>
       <c r="Q14" s="28">
@@ -8804,13 +8846,14 @@
       </c>
       <c r="U14" s="28">
         <f t="shared" si="14"/>
-        <v>0.69289960100968973</v>
+        <v>0.69514901496276327</v>
       </c>
       <c r="V14" s="28">
+        <f t="shared" si="14"/>
         <v>0.6035546778573192</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8833,7 +8876,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -8895,13 +8938,13 @@
         <v>376459</v>
       </c>
       <c r="U16" s="25">
-        <v>405820</v>
+        <v>398306</v>
       </c>
       <c r="V16" s="25">
         <v>398522</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -8963,13 +9006,13 @@
         <v>317387</v>
       </c>
       <c r="U17" s="25">
-        <v>346331</v>
+        <v>338368</v>
       </c>
       <c r="V17" s="25">
         <v>334045</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -9030,7 +9073,7 @@
         <v>0.5305904315134331</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" ref="P18:U18" si="18">P8/P17</f>
+        <f t="shared" ref="P18:V18" si="18">P8/P17</f>
         <v>0.45034426121323662</v>
       </c>
       <c r="Q18" s="28">
@@ -9051,13 +9094,14 @@
       </c>
       <c r="U18" s="28">
         <f t="shared" si="18"/>
-        <v>0.52293615067666477</v>
+        <v>0.52135840268583322</v>
       </c>
       <c r="V18" s="28">
+        <f t="shared" si="18"/>
         <v>0.34842311664596087</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -9080,7 +9124,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -9162,13 +9206,14 @@
       </c>
       <c r="U20" s="25">
         <f t="shared" si="25"/>
-        <v>496150</v>
+        <v>488357</v>
       </c>
       <c r="V20" s="25">
+        <f t="shared" ref="V20" si="26">+V12+V16</f>
         <v>485116</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -9177,174 +9222,176 @@
         <v>246521</v>
       </c>
       <c r="C21" s="25">
-        <f t="shared" ref="C21:I21" si="26">+C13+C17</f>
+        <f t="shared" ref="C21:I21" si="27">+C13+C17</f>
         <v>252454</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>257024</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>267101</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>269930</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>274561</v>
       </c>
       <c r="H21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>275750</v>
       </c>
       <c r="I21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>285602</v>
       </c>
       <c r="J21" s="25">
-        <f t="shared" ref="J21:K21" si="27">+J13+J17</f>
+        <f t="shared" ref="J21:K21" si="28">+J13+J17</f>
         <v>297176</v>
       </c>
       <c r="K21" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>301921</v>
       </c>
       <c r="L21" s="25">
-        <f t="shared" ref="L21:M21" si="28">+L13+L17</f>
+        <f t="shared" ref="L21:M21" si="29">+L13+L17</f>
         <v>311476</v>
       </c>
       <c r="M21" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>322300</v>
       </c>
       <c r="N21" s="25">
-        <f t="shared" ref="N21:O21" si="29">+N13+N17</f>
+        <f t="shared" ref="N21:O21" si="30">+N13+N17</f>
         <v>332107</v>
       </c>
       <c r="O21" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>341275</v>
       </c>
       <c r="P21" s="25">
-        <f t="shared" ref="P21:Q21" si="30">+P13+P17</f>
+        <f t="shared" ref="P21:Q21" si="31">+P13+P17</f>
         <v>343799</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>353560</v>
       </c>
       <c r="R21" s="25">
-        <f t="shared" ref="R21:S21" si="31">+R13+R17</f>
+        <f t="shared" ref="R21:S21" si="32">+R13+R17</f>
         <v>356728</v>
       </c>
       <c r="S21" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>369979</v>
       </c>
       <c r="T21" s="25">
-        <f t="shared" ref="T21:U21" si="32">+T13+T17</f>
+        <f t="shared" ref="T21:U21" si="33">+T13+T17</f>
         <v>390666</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" si="32"/>
-        <v>420017</v>
+        <f t="shared" si="33"/>
+        <v>411817</v>
       </c>
       <c r="V21" s="25">
+        <f t="shared" ref="V21" si="34">+V13+V17</f>
         <v>402912</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="28">
-        <f t="shared" ref="B22:K22" si="33">(B6+B8)/B21</f>
+        <f t="shared" ref="B22:K22" si="35">(B6+B8)/B21</f>
         <v>0.52129433192304109</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.44874313736363852</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.50751680776892427</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.47510492285689682</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.49186826214203683</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.4880809728985544</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.51968449682683593</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.45265789455255917</v>
       </c>
       <c r="J22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5739528091097531</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.58078768949493409</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" ref="L22:M22" si="34">(L6+L8)/L21</f>
+        <f t="shared" ref="L22:M22" si="36">(L6+L8)/L21</f>
         <v>0.68114076204908247</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.60394353087185848</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" ref="N22:O22" si="35">(N6+N8)/N21</f>
+        <f t="shared" ref="N22:O22" si="37">(N6+N8)/N21</f>
         <v>0.71890986940955781</v>
       </c>
       <c r="O22" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.56135374697824336</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" ref="P22:Q22" si="36">(P6+P8)/P21</f>
+        <f t="shared" ref="P22:Q22" si="38">(P6+P8)/P21</f>
         <v>0.49061515594867933</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.4826139834822944</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" ref="R22:S22" si="37">(R6+R8)/R21</f>
+        <f t="shared" ref="R22:S22" si="39">(R6+R8)/R21</f>
         <v>0.49191821219528603</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.44094664832328323</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" ref="T22:U22" si="38">(T6+T8)/T21</f>
+        <f t="shared" ref="T22:U22" si="40">(T6+T8)/T21</f>
         <v>0.49525169838173783</v>
       </c>
       <c r="U22" s="28">
-        <f t="shared" si="38"/>
-        <v>0.55275381710740279</v>
+        <f t="shared" si="40"/>
+        <v>0.55235456525592674</v>
       </c>
       <c r="V22" s="28">
+        <f t="shared" ref="V22" si="41">(V6+V8)/V21</f>
         <v>0.39203101421650383</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9366,169 +9413,171 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="25">
-        <f t="shared" ref="B24:K24" si="39">+B21+B9</f>
+        <f t="shared" ref="B24:K24" si="42">+B21+B9</f>
         <v>276927</v>
       </c>
       <c r="C24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>283178</v>
       </c>
       <c r="D24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>289260</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>303059</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>302177</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>307349</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>310665</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>322254</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>338291</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>345430</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" ref="L24:M24" si="40">+L21+L9</f>
+        <f t="shared" ref="L24:M24" si="43">+L21+L9</f>
         <v>358602</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>367555</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" ref="N24:O24" si="41">+N21+N9</f>
+        <f t="shared" ref="N24:O24" si="44">+N21+N9</f>
         <v>375969</v>
       </c>
       <c r="O24" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>388370</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" ref="P24:Q24" si="42">+P21+P9</f>
+        <f t="shared" ref="P24:Q24" si="45">+P21+P9</f>
         <v>392680</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>403719</v>
       </c>
       <c r="R24" s="25">
-        <f t="shared" ref="R24:S24" si="43">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="46">+R21+R9</f>
         <v>415155</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>427441</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:U24" si="44">+T21+T9</f>
+        <f t="shared" ref="T24:U24" si="47">+T21+T9</f>
         <v>448607</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" si="44"/>
-        <v>481972</v>
+        <f t="shared" si="47"/>
+        <v>478963</v>
       </c>
       <c r="V24" s="25">
+        <f t="shared" ref="V24" si="48">+V21+V9</f>
         <v>472863</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:K25" si="45">+B5/B24</f>
+        <f t="shared" ref="B25:K25" si="49">+B5/B24</f>
         <v>0.57385520371794729</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.50855292430909182</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.56240060844914608</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.53738380975321642</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.54609384565999397</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.54269250916710321</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.57366616773695134</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.51491059847201281</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.62573346615783454</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.63359001823813799</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" ref="L25:M25" si="46">+L5/L24</f>
+        <f t="shared" ref="L25:M25" si="50">+L5/L24</f>
         <v>0.72304393171259507</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.65270775802260883</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" ref="N25:O25" si="47">+N5/N24</f>
+        <f t="shared" ref="N25:O25" si="51">+N5/N24</f>
         <v>0.75170293295457868</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.61454540772974231</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" ref="P25:Q25" si="48">+P5/P24</f>
+        <f t="shared" ref="P25:Q25" si="52">+P5/P24</f>
         <v>0.55402363247427933</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.54689524149222601</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" ref="R25:S25" si="49">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="53">+R5/R24</f>
         <v>0.56342329973142558</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.51610163741896542</v>
       </c>
       <c r="T25" s="28">
@@ -9537,16 +9586,17 @@
       </c>
       <c r="U25" s="28">
         <f>+U5/U24</f>
-        <v>0.61024499348509875</v>
+        <v>0.61511014420738142</v>
       </c>
       <c r="V25" s="28">
+        <f>+V5/V24</f>
         <v>0.48196835024097889</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
@@ -9572,7 +9622,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>50</v>
       </c>
@@ -9588,7 +9638,7 @@
       <c r="K28" s="19"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
@@ -9604,7 +9654,7 @@
       <c r="K29" s="19"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>55</v>
       </c>
@@ -9619,7 +9669,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>53</v>
       </c>
@@ -9634,7 +9684,7 @@
       <c r="J31" s="43"/>
       <c r="K31" s="43"/>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -9647,7 +9697,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
@@ -9680,23 +9730,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -9762,7 +9812,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -9823,7 +9873,7 @@
         <v>21053</v>
       </c>
       <c r="P5" s="25">
-        <f t="shared" ref="P5:U5" si="3">+P6+P7</f>
+        <f t="shared" ref="P5:V5" si="3">+P6+P7</f>
         <v>23148</v>
       </c>
       <c r="Q5" s="25">
@@ -9843,13 +9893,14 @@
       </c>
       <c r="U5" s="25">
         <f t="shared" si="3"/>
-        <v>23494</v>
+        <v>23617</v>
       </c>
       <c r="V5" s="25">
+        <f t="shared" si="3"/>
         <v>25698</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -9917,7 +9968,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -9979,13 +10030,13 @@
         <v>21116</v>
       </c>
       <c r="U7" s="25">
-        <v>20980</v>
+        <v>21103</v>
       </c>
       <c r="V7" s="25">
         <v>23091</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -10047,13 +10098,13 @@
         <v>11827</v>
       </c>
       <c r="U8" s="25">
-        <v>11099</v>
+        <v>11106</v>
       </c>
       <c r="V8" s="25">
         <v>12511</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -10133,14 +10184,15 @@
         <v>9289</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" ref="U9" si="10">+U7-U8</f>
-        <v>9881</v>
+        <f t="shared" ref="U9:V9" si="10">+U7-U8</f>
+        <v>9997</v>
       </c>
       <c r="V9" s="25">
+        <f t="shared" si="10"/>
         <v>10580</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -10208,7 +10260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -10231,7 +10283,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -10299,7 +10351,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -10367,7 +10419,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -10428,7 +10480,7 @@
         <v>0.60747422680412366</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" ref="P14:U14" si="14">+P6/P13</f>
+        <f t="shared" ref="P14:V14" si="14">+P6/P13</f>
         <v>0.68210036213140202</v>
       </c>
       <c r="Q14" s="28">
@@ -10452,10 +10504,11 @@
         <v>0.6575987444415381</v>
       </c>
       <c r="V14" s="28">
+        <f t="shared" si="14"/>
         <v>0.70005370569280345</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -10478,7 +10531,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -10540,13 +10593,13 @@
         <v>27912</v>
       </c>
       <c r="U16" s="25">
-        <v>30067</v>
+        <v>29951</v>
       </c>
       <c r="V16" s="25">
         <v>30435</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -10608,13 +10661,13 @@
         <v>22095</v>
       </c>
       <c r="U17" s="25">
-        <v>23346</v>
+        <v>23246</v>
       </c>
       <c r="V17" s="25">
         <v>23446</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -10675,7 +10728,7 @@
         <v>0.48880615057298971</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" ref="P18:U18" si="18">+P8/P17</f>
+        <f t="shared" ref="P18:V18" si="18">+P8/P17</f>
         <v>0.57404185514738781</v>
       </c>
       <c r="Q18" s="28">
@@ -10696,13 +10749,14 @@
       </c>
       <c r="U18" s="28">
         <f t="shared" si="18"/>
-        <v>0.47541334704017818</v>
+        <v>0.47775961455734323</v>
       </c>
       <c r="V18" s="28">
+        <f t="shared" si="18"/>
         <v>0.53360914441695817</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -10725,7 +10779,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10807,13 +10861,14 @@
       </c>
       <c r="U20" s="25">
         <f t="shared" si="25"/>
-        <v>34426</v>
+        <v>34310</v>
       </c>
       <c r="V20" s="25">
+        <f t="shared" ref="V20" si="26">+V12+V16</f>
         <v>34731</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -10822,174 +10877,176 @@
         <v>14506</v>
       </c>
       <c r="C21" s="25">
-        <f t="shared" ref="C21:I21" si="26">+C13+C17</f>
+        <f t="shared" ref="C21:I21" si="27">+C13+C17</f>
         <v>14286</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>15399</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>15633</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16072</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16033</v>
       </c>
       <c r="H21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16696</v>
       </c>
       <c r="I21" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16981</v>
       </c>
       <c r="J21" s="25">
-        <f t="shared" ref="J21:K21" si="27">+J13+J17</f>
+        <f t="shared" ref="J21:K21" si="28">+J13+J17</f>
         <v>19184</v>
       </c>
       <c r="K21" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20676</v>
       </c>
       <c r="L21" s="25">
-        <f t="shared" ref="L21:M21" si="28">+L13+L17</f>
+        <f t="shared" ref="L21:M21" si="29">+L13+L17</f>
         <v>21855</v>
       </c>
       <c r="M21" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>23413</v>
       </c>
       <c r="N21" s="25">
-        <f t="shared" ref="N21:O21" si="29">+N13+N17</f>
+        <f t="shared" ref="N21:O21" si="30">+N13+N17</f>
         <v>24113</v>
       </c>
       <c r="O21" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24561</v>
       </c>
       <c r="P21" s="25">
-        <f t="shared" ref="P21:Q21" si="30">+P13+P17</f>
+        <f t="shared" ref="P21:Q21" si="31">+P13+P17</f>
         <v>23983</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23944</v>
       </c>
       <c r="R21" s="25">
-        <f t="shared" ref="R21:S21" si="31">+R13+R17</f>
+        <f t="shared" ref="R21:S21" si="32">+R13+R17</f>
         <v>24172</v>
       </c>
       <c r="S21" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>25344</v>
       </c>
       <c r="T21" s="25">
-        <f t="shared" ref="T21:U21" si="32">+T13+T17</f>
+        <f t="shared" ref="T21:U21" si="33">+T13+T17</f>
         <v>25976</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" si="32"/>
-        <v>27169</v>
+        <f t="shared" si="33"/>
+        <v>27069</v>
       </c>
       <c r="V21" s="25">
+        <f t="shared" ref="V21" si="34">+V13+V17</f>
         <v>27170</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="28">
-        <f t="shared" ref="B22:K22" si="33">(B6+B8)/B21</f>
+        <f t="shared" ref="B22:K22" si="35">(B6+B8)/B21</f>
         <v>0.469598786708948</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.58385832283354333</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.55899733748944735</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.536429348173735</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5721129915380786</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5445643360568827</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.66189506468615233</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.49779164949060717</v>
       </c>
       <c r="J22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.63349666388657211</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.50706132714258079</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" ref="L22:M22" si="34">(L6+L8)/L21</f>
+        <f t="shared" ref="L22:M22" si="36">(L6+L8)/L21</f>
         <v>0.62315259665980327</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.54896852176141464</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" ref="N22:O22" si="35">(N6+N8)/N21</f>
+        <f t="shared" ref="N22:O22" si="37">(N6+N8)/N21</f>
         <v>0.71081988968606147</v>
       </c>
       <c r="O22" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.50755262407882418</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" ref="P22:Q22" si="36">(P6+P8)/P21</f>
+        <f t="shared" ref="P22:Q22" si="38">(P6+P8)/P21</f>
         <v>0.59146061793770588</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.51248747076511858</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" ref="R22:S22" si="37">(R6+R8)/R21</f>
+        <f t="shared" ref="R22:S22" si="39">(R6+R8)/R21</f>
         <v>0.55150587456561306</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.45860953282828282</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" ref="T22:U22" si="38">(T6+T8)/T21</f>
+        <f t="shared" ref="T22:U22" si="40">(T6+T8)/T21</f>
         <v>0.55304896827841088</v>
       </c>
       <c r="U22" s="28">
-        <f t="shared" si="38"/>
-        <v>0.50104898965733002</v>
+        <f t="shared" si="40"/>
+        <v>0.50315859470242708</v>
       </c>
       <c r="V22" s="28">
+        <f t="shared" ref="V22" si="41">(V6+V8)/V21</f>
         <v>0.55642252484357746</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -11011,8 +11068,9 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -11021,177 +11079,179 @@
         <v>20814</v>
       </c>
       <c r="C24" s="25">
-        <f t="shared" ref="C24:K24" si="39">+C21+C9</f>
+        <f t="shared" ref="C24:K24" si="42">+C21+C9</f>
         <v>20787</v>
       </c>
       <c r="D24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>21628</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22127</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22662</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22720</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>23198</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>24320</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>27008</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>28620</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" ref="L24:M24" si="40">+L21+L9</f>
+        <f t="shared" ref="L24:M24" si="43">+L21+L9</f>
         <v>29590</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>32265</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" ref="N24:O24" si="41">+N21+N9</f>
+        <f t="shared" ref="N24:O24" si="44">+N21+N9</f>
         <v>32804</v>
       </c>
       <c r="O24" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>33148</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" ref="P24:Q24" si="42">+P21+P9</f>
+        <f t="shared" ref="P24:Q24" si="45">+P21+P9</f>
         <v>32946</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>33196</v>
       </c>
       <c r="R24" s="25">
-        <f t="shared" ref="R24:S24" si="43">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="46">+R21+R9</f>
         <v>33746</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>34571</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:U24" si="44">+T21+T9</f>
+        <f t="shared" ref="T24:U24" si="47">+T21+T9</f>
         <v>35265</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" si="44"/>
-        <v>37050</v>
+        <f t="shared" si="47"/>
+        <v>37066</v>
       </c>
       <c r="V24" s="25">
+        <f t="shared" ref="V24" si="48">+V21+V9</f>
         <v>37750</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:K25" si="45">+B5/B24</f>
+        <f t="shared" ref="B25:K25" si="49">+B5/B24</f>
         <v>0.63034496012299412</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.71400394477317553</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.68600887738117255</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.67248158358566457</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.69654046421322036</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.67860915492957752</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.75666005690145699</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.64934210526315794</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.73966972748815163</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.64388539482879104</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" ref="L25:M25" si="46">+L5/L24</f>
+        <f t="shared" ref="L25:M25" si="50">+L5/L24</f>
         <v>0.72166272389320718</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.67271036727103672</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" ref="N25:O25" si="47">+N5/N24</f>
+        <f t="shared" ref="N25:O25" si="51">+N5/N24</f>
         <v>0.78743445921229116</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.63512127428502474</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" ref="P25:Q25" si="48">+P5/P24</f>
+        <f t="shared" ref="P25:Q25" si="52">+P5/P24</f>
         <v>0.70260426151884903</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.64836124834317388</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" ref="R25:S25" si="49">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="53">+R5/R24</f>
         <v>0.67874711076868366</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.60310665008243902</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" ref="T25:U25" si="50">+T5/T24</f>
+        <f t="shared" ref="T25:U25" si="54">+T5/T24</f>
         <v>0.67077839217354318</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="50"/>
-        <v>0.63411605937921722</v>
+        <f t="shared" si="54"/>
+        <v>0.6371607403010846</v>
       </c>
       <c r="V25" s="28">
+        <f t="shared" ref="V25" si="55">+V5/V24</f>
         <v>0.68074172185430459</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
@@ -11217,7 +11277,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>50</v>
       </c>
@@ -11232,7 +11292,7 @@
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
@@ -11247,7 +11307,7 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>47</v>
       </c>
@@ -11262,7 +11322,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>48</v>
       </c>
@@ -11277,7 +11337,7 @@
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -11290,7 +11350,7 @@
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>9</v>
       </c>
@@ -11320,23 +11380,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="12">
         <v>40633</v>
@@ -11402,7 +11462,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -11463,7 +11523,7 @@
         <v>48337</v>
       </c>
       <c r="P5" s="25">
-        <f t="shared" ref="P5:U5" si="3">+P6+P7+P11</f>
+        <f t="shared" ref="P5:V5" si="3">+P6+P7+P11</f>
         <v>49623</v>
       </c>
       <c r="Q5" s="25">
@@ -11486,10 +11546,11 @@
         <v>48281</v>
       </c>
       <c r="V5" s="25">
+        <f t="shared" si="3"/>
         <v>46798</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -11557,7 +11618,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -11625,7 +11686,7 @@
         <v>24249</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -11693,7 +11754,7 @@
         <v>12453</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -11773,14 +11834,15 @@
         <v>12230</v>
       </c>
       <c r="U9" s="25">
-        <f t="shared" ref="U9" si="9">+U7-U8</f>
+        <f t="shared" ref="U9:V9" si="9">+U7-U8</f>
         <v>11834</v>
       </c>
       <c r="V9" s="25">
+        <f t="shared" si="9"/>
         <v>11796</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -11848,7 +11910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -11916,7 +11978,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -11940,7 +12002,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -12002,13 +12064,13 @@
         <v>40391</v>
       </c>
       <c r="U13" s="25">
-        <v>37298</v>
+        <v>36729</v>
       </c>
       <c r="V13" s="25">
         <v>37154</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -12070,14 +12132,14 @@
         <v>34200</v>
       </c>
       <c r="U14" s="25">
-        <v>31722</v>
+        <v>31142</v>
       </c>
       <c r="V14" s="25">
         <v>32186</v>
       </c>
       <c r="W14" s="25"/>
     </row>
-    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -12138,7 +12200,7 @@
         <v>0.61197150166423675</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" ref="P15:U15" si="13">+P6/P14</f>
+        <f t="shared" ref="P15:V15" si="13">+P6/P14</f>
         <v>0.60815364804515193</v>
       </c>
       <c r="Q15" s="28">
@@ -12159,14 +12221,15 @@
       </c>
       <c r="U15" s="28">
         <f t="shared" si="13"/>
-        <v>0.62801840993632174</v>
+        <v>0.63971485453728083</v>
       </c>
       <c r="V15" s="28">
+        <f t="shared" si="13"/>
         <v>0.57655502392344493</v>
       </c>
       <c r="W15" s="25"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -12190,7 +12253,7 @@
       <c r="U16" s="6"/>
       <c r="W16" s="25"/>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -12259,7 +12322,7 @@
       </c>
       <c r="W17" s="25"/>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -12328,7 +12391,7 @@
       </c>
       <c r="W18" s="25"/>
     </row>
-    <row r="19" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
@@ -12405,7 +12468,7 @@
         <v>0.39070668665228675</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" ref="T19:U19" si="18">+T8/T18</f>
+        <f t="shared" ref="T19:V19" si="18">+T8/T18</f>
         <v>0.58710822475898516</v>
       </c>
       <c r="U19" s="28">
@@ -12413,10 +12476,11 @@
         <v>0.52313956300894948</v>
       </c>
       <c r="V19" s="28">
+        <f t="shared" si="18"/>
         <v>0.48506212752697386</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -12439,7 +12503,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -12521,13 +12585,14 @@
       </c>
       <c r="U21" s="25">
         <f t="shared" si="25"/>
-        <v>67212</v>
+        <v>66643</v>
       </c>
       <c r="V21" s="25">
+        <f t="shared" ref="V21" si="26">+V13+V17</f>
         <v>67091</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -12536,174 +12601,176 @@
         <v>64548</v>
       </c>
       <c r="C22" s="25">
-        <f t="shared" ref="C22:I22" si="26">+C14+C18</f>
+        <f t="shared" ref="C22:I22" si="27">+C14+C18</f>
         <v>64323</v>
       </c>
       <c r="D22" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>62934</v>
       </c>
       <c r="E22" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>63140</v>
       </c>
       <c r="F22" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>63450</v>
       </c>
       <c r="G22" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>63374</v>
       </c>
       <c r="H22" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>62471</v>
       </c>
       <c r="I22" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>62655</v>
       </c>
       <c r="J22" s="25">
-        <f t="shared" ref="J22:K22" si="27">+J14+J18</f>
+        <f t="shared" ref="J22:K22" si="28">+J14+J18</f>
         <v>64192</v>
       </c>
       <c r="K22" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>64031</v>
       </c>
       <c r="L22" s="25">
-        <f t="shared" ref="L22:M22" si="28">+L14+L18</f>
+        <f t="shared" ref="L22:M22" si="29">+L14+L18</f>
         <v>64877</v>
       </c>
       <c r="M22" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>65251</v>
       </c>
       <c r="N22" s="25">
-        <f t="shared" ref="N22:O22" si="29">+N14+N18</f>
+        <f t="shared" ref="N22:O22" si="30">+N14+N18</f>
         <v>63874</v>
       </c>
       <c r="O22" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>64064</v>
       </c>
       <c r="P22" s="25">
-        <f t="shared" ref="P22:Q22" si="30">+P14+P18</f>
+        <f t="shared" ref="P22:Q22" si="31">+P14+P18</f>
         <v>63955</v>
       </c>
       <c r="Q22" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>63022</v>
       </c>
       <c r="R22" s="25">
-        <f t="shared" ref="R22:S22" si="31">+R14+R18</f>
+        <f t="shared" ref="R22:S22" si="32">+R14+R18</f>
         <v>63440</v>
       </c>
       <c r="S22" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>62419</v>
       </c>
       <c r="T22" s="25">
-        <f t="shared" ref="T22:U22" si="32">+T14+T18</f>
+        <f t="shared" ref="T22:U22" si="33">+T14+T18</f>
         <v>58991</v>
       </c>
       <c r="U22" s="25">
-        <f t="shared" si="32"/>
-        <v>56528</v>
+        <f t="shared" si="33"/>
+        <v>55948</v>
       </c>
       <c r="V22" s="25">
+        <f t="shared" ref="V22" si="34">+V14+V18</f>
         <v>57859</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="28">
-        <f t="shared" ref="B23:K23" si="33">(B6+B8)/B22</f>
+        <f t="shared" ref="B23:K23" si="35">(B6+B8)/B22</f>
         <v>0.53487327260333395</v>
       </c>
       <c r="C23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.48663775010493915</v>
       </c>
       <c r="D23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.63598372898592181</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.58642698764649981</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.60567375886524821</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5789756051377537</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.54561316450833186</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.59781342271167504</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.64375623130608173</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.53528759507113743</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" ref="L23:M23" si="34">(L6+L8)/L22</f>
+        <f t="shared" ref="L23:M23" si="36">(L6+L8)/L22</f>
         <v>0.56386700988023486</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.51327948996950234</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" ref="N23:O23" si="35">(N6+N8)/N22</f>
+        <f t="shared" ref="N23:O23" si="37">(N6+N8)/N22</f>
         <v>0.61865547797225784</v>
       </c>
       <c r="O23" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.51201923076923073</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" ref="P23:Q23" si="36">(P6+P8)/P22</f>
+        <f t="shared" ref="P23:Q23" si="38">(P6+P8)/P22</f>
         <v>0.509217418497381</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.52597505632953567</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" ref="R23:S23" si="37">(R6+R8)/R22</f>
+        <f t="shared" ref="R23:S23" si="39">(R6+R8)/R22</f>
         <v>0.52413303909205544</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.51540396353674367</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" ref="T23:U23" si="38">(T6+T8)/T22</f>
+        <f t="shared" ref="T23:U23" si="40">(T6+T8)/T22</f>
         <v>0.66143988065976167</v>
       </c>
       <c r="U23" s="28">
-        <f t="shared" si="38"/>
-        <v>0.5819947636569488</v>
+        <f t="shared" si="40"/>
+        <v>0.5880281690140845</v>
       </c>
       <c r="V23" s="28">
+        <f t="shared" ref="V23" si="41">(V6+V8)/V22</f>
         <v>0.53595810504847996</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -12725,187 +12792,190 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V24" s="26"/>
+    </row>
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="25">
-        <f t="shared" ref="B25:K25" si="39">+B22+B9</f>
+        <f t="shared" ref="B25:K25" si="42">+B22+B9</f>
         <v>77629</v>
       </c>
       <c r="C25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>77058</v>
       </c>
       <c r="D25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75850</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75739</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>76097</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75921</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75492</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75622</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>77311</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>76648</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" ref="L25:M25" si="40">+L22+L9</f>
+        <f t="shared" ref="L25:M25" si="43">+L22+L9</f>
         <v>77617</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>77535</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" ref="N25:O25" si="41">+N22+N9</f>
+        <f t="shared" ref="N25:O25" si="44">+N22+N9</f>
         <v>76379</v>
       </c>
       <c r="O25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>76011</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" ref="P25:Q25" si="42">+P22+P9</f>
+        <f t="shared" ref="P25:Q25" si="45">+P22+P9</f>
         <v>76053</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>75107</v>
       </c>
       <c r="R25" s="25">
-        <f t="shared" ref="R25:S25" si="43">+R22+R9</f>
+        <f t="shared" ref="R25:S25" si="46">+R22+R9</f>
         <v>75119</v>
       </c>
       <c r="S25" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>74125</v>
       </c>
       <c r="T25" s="25">
-        <f t="shared" ref="T25:U25" si="44">+T22+T9</f>
+        <f t="shared" ref="T25:U25" si="47">+T22+T9</f>
         <v>71221</v>
       </c>
       <c r="U25" s="25">
-        <f t="shared" si="44"/>
-        <v>68362</v>
+        <f t="shared" si="47"/>
+        <v>67782</v>
       </c>
       <c r="V25" s="25">
+        <f t="shared" ref="V25" si="48">+V22+V9</f>
         <v>69655</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="28">
-        <f t="shared" ref="B26:K26" si="45">+(B5-B11)/B25</f>
+        <f t="shared" ref="B26:K26" si="49">+(B5-B11)/B25</f>
         <v>0.61325020288809595</v>
       </c>
       <c r="C26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.57147862648913805</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.6979696769940672</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.6552238608906904</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.67120911468257616</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.64855573556723434</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.62398664759179778</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.66677686387559176</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.70420768066639938</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.61178373864941027</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" ref="L26:M26" si="46">+(L5-L11)/L25</f>
+        <f t="shared" ref="L26:M26" si="50">+(L5-L11)/L25</f>
         <v>0.63545357331512431</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.59039143612562073</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" ref="N26:O26" si="47">+(N5-N11)/N25</f>
+        <f t="shared" ref="N26:O26" si="51">+(N5-N11)/N25</f>
         <v>0.68109035206012125</v>
       </c>
       <c r="O26" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.58871742247832548</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" ref="P26:Q26" si="48">+(P5-P11)/P25</f>
+        <f t="shared" ref="P26:Q26" si="52">+(P5-P11)/P25</f>
         <v>0.58728781244658335</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.60224746028998632</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" ref="R26:S26" si="49">+(R5-R11)/R25</f>
+        <f t="shared" ref="R26:S26" si="53">+(R5-R11)/R25</f>
         <v>0.59811765332339351</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.59193254637436765</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" ref="T26:U26" si="50">+(T5-T11)/T25</f>
+        <f t="shared" ref="T26:U26" si="54">+(T5-T11)/T25</f>
         <v>0.71957709102652312</v>
       </c>
       <c r="U26" s="28">
-        <f t="shared" si="50"/>
-        <v>0.65435475849155966</v>
+        <f t="shared" si="54"/>
+        <v>0.65995397008055234</v>
       </c>
       <c r="V26" s="28">
+        <f t="shared" ref="V26" si="55">+(V5-V11)/V25</f>
         <v>0.61454310530471612</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>49</v>
       </c>
@@ -12931,7 +13001,7 @@
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>50</v>
       </c>
@@ -12946,7 +13016,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>51</v>
       </c>
@@ -12961,7 +13031,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>52</v>
       </c>
@@ -12976,7 +13046,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>53</v>
       </c>
@@ -12991,7 +13061,7 @@
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -13004,7 +13074,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>9</v>
       </c>

--- a/data-raw/crudeoilstorage.xlsx
+++ b/data-raw/crudeoilstorage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2023 Storage Capacity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eiagov-my.sharepoint.com/personal/molly_sellers_eia_gov/Documents/Documents/M_docs/work_2023/Pet_Storage_Cap_2022_PSA_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7070D0A-C2E1-42EE-B254-46C8A10C89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41AB6B3-8DEF-44E9-89E2-CBB64BB856D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="5" r:id="rId1"/>
@@ -1943,17 +1943,19 @@
   </sheetPr>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="68.875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="7" width="9" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +1970,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1985,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1996,7 +1998,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -2065,7 +2067,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2143,22 +2145,24 @@
       </c>
       <c r="T5" s="7">
         <f t="shared" si="4"/>
-        <v>482454</v>
+        <v>483341</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" ref="U5" si="5">+U6+U7+U11</f>
-        <v>501902</v>
+        <f t="shared" ref="U5:W5" si="5">+U6+U7+U11</f>
+        <v>502464</v>
       </c>
       <c r="V5" s="7">
-        <v>414390</v>
+        <f t="shared" si="5"/>
+        <v>414207</v>
       </c>
       <c r="W5" s="7">
+        <f t="shared" si="5"/>
         <v>465437</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2230,22 +2234,24 @@
       </c>
       <c r="T6" s="7">
         <f>'PADD 1'!T6+'PADD 2'!T6+'PADD 3'!T6+'PADD 4'!T6+'PADD 5'!T6</f>
-        <v>97956</v>
+        <v>98129</v>
       </c>
       <c r="U6" s="7">
         <f>'PADD 1'!U6+'PADD 2'!U6+'PADD 3'!U6+'PADD 4'!U6+'PADD 5'!U6</f>
-        <v>91800</v>
+        <v>91845</v>
       </c>
       <c r="V6" s="7">
-        <v>81353</v>
+        <f>'PADD 1'!V6+'PADD 2'!V6+'PADD 3'!V6+'PADD 4'!V6+'PADD 5'!V6</f>
+        <v>81073</v>
       </c>
       <c r="W6" s="7">
+        <f>'PADD 1'!W6+'PADD 2'!W6+'PADD 3'!W6+'PADD 4'!W6+'PADD 5'!W6</f>
         <v>86779</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -2317,22 +2323,24 @@
       </c>
       <c r="T7" s="7">
         <f>'PADD 1'!T7+'PADD 2'!T7+'PADD 3'!T7+'PADD 4'!T7+'PADD 5'!T7</f>
-        <v>378673</v>
+        <v>379387</v>
       </c>
       <c r="U7" s="7">
         <f>'PADD 1'!U7+'PADD 2'!U7+'PADD 3'!U7+'PADD 4'!U7+'PADD 5'!U7</f>
-        <v>406554</v>
+        <v>407071</v>
       </c>
       <c r="V7" s="7">
-        <v>329045</v>
+        <f>'PADD 1'!V7+'PADD 2'!V7+'PADD 3'!V7+'PADD 4'!V7+'PADD 5'!V7</f>
+        <v>329142</v>
       </c>
       <c r="W7" s="7">
+        <f>'PADD 1'!W7+'PADD 2'!W7+'PADD 3'!W7+'PADD 4'!W7+'PADD 5'!W7</f>
         <v>373708</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2404,22 +2412,24 @@
       </c>
       <c r="T8" s="7">
         <f>'PADD 1'!T8+'PADD 2'!T8+'PADD 3'!T8+'PADD 4'!T8+'PADD 5'!T8</f>
-        <v>255499</v>
+        <v>257646</v>
       </c>
       <c r="U8" s="7">
         <f>'PADD 1'!U8+'PADD 2'!U8+'PADD 3'!U8+'PADD 4'!U8+'PADD 5'!U8</f>
-        <v>280824</v>
+        <v>276072</v>
       </c>
       <c r="V8" s="7">
-        <v>192398</v>
+        <f>'PADD 1'!V8+'PADD 2'!V8+'PADD 3'!V8+'PADD 4'!V8+'PADD 5'!V8</f>
+        <v>193753</v>
       </c>
       <c r="W8" s="7">
+        <f>'PADD 1'!W8+'PADD 2'!W8+'PADD 3'!W8+'PADD 4'!W8+'PADD 5'!W8</f>
         <v>239622</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2497,22 +2507,24 @@
       </c>
       <c r="T9" s="7">
         <f t="shared" si="12"/>
-        <v>123174</v>
+        <v>121741</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" ref="U9" si="13">+U7-U8</f>
-        <v>125730</v>
+        <f t="shared" ref="U9:W9" si="13">+U7-U8</f>
+        <v>130999</v>
       </c>
       <c r="V9" s="7">
-        <v>136647</v>
+        <f t="shared" si="13"/>
+        <v>135389</v>
       </c>
       <c r="W9" s="7">
+        <f t="shared" si="13"/>
         <v>134086</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2585,7 +2597,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -2664,15 +2676,17 @@
         <v>3548</v>
       </c>
       <c r="V11" s="7">
+        <f>'PADD 5'!V11</f>
         <v>3992</v>
       </c>
       <c r="W11" s="7">
+        <f>'PADD 5'!W11</f>
         <v>4950</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2695,10 +2709,11 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2770,22 +2785,24 @@
       </c>
       <c r="T13" s="7">
         <f>'PADD 1'!T12+'PADD 2'!T12+'PADD 3'!T12+'PADD 4'!T12+'PADD 5'!T13</f>
-        <v>174309</v>
+        <v>174307</v>
       </c>
       <c r="U13" s="7">
         <f>'PADD 1'!U12+'PADD 2'!U12+'PADD 3'!U12+'PADD 4'!U12+'PADD 5'!U13</f>
-        <v>166940</v>
+        <v>166092</v>
       </c>
       <c r="V13" s="7">
-        <v>163096</v>
+        <f>'PADD 1'!V12+'PADD 2'!V12+'PADD 3'!V12+'PADD 4'!V12+'PADD 5'!V13</f>
+        <v>162989</v>
       </c>
       <c r="W13" s="7">
+        <f>'PADD 1'!W12+'PADD 2'!W12+'PADD 3'!W12+'PADD 4'!W12+'PADD 5'!W13</f>
         <v>164913</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2857,22 +2874,24 @@
       </c>
       <c r="T14" s="7">
         <f>'PADD 1'!T13+'PADD 2'!T13+'PADD 3'!T13+'PADD 4'!T13+'PADD 5'!T14</f>
-        <v>143059</v>
+        <v>143057</v>
       </c>
       <c r="U14" s="7">
         <f>'PADD 1'!U13+'PADD 2'!U13+'PADD 3'!U13+'PADD 4'!U13+'PADD 5'!U14</f>
-        <v>136538</v>
+        <v>135721</v>
       </c>
       <c r="V14" s="7">
-        <v>131162</v>
+        <f>'PADD 1'!V13+'PADD 2'!V13+'PADD 3'!V13+'PADD 4'!V13+'PADD 5'!V14</f>
+        <v>131102</v>
       </c>
       <c r="W14" s="7">
+        <f>'PADD 1'!W13+'PADD 2'!W13+'PADD 3'!W13+'PADD 4'!W13+'PADD 5'!W14</f>
         <v>134057</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2950,22 +2969,24 @@
       </c>
       <c r="T15" s="8">
         <f t="shared" si="18"/>
-        <v>0.68472448430367894</v>
+        <v>0.68594336523204036</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" ref="U15" si="19">+U6/U14</f>
-        <v>0.67234030086862262</v>
+        <f t="shared" ref="U15:W15" si="19">+U6/U14</f>
+        <v>0.67671915178933251</v>
       </c>
       <c r="V15" s="8">
-        <v>0.62024824263124989</v>
+        <f t="shared" si="19"/>
+        <v>0.61839636313709934</v>
       </c>
       <c r="W15" s="8">
+        <f t="shared" si="19"/>
         <v>0.64732912119471564</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2988,10 +3009,11 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3063,22 +3085,24 @@
       </c>
       <c r="T17" s="7">
         <f>'PADD 1'!T16+'PADD 2'!T16+'PADD 3'!T16+'PADD 4'!T16+'PADD 5'!T17</f>
-        <v>636087</v>
+        <v>636098</v>
       </c>
       <c r="U17" s="7">
         <f>'PADD 1'!U16+'PADD 2'!U16+'PADD 3'!U16+'PADD 4'!U16+'PADD 5'!U17</f>
-        <v>669598</v>
+        <v>661115</v>
       </c>
       <c r="V17" s="7">
-        <v>663481</v>
+        <f>'PADD 1'!V16+'PADD 2'!V16+'PADD 3'!V16+'PADD 4'!V16+'PADD 5'!V17</f>
+        <v>661441</v>
       </c>
       <c r="W17" s="7">
+        <f>'PADD 1'!W16+'PADD 2'!W16+'PADD 3'!W16+'PADD 4'!W16+'PADD 5'!W17</f>
         <v>667513</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -3150,22 +3174,24 @@
       </c>
       <c r="T18" s="7">
         <f>'PADD 1'!T17+'PADD 2'!T17+'PADD 3'!T17+'PADD 4'!T17+'PADD 5'!T18</f>
-        <v>529345</v>
+        <v>526470</v>
       </c>
       <c r="U18" s="7">
         <f>'PADD 1'!U17+'PADD 2'!U17+'PADD 3'!U17+'PADD 4'!U17+'PADD 5'!U18</f>
-        <v>557206</v>
+        <v>548497</v>
       </c>
       <c r="V18" s="7">
-        <v>545432</v>
+        <f>'PADD 1'!V17+'PADD 2'!V17+'PADD 3'!V17+'PADD 4'!V17+'PADD 5'!V18</f>
+        <v>542343</v>
       </c>
       <c r="W18" s="7">
+        <f>'PADD 1'!W17+'PADD 2'!W17+'PADD 3'!W17+'PADD 4'!W17+'PADD 5'!W18</f>
         <v>546727</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3243,22 +3269,24 @@
       </c>
       <c r="T19" s="8">
         <f t="shared" si="24"/>
-        <v>0.48267009228386026</v>
+        <v>0.48938401048492791</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" ref="U19" si="25">U8/U18</f>
-        <v>0.50398595851444528</v>
+        <f t="shared" ref="U19:W19" si="25">U8/U18</f>
+        <v>0.50332453960550372</v>
       </c>
       <c r="V19" s="8">
-        <v>0.35274424676219951</v>
+        <f t="shared" si="25"/>
+        <v>0.35725177609003894</v>
       </c>
       <c r="W19" s="8">
+        <f t="shared" si="25"/>
         <v>0.43828455518019049</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3280,11 +3308,12 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3362,22 +3391,24 @@
       </c>
       <c r="T21" s="7">
         <f t="shared" si="32"/>
-        <v>810396</v>
+        <v>810405</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" ref="U21" si="33">+U13+U17</f>
-        <v>836538</v>
+        <f t="shared" ref="U21:W21" si="33">+U13+U17</f>
+        <v>827207</v>
       </c>
       <c r="V21" s="7">
-        <v>826577</v>
+        <f t="shared" si="33"/>
+        <v>824430</v>
       </c>
       <c r="W21" s="7">
+        <f t="shared" si="33"/>
         <v>832426</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -3455,22 +3486,24 @@
       </c>
       <c r="T22" s="7">
         <f t="shared" si="40"/>
-        <v>672404</v>
+        <v>669527</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" ref="U22" si="41">+U14+U18</f>
-        <v>693744</v>
+        <f t="shared" ref="U22:W22" si="41">+U14+U18</f>
+        <v>684218</v>
       </c>
       <c r="V22" s="7">
-        <v>676594</v>
+        <f t="shared" si="41"/>
+        <v>673445</v>
       </c>
       <c r="W22" s="7">
+        <f t="shared" si="41"/>
         <v>680784</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -3548,22 +3581,24 @@
       </c>
       <c r="T23" s="8">
         <f t="shared" si="46"/>
-        <v>0.52565868138797511</v>
+        <v>0.53138260294207706</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" ref="U23" si="47">(U6+U8)/U22</f>
-        <v>0.53712032104061436</v>
+        <f t="shared" ref="U23:W23" si="47">(U6+U8)/U22</f>
+        <v>0.53771897260814538</v>
       </c>
       <c r="V23" s="8">
-        <v>0.40460157790343987</v>
+        <f t="shared" si="47"/>
+        <v>0.40808974749237131</v>
       </c>
       <c r="W23" s="8">
+        <f t="shared" si="47"/>
         <v>0.47944869444640298</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3585,11 +3620,12 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="7"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -3667,22 +3703,24 @@
       </c>
       <c r="T25" s="7">
         <f t="shared" si="52"/>
-        <v>795578</v>
+        <v>791268</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" ref="U25" si="53">U22+U9</f>
-        <v>819474</v>
+        <f t="shared" ref="U25:W25" si="53">U22+U9</f>
+        <v>815217</v>
       </c>
       <c r="V25" s="7">
-        <v>813241</v>
+        <f t="shared" si="53"/>
+        <v>808834</v>
       </c>
       <c r="W25" s="7">
+        <f t="shared" si="53"/>
         <v>814870</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -3760,22 +3798,24 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" si="58"/>
-        <v>0.59909776288434324</v>
+        <v>0.60348200609654379</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" ref="U26" si="59">+(U5-U11)/U25</f>
-        <v>0.60813887932991162</v>
+        <f t="shared" ref="U26:W26" si="59">+(U5-U11)/U25</f>
+        <v>0.61200392042854845</v>
       </c>
       <c r="V26" s="8">
-        <v>0.50464499453421552</v>
+        <f t="shared" si="59"/>
+        <v>0.50716834356617058</v>
       </c>
       <c r="W26" s="8">
+        <f t="shared" si="59"/>
         <v>0.56510486335243659</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3789,7 +3829,7 @@
       <c r="K27" s="2"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
@@ -3816,7 +3856,7 @@
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -3832,7 +3872,7 @@
       <c r="K29" s="16"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -3848,7 +3888,7 @@
       <c r="K30" s="16"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>52</v>
       </c>
@@ -3864,7 +3904,7 @@
       <c r="K31" s="29"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
@@ -3879,7 +3919,7 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -3892,7 +3932,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>9</v>
       </c>
@@ -3907,7 +3947,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3934,29 +3974,29 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -4025,7 +4065,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +4122,7 @@
         <v>18812</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" ref="O5:U5" si="2">+O6+O7</f>
+        <f t="shared" ref="O5:W5" si="2">+O6+O7</f>
         <v>11969</v>
       </c>
       <c r="P5" s="21">
@@ -4107,16 +4147,18 @@
       </c>
       <c r="U5" s="21">
         <f t="shared" si="2"/>
-        <v>8542</v>
+        <v>8357</v>
       </c>
       <c r="V5" s="21">
-        <v>6998</v>
+        <f t="shared" si="2"/>
+        <v>6984</v>
       </c>
       <c r="W5" s="21">
+        <f t="shared" si="2"/>
         <v>7033</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -4187,7 +4229,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -4249,16 +4291,16 @@
         <v>3300</v>
       </c>
       <c r="U7" s="21">
-        <v>3080</v>
+        <v>2895</v>
       </c>
       <c r="V7" s="21">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="W7" s="21">
         <v>1599</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4320,16 +4362,16 @@
         <v>3065</v>
       </c>
       <c r="U8" s="21">
-        <v>2776</v>
+        <v>2591</v>
       </c>
       <c r="V8" s="21">
-        <v>1213</v>
+        <v>1199</v>
       </c>
       <c r="W8" s="21">
         <v>1313</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -4386,7 +4428,7 @@
         <v>291</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" ref="O9:S9" si="7">+O7-O8</f>
+        <f t="shared" ref="O9:W9" si="7">+O7-O8</f>
         <v>187</v>
       </c>
       <c r="P9" s="21">
@@ -4406,21 +4448,23 @@
         <v>316</v>
       </c>
       <c r="T9" s="21">
-        <f t="shared" ref="T9:U9" si="8">+T7-T8</f>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="U9" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>304</v>
       </c>
       <c r="V9" s="21">
+        <f t="shared" si="7"/>
         <v>285</v>
       </c>
       <c r="W9" s="21">
+        <f t="shared" si="7"/>
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4514,7 +4558,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -4573,7 +4617,7 @@
         <v>15572</v>
       </c>
       <c r="T12" s="21">
-        <v>15572</v>
+        <v>15570</v>
       </c>
       <c r="U12" s="21">
         <v>11152</v>
@@ -4585,7 +4629,7 @@
         <v>11313</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4644,7 +4688,7 @@
         <v>13010</v>
       </c>
       <c r="T13" s="21">
-        <v>12612</v>
+        <v>12610</v>
       </c>
       <c r="U13" s="21">
         <v>8629</v>
@@ -4656,98 +4700,100 @@
         <v>8862</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="23">
-        <f t="shared" ref="B14:L14" si="9">+B6/B13</f>
+        <f t="shared" ref="B14:L14" si="8">+B6/B13</f>
         <v>0.54682843763303535</v>
       </c>
       <c r="C14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.52513937098979702</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.62637548671068222</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.5176379520070773</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.65285657738487923</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.53708591790946281</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.58034787123572174</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.53653946002076847</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.81064257028112452</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.76366074421723096</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="8"/>
+        <v>0.82622950819672136</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" ref="M14:N14" si="9">+M6/M13</f>
+        <v>0.73931080628972901</v>
+      </c>
+      <c r="N14" s="23">
         <f t="shared" si="9"/>
-        <v>0.52513937098979702</v>
-      </c>
-      <c r="D14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.62637548671068222</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.5176379520070773</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.65285657738487923</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.53708591790946281</v>
-      </c>
-      <c r="H14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.58034787123572174</v>
-      </c>
-      <c r="I14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.53653946002076847</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.81064257028112452</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.76366074421723096</v>
-      </c>
-      <c r="L14" s="23">
-        <f t="shared" si="9"/>
-        <v>0.82622950819672136</v>
-      </c>
-      <c r="M14" s="23">
-        <f t="shared" ref="M14:N14" si="10">+M6/M13</f>
-        <v>0.73931080628972901</v>
-      </c>
-      <c r="N14" s="23">
+        <v>0.85240168910002634</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" ref="O14:W14" si="10">+O6/O13</f>
+        <v>0.75848032564450474</v>
+      </c>
+      <c r="P14" s="23">
         <f t="shared" si="10"/>
-        <v>0.85240168910002634</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" ref="O14:U14" si="11">+O6/O13</f>
-        <v>0.75848032564450474</v>
-      </c>
-      <c r="P14" s="23">
-        <f t="shared" si="11"/>
         <v>0.77716811461667423</v>
       </c>
       <c r="Q14" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.8119520073834795</v>
       </c>
       <c r="R14" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.8411947245927075</v>
       </c>
       <c r="S14" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.55595695618754803</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.63978750396447825</v>
+        <f t="shared" si="10"/>
+        <v>0.63988897700237901</v>
       </c>
       <c r="U14" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.63298180553945993</v>
       </c>
       <c r="V14" s="23">
+        <f t="shared" si="10"/>
         <v>0.65546418782028359</v>
       </c>
       <c r="W14" s="23">
+        <f t="shared" si="10"/>
         <v>0.61317986910403977</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4770,7 +4816,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -4829,19 +4875,19 @@
         <v>10672</v>
       </c>
       <c r="T16" s="21">
-        <v>12451</v>
+        <v>12825</v>
       </c>
       <c r="U16" s="21">
-        <v>12737</v>
+        <v>12595</v>
       </c>
       <c r="V16" s="21">
-        <v>11605</v>
+        <v>11591</v>
       </c>
       <c r="W16" s="21">
         <v>11822</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -4900,110 +4946,112 @@
         <v>9403</v>
       </c>
       <c r="T17" s="21">
-        <v>10847</v>
+        <v>11076</v>
       </c>
       <c r="U17" s="21">
-        <v>9912</v>
+        <v>9762</v>
       </c>
       <c r="V17" s="21">
-        <v>9587</v>
+        <v>9573</v>
       </c>
       <c r="W17" s="21">
         <v>9758</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="23">
-        <f t="shared" ref="B18:L18" si="12">+B8/B17</f>
+        <f t="shared" ref="B18:L18" si="11">+B8/B17</f>
         <v>0.25993555316863587</v>
       </c>
       <c r="C18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.24908424908424909</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.27614773904038659</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.29164329781267528</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.54071930549813974</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.61200428724544476</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.45297555791710947</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.38295259150085975</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.59048036850186447</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.56168468132687288</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="11"/>
+        <v>0.77910344028726974</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" ref="M18:N18" si="12">+M8/M17</f>
+        <v>0.55731137324727353</v>
+      </c>
+      <c r="N18" s="23">
         <f t="shared" si="12"/>
-        <v>0.24908424908424909</v>
-      </c>
-      <c r="D18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.27614773904038659</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.29164329781267528</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.54071930549813974</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.61200428724544476</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.45297555791710947</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.38295259150085975</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.59048036850186447</v>
-      </c>
-      <c r="K18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.56168468132687288</v>
-      </c>
-      <c r="L18" s="23">
-        <f t="shared" si="12"/>
-        <v>0.77910344028726974</v>
-      </c>
-      <c r="M18" s="23">
-        <f t="shared" ref="M18:N18" si="13">+M8/M17</f>
-        <v>0.55731137324727353</v>
-      </c>
-      <c r="N18" s="23">
+        <v>0.62341419986645896</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" ref="O18:W18" si="13">+O8/O17</f>
+        <v>0.19888991674375578</v>
+      </c>
+      <c r="P18" s="23">
         <f t="shared" si="13"/>
-        <v>0.62341419986645896</v>
-      </c>
-      <c r="O18" s="23">
-        <f t="shared" ref="O18:U18" si="14">+O8/O17</f>
-        <v>0.19888991674375578</v>
-      </c>
-      <c r="P18" s="23">
-        <f t="shared" si="14"/>
         <v>0.25954299299960376</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19580142593081595</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.3018027141989062</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.23715835371689886</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="14"/>
-        <v>0.28256660827878677</v>
+        <f t="shared" si="13"/>
+        <v>0.27672444925966055</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="14"/>
-        <v>0.2800645682001614</v>
+        <f t="shared" si="13"/>
+        <v>0.26541692276172918</v>
       </c>
       <c r="V18" s="23">
-        <v>0.12652550328569939</v>
+        <f t="shared" si="13"/>
+        <v>0.12524809359657368</v>
       </c>
       <c r="W18" s="23">
+        <f t="shared" si="13"/>
         <v>0.13455626152900185</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5026,7 +5074,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -5035,89 +5083,91 @@
         <v>26861</v>
       </c>
       <c r="C20" s="21">
-        <f t="shared" ref="C20:H20" si="15">+C12+C16</f>
+        <f t="shared" ref="C20:H20" si="14">+C12+C16</f>
         <v>27064</v>
       </c>
       <c r="D20" s="21">
+        <f t="shared" si="14"/>
+        <v>25924</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="14"/>
+        <v>24354</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="14"/>
+        <v>20732</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="14"/>
+        <v>21441</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="14"/>
+        <v>25149</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" ref="I20:J20" si="15">+I12+I16</f>
+        <v>25536</v>
+      </c>
+      <c r="J20" s="21">
         <f t="shared" si="15"/>
-        <v>25924</v>
-      </c>
-      <c r="E20" s="21">
-        <f t="shared" si="15"/>
-        <v>24354</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="15"/>
-        <v>20732</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="15"/>
-        <v>21441</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="15"/>
-        <v>25149</v>
-      </c>
-      <c r="I20" s="21">
-        <f t="shared" ref="I20:J20" si="16">+I12+I16</f>
-        <v>25536</v>
-      </c>
-      <c r="J20" s="21">
+        <v>25616</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" ref="K20:L20" si="16">+K12+K16</f>
+        <v>24601</v>
+      </c>
+      <c r="L20" s="21">
         <f t="shared" si="16"/>
-        <v>25616</v>
-      </c>
-      <c r="K20" s="21">
-        <f t="shared" ref="K20:L20" si="17">+K12+K16</f>
-        <v>24601</v>
-      </c>
-      <c r="L20" s="21">
+        <v>28069</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" ref="M20:N20" si="17">+M12+M16</f>
+        <v>28582</v>
+      </c>
+      <c r="N20" s="21">
         <f t="shared" si="17"/>
-        <v>28069</v>
-      </c>
-      <c r="M20" s="21">
-        <f t="shared" ref="M20:N20" si="18">+M12+M16</f>
-        <v>28582</v>
-      </c>
-      <c r="N20" s="21">
+        <v>28417</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" ref="O20:P20" si="18">+O12+O16</f>
+        <v>26259</v>
+      </c>
+      <c r="P20" s="21">
         <f t="shared" si="18"/>
-        <v>28417</v>
-      </c>
-      <c r="O20" s="21">
-        <f t="shared" ref="O20:P20" si="19">+O12+O16</f>
-        <v>26259</v>
-      </c>
-      <c r="P20" s="21">
-        <f t="shared" si="19"/>
         <v>24733</v>
       </c>
       <c r="Q20" s="21">
-        <f t="shared" ref="Q20" si="20">+Q12+Q16</f>
+        <f t="shared" ref="Q20" si="19">+Q12+Q16</f>
         <v>24737</v>
       </c>
       <c r="R20" s="21">
-        <f t="shared" ref="R20:S20" si="21">+R12+R16</f>
+        <f t="shared" ref="R20:S20" si="20">+R12+R16</f>
         <v>26244</v>
       </c>
       <c r="S20" s="21">
+        <f t="shared" si="20"/>
+        <v>26244</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" ref="T20:W20" si="21">+T12+T16</f>
+        <v>28395</v>
+      </c>
+      <c r="U20" s="21">
         <f t="shared" si="21"/>
-        <v>26244</v>
-      </c>
-      <c r="T20" s="21">
-        <f>T12+T16</f>
-        <v>28023</v>
-      </c>
-      <c r="U20" s="21">
-        <f>U12+U16</f>
-        <v>23889</v>
+        <v>23747</v>
       </c>
       <c r="V20" s="21">
-        <v>22757</v>
+        <f t="shared" si="21"/>
+        <v>22743</v>
       </c>
       <c r="W20" s="21">
+        <f t="shared" si="21"/>
         <v>23135</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5194,112 +5244,116 @@
         <v>22413</v>
       </c>
       <c r="T21" s="21">
-        <f>T13+T17</f>
-        <v>23459</v>
+        <f t="shared" ref="T21:W21" si="29">+T13+T17</f>
+        <v>23686</v>
       </c>
       <c r="U21" s="21">
-        <f>U13+U17</f>
-        <v>18541</v>
+        <f t="shared" si="29"/>
+        <v>18391</v>
       </c>
       <c r="V21" s="21">
-        <v>17978</v>
+        <f t="shared" si="29"/>
+        <v>17964</v>
       </c>
       <c r="W21" s="21">
+        <f t="shared" si="29"/>
         <v>18620</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" ref="B22:L22" si="29">(B6+B8)/B21</f>
+        <f t="shared" ref="B22:L22" si="30">(B6+B8)/B21</f>
         <v>0.50970581422283989</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49048013245033112</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.57716558347075375</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49735769288841913</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.63742390624111056</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.54876622291539023</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.55534112247026912</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.50444067970635043</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.75916713677624492</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.71022138947783642</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.8089744677241496</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" ref="M22:N22" si="30">(M6+M8)/M21</f>
+        <f t="shared" ref="M22:N22" si="31">(M6+M8)/M21</f>
         <v>0.67097070745058707</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.76716924861237679</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" ref="O22:S22" si="31">(O6+O8)/O21</f>
+        <f t="shared" ref="O22:S22" si="32">(O6+O8)/O21</f>
         <v>0.53764716619512642</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.58778330836514758</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.58514774494556765</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.6072307151642945</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.42221032436532369</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" ref="T22:U22" si="32">(T6+T8)/T21</f>
-        <v>0.47461528624408544</v>
+        <f t="shared" ref="T22:W22" si="33">(T6+T8)/T21</f>
+        <v>0.47006670607109685</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="32"/>
-        <v>0.44431260449813925</v>
+        <f t="shared" si="33"/>
+        <v>0.43787722255451034</v>
       </c>
       <c r="V22" s="23">
-        <v>0.37340082322839024</v>
+        <f t="shared" si="33"/>
+        <v>0.37291249164996659</v>
       </c>
       <c r="W22" s="23">
+        <f t="shared" si="33"/>
         <v>0.36235230934479057</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5322,7 +5376,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -5331,185 +5385,189 @@
         <v>21953</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:L24" si="33">+C21+C9</f>
+        <f t="shared" ref="C24:L24" si="34">+C21+C9</f>
         <v>22081</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20947</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20197</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>17887</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18273</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>19418</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>19702</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>19760</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20514</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23782</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" ref="M24:N24" si="34">+M21+M9</f>
+        <f t="shared" ref="M24:N24" si="35">+M21+M9</f>
         <v>24166</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>24433</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" ref="O24:Q24" si="35">+O21+O9</f>
+        <f t="shared" ref="O24:Q24" si="36">+O21+O9</f>
         <v>22101</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20839</v>
       </c>
       <c r="Q24" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20795</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:S24" si="36">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="37">+R21+R9</f>
         <v>22814</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>22729</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" ref="T24:U24" si="37">+T21+T9</f>
-        <v>23694</v>
+        <f t="shared" ref="T24:W24" si="38">+T21+T9</f>
+        <v>23921</v>
       </c>
       <c r="U24" s="21">
-        <f t="shared" si="37"/>
-        <v>18845</v>
+        <f t="shared" si="38"/>
+        <v>18695</v>
       </c>
       <c r="V24" s="21">
-        <v>18263</v>
+        <f t="shared" si="38"/>
+        <v>18249</v>
       </c>
       <c r="W24" s="21">
+        <f t="shared" si="38"/>
         <v>18906</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" ref="B25:L25" si="38">+B5/B24</f>
+        <f t="shared" ref="B25:L25" si="39">+B5/B24</f>
         <v>0.51792465722224756</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.49825641954621619</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.58380675036998142</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.50552062187453584</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.64370772069100468</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.55666830843320747</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.5609743536924503</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.51004974114303114</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.76234817813765188</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.71351272301842639</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.81061306870742578</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" ref="M25:N25" si="39">+M5/M24</f>
+        <f t="shared" ref="M25:N25" si="40">+M5/M24</f>
         <v>0.67417032193991555</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.76994229116359025</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" ref="O25:Q25" si="40">+O5/O24</f>
+        <f t="shared" ref="O25:Q25" si="41">+O5/O24</f>
         <v>0.54155920546581604</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.59067133739622824</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.5895167107477759</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25:S25" si="41">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="42">+R5/R24</f>
         <v>0.6080915227491891</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.4302433015090853</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" ref="T25:U25" si="42">+T5/T24</f>
-        <v>0.47982611631636701</v>
+        <f t="shared" ref="T25:W25" si="43">+T5/T24</f>
+        <v>0.47527277287738806</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="42"/>
-        <v>0.45327673122844253</v>
+        <f t="shared" si="43"/>
+        <v>0.44701791922974055</v>
       </c>
       <c r="V25" s="23">
-        <v>0.38317910529485844</v>
+        <f t="shared" si="43"/>
+        <v>0.38270590169324348</v>
       </c>
       <c r="W25" s="23">
+        <f t="shared" si="43"/>
         <v>0.37199830741563522</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>54</v>
       </c>
@@ -5536,7 +5594,7 @@
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>50</v>
       </c>
@@ -5552,7 +5610,7 @@
       <c r="K28" s="16"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>51</v>
       </c>
@@ -5568,7 +5626,7 @@
       <c r="K29" s="16"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
@@ -5583,7 +5641,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>53</v>
       </c>
@@ -5598,7 +5656,7 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -5611,7 +5669,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>9</v>
       </c>
@@ -5641,23 +5699,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -5726,7 +5784,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -5787,7 +5845,7 @@
         <v>149558</v>
       </c>
       <c r="P5" s="21">
-        <f t="shared" ref="P5:U5" si="3">+P6+P7</f>
+        <f t="shared" ref="P5:W5" si="3">+P6+P7</f>
         <v>122305</v>
       </c>
       <c r="Q5" s="21">
@@ -5804,20 +5862,22 @@
       </c>
       <c r="T5" s="21">
         <f t="shared" si="3"/>
-        <v>139523</v>
+        <v>139824</v>
       </c>
       <c r="U5" s="21">
         <f t="shared" si="3"/>
-        <v>127464</v>
+        <v>127473</v>
       </c>
       <c r="V5" s="21">
+        <f t="shared" si="3"/>
         <v>106991</v>
       </c>
       <c r="W5" s="21">
+        <f t="shared" si="3"/>
         <v>121415</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -5888,7 +5948,7 @@
         <v>13139</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -5947,10 +6007,10 @@
         <v>114601</v>
       </c>
       <c r="T7" s="21">
-        <v>125769</v>
+        <v>126070</v>
       </c>
       <c r="U7" s="21">
-        <v>114619</v>
+        <v>114628</v>
       </c>
       <c r="V7" s="21">
         <v>93867</v>
@@ -5959,7 +6019,7 @@
         <v>108276</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6018,19 +6078,19 @@
         <v>71113</v>
       </c>
       <c r="T8" s="21">
-        <v>84033</v>
+        <v>84024</v>
       </c>
       <c r="U8" s="21">
-        <v>72863</v>
+        <v>72988</v>
       </c>
       <c r="V8" s="21">
-        <v>49832</v>
+        <v>49939</v>
       </c>
       <c r="W8" s="21">
         <v>64170</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -6095,7 +6155,7 @@
         <v>43055</v>
       </c>
       <c r="Q9" s="21">
-        <f t="shared" ref="Q9:T9" si="9">+Q7-Q8</f>
+        <f t="shared" ref="Q9:W9" si="9">+Q7-Q8</f>
         <v>42917</v>
       </c>
       <c r="R9" s="21">
@@ -6108,20 +6168,22 @@
       </c>
       <c r="T9" s="21">
         <f t="shared" si="9"/>
-        <v>41736</v>
+        <v>42046</v>
       </c>
       <c r="U9" s="21">
-        <f t="shared" ref="U9" si="10">+U7-U8</f>
-        <v>41756</v>
+        <f t="shared" si="9"/>
+        <v>41640</v>
       </c>
       <c r="V9" s="21">
-        <v>44035</v>
+        <f t="shared" si="9"/>
+        <v>43928</v>
       </c>
       <c r="W9" s="21">
+        <f t="shared" si="9"/>
         <v>44106</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -6192,7 +6254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6215,7 +6277,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6348,7 @@
         <v>23953</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -6357,98 +6419,100 @@
         <v>18422</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="23">
-        <f t="shared" ref="B14:K14" si="11">+B6/B13</f>
+        <f t="shared" ref="B14:K14" si="10">+B6/B13</f>
         <v>0.65123178807947024</v>
       </c>
       <c r="C14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.66472654816213095</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.61761322037443778</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.59502530418865085</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.71488108468548561</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.71969696969696972</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.79761904761904767</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.71293108015044759</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.79696580097711489</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="10"/>
+        <v>0.69213170197950857</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" ref="L14:M14" si="11">+L6/L13</f>
+        <v>0.70758069292271242</v>
+      </c>
+      <c r="M14" s="23">
         <f t="shared" si="11"/>
-        <v>0.66472654816213095</v>
-      </c>
-      <c r="D14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.61761322037443778</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.59502530418865085</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.71488108468548561</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.71969696969696972</v>
-      </c>
-      <c r="H14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.79761904761904767</v>
-      </c>
-      <c r="I14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.71293108015044759</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.79696580097711489</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="11"/>
-        <v>0.69213170197950857</v>
-      </c>
-      <c r="L14" s="23">
-        <f t="shared" ref="L14:M14" si="12">+L6/L13</f>
-        <v>0.70758069292271242</v>
-      </c>
-      <c r="M14" s="23">
+        <v>0.74011497125718573</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" ref="N14:O14" si="12">+N6/N13</f>
+        <v>0.71675985946855358</v>
+      </c>
+      <c r="O14" s="23">
         <f t="shared" si="12"/>
-        <v>0.74011497125718573</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" ref="N14:O14" si="13">+N6/N13</f>
-        <v>0.71675985946855358</v>
-      </c>
-      <c r="O14" s="23">
+        <v>0.70425999581327192</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" ref="P14:W14" si="13">+P6/P13</f>
+        <v>0.75719376628902713</v>
+      </c>
+      <c r="Q14" s="23">
         <f t="shared" si="13"/>
-        <v>0.70425999581327192</v>
-      </c>
-      <c r="P14" s="23">
-        <f t="shared" ref="P14:U14" si="14">+P6/P13</f>
-        <v>0.75719376628902713</v>
-      </c>
-      <c r="Q14" s="23">
-        <f t="shared" si="14"/>
         <v>0.74045303927426798</v>
       </c>
       <c r="R14" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.72434348316416952</v>
       </c>
       <c r="S14" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.71719097553225297</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.72059516948708546</v>
       </c>
       <c r="U14" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.68770746332583788</v>
       </c>
       <c r="V14" s="23">
+        <f t="shared" si="13"/>
         <v>0.72935422918750692</v>
       </c>
       <c r="W14" s="23">
+        <f t="shared" si="13"/>
         <v>0.71322331994354571</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6471,7 +6535,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -6530,19 +6594,19 @@
         <v>189759</v>
       </c>
       <c r="T16" s="21">
-        <v>189589</v>
+        <v>187745</v>
       </c>
       <c r="U16" s="21">
-        <v>191060</v>
+        <v>190518</v>
       </c>
       <c r="V16" s="21">
-        <v>192982</v>
+        <v>193387</v>
       </c>
       <c r="W16" s="21">
         <v>193973</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -6601,44 +6665,44 @@
         <v>153867</v>
       </c>
       <c r="T17" s="21">
-        <v>152351</v>
+        <v>151121</v>
       </c>
       <c r="U17" s="21">
-        <v>152811</v>
+        <v>152280</v>
       </c>
       <c r="V17" s="21">
-        <v>152681</v>
+        <v>152189</v>
       </c>
       <c r="W17" s="21">
         <v>151607</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="23">
-        <f t="shared" ref="B18:G18" si="15">B8/B17</f>
+        <f t="shared" ref="B18:G18" si="14">B8/B17</f>
         <v>0.73900090380602756</v>
       </c>
       <c r="C18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.56223374998651898</v>
       </c>
       <c r="D18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.61283928920132791</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.60932917374978979</v>
       </c>
       <c r="F18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.67786844144595892</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.51324476829430843</v>
       </c>
       <c r="H18" s="23">
@@ -6650,61 +6714,63 @@
         <v>0.35001111282077585</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" ref="J18:O18" si="16">+J8/J17</f>
+        <f t="shared" ref="J18:O18" si="15">+J8/J17</f>
         <v>0.66683349518189283</v>
       </c>
       <c r="K18" s="23">
+        <f t="shared" si="15"/>
+        <v>0.57362014461683808</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="15"/>
+        <v>0.66580760749724366</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="15"/>
+        <v>0.59511126933695158</v>
+      </c>
+      <c r="N18" s="23">
+        <f t="shared" si="15"/>
+        <v>0.64893139455450377</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="15"/>
+        <v>0.58389555426384432</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" ref="P18:W18" si="16">+P8/P17</f>
+        <v>0.43556091515090611</v>
+      </c>
+      <c r="Q18" s="23">
         <f t="shared" si="16"/>
-        <v>0.57362014461683808</v>
-      </c>
-      <c r="L18" s="23">
+        <v>0.38086631643546459</v>
+      </c>
+      <c r="R18" s="23">
         <f t="shared" si="16"/>
-        <v>0.66580760749724366</v>
-      </c>
-      <c r="M18" s="23">
+        <v>0.53178241845924434</v>
+      </c>
+      <c r="S18" s="23">
         <f t="shared" si="16"/>
-        <v>0.59511126933695158</v>
-      </c>
-      <c r="N18" s="23">
+        <v>0.46217187571084117</v>
+      </c>
+      <c r="T18" s="23">
         <f t="shared" si="16"/>
-        <v>0.64893139455450377</v>
-      </c>
-      <c r="O18" s="23">
+        <v>0.55600479086295085</v>
+      </c>
+      <c r="U18" s="23">
         <f t="shared" si="16"/>
-        <v>0.58389555426384432</v>
-      </c>
-      <c r="P18" s="23">
-        <f t="shared" ref="P18:U18" si="17">+P8/P17</f>
-        <v>0.43556091515090611</v>
-      </c>
-      <c r="Q18" s="23">
-        <f t="shared" si="17"/>
-        <v>0.38086631643546459</v>
-      </c>
-      <c r="R18" s="23">
-        <f t="shared" si="17"/>
-        <v>0.53178241845924434</v>
-      </c>
-      <c r="S18" s="23">
-        <f t="shared" si="17"/>
-        <v>0.46217187571084117</v>
-      </c>
-      <c r="T18" s="23">
-        <f t="shared" si="17"/>
-        <v>0.55157498145729267</v>
-      </c>
-      <c r="U18" s="23">
-        <f t="shared" si="17"/>
-        <v>0.4768177683543724</v>
+        <v>0.47930128710270553</v>
       </c>
       <c r="V18" s="23">
-        <v>0.32637983770082724</v>
+        <f t="shared" si="16"/>
+        <v>0.32813803888585902</v>
       </c>
       <c r="W18" s="23">
+        <f t="shared" si="16"/>
         <v>0.42326541650451499</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6727,7 +6793,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -6736,89 +6802,91 @@
         <v>131458</v>
       </c>
       <c r="C20" s="21">
-        <f t="shared" ref="C20:I20" si="18">+C12+C16</f>
+        <f t="shared" ref="C20:I20" si="17">+C12+C16</f>
         <v>137010</v>
       </c>
       <c r="D20" s="21">
+        <f t="shared" si="17"/>
+        <v>148460</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="17"/>
+        <v>154508</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="17"/>
+        <v>157706</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="17"/>
+        <v>161699</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="17"/>
+        <v>162487</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="17"/>
+        <v>168382</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" ref="J20:K20" si="18">+J12+J16</f>
+        <v>190592</v>
+      </c>
+      <c r="K20" s="21">
         <f t="shared" si="18"/>
-        <v>148460</v>
-      </c>
-      <c r="E20" s="21">
-        <f t="shared" si="18"/>
-        <v>154508</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="18"/>
-        <v>157706</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="18"/>
-        <v>161699</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="18"/>
-        <v>162487</v>
-      </c>
-      <c r="I20" s="21">
-        <f t="shared" si="18"/>
-        <v>168382</v>
-      </c>
-      <c r="J20" s="21">
-        <f t="shared" ref="J20:K20" si="19">+J12+J16</f>
-        <v>190592</v>
-      </c>
-      <c r="K20" s="21">
+        <v>196962</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" ref="L20:M20" si="19">+L12+L16</f>
+        <v>203105</v>
+      </c>
+      <c r="M20" s="21">
         <f t="shared" si="19"/>
-        <v>196962</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" ref="L20:M20" si="20">+L12+L16</f>
-        <v>203105</v>
-      </c>
-      <c r="M20" s="21">
+        <v>206936</v>
+      </c>
+      <c r="N20" s="21">
+        <f t="shared" ref="N20:O20" si="20">+N12+N16</f>
+        <v>208936</v>
+      </c>
+      <c r="O20" s="21">
         <f t="shared" si="20"/>
-        <v>206936</v>
-      </c>
-      <c r="N20" s="21">
-        <f t="shared" ref="N20:O20" si="21">+N12+N16</f>
-        <v>208936</v>
-      </c>
-      <c r="O20" s="21">
+        <v>209750</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" ref="P20:Q20" si="21">+P12+P16</f>
+        <v>212691</v>
+      </c>
+      <c r="Q20" s="21">
         <f t="shared" si="21"/>
-        <v>209750</v>
-      </c>
-      <c r="P20" s="21">
-        <f t="shared" ref="P20:Q20" si="22">+P12+P16</f>
-        <v>212691</v>
-      </c>
-      <c r="Q20" s="21">
+        <v>209867</v>
+      </c>
+      <c r="R20" s="21">
+        <f t="shared" ref="R20:S20" si="22">+R12+R16</f>
+        <v>211980</v>
+      </c>
+      <c r="S20" s="21">
         <f t="shared" si="22"/>
-        <v>209867</v>
-      </c>
-      <c r="R20" s="21">
-        <f t="shared" ref="R20:S20" si="23">+R12+R16</f>
-        <v>211980</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" si="23"/>
         <v>213561</v>
       </c>
       <c r="T20" s="21">
-        <f t="shared" ref="T20:U20" si="24">+T12+T16</f>
-        <v>213648</v>
+        <f t="shared" ref="T20" si="23">+T12+T16</f>
+        <v>211804</v>
       </c>
       <c r="U20" s="21">
+        <f t="shared" ref="U20:W20" si="24">+U12+U16</f>
+        <v>214319</v>
+      </c>
+      <c r="V20" s="21">
         <f t="shared" si="24"/>
-        <v>214861</v>
-      </c>
-      <c r="V20" s="21">
-        <v>216882</v>
+        <v>217287</v>
       </c>
       <c r="W20" s="21">
+        <f t="shared" si="24"/>
         <v>217926</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -6895,112 +6963,116 @@
         <v>172749</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" ref="T21:U21" si="31">+T13+T17</f>
-        <v>171438</v>
+        <f t="shared" ref="T21" si="31">+T13+T17</f>
+        <v>170208</v>
       </c>
       <c r="U21" s="21">
-        <f t="shared" si="31"/>
-        <v>171489</v>
+        <f t="shared" ref="U21:W21" si="32">+U13+U17</f>
+        <v>170958</v>
       </c>
       <c r="V21" s="21">
-        <v>170675</v>
+        <f t="shared" si="32"/>
+        <v>170183</v>
       </c>
       <c r="W21" s="21">
+        <f t="shared" si="32"/>
         <v>170029</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" ref="B22:K22" si="32">+(B6+B8)/B21</f>
+        <f t="shared" ref="B22:K22" si="33">+(B6+B8)/B21</f>
         <v>0.72373175047928029</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.57971805284720113</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.61359036382485066</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.60721449266133909</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.68308518886913483</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.54164782698659641</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.49577040646469539</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.40043721799807153</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.68333822522258092</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.58872875068955244</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" ref="L22:M22" si="33">+(L6+L8)/L21</f>
+        <f t="shared" ref="L22:M22" si="34">+(L6+L8)/L21</f>
         <v>0.67092549370548182</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.61228816068404412</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" ref="N22:O22" si="34">+(N6+N8)/N21</f>
+        <f t="shared" ref="N22:O22" si="35">+(N6+N8)/N21</f>
         <v>0.65681313752774362</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.59725004500031931</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" ref="P22:S22" si="35">+(P6+P8)/P21</f>
+        <f t="shared" ref="P22:S22" si="36">+(P6+P8)/P21</f>
         <v>0.47154094224887844</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.42057807213303577</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.55268773320895526</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.49004625207671243</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" ref="T22:U22" si="36">+(T6+T8)/T21</f>
-        <v>0.57039279506293816</v>
+        <f t="shared" ref="T22" si="37">+(T6+T8)/T21</f>
+        <v>0.57446183493137803</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="36"/>
-        <v>0.49978715836001142</v>
+        <f t="shared" ref="U22:W22" si="38">+(U6+U8)/U21</f>
+        <v>0.50207068402765587</v>
       </c>
       <c r="V22" s="23">
-        <v>0.3688648015233631</v>
+        <f t="shared" si="38"/>
+        <v>0.37055992666717591</v>
       </c>
       <c r="W22" s="23">
+        <f t="shared" si="38"/>
         <v>0.45468126025560346</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7022,191 +7094,197 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="21">
-        <f t="shared" ref="B24:K24" si="37">+B21+B9</f>
+        <f t="shared" ref="B24:K24" si="39">+B21+B9</f>
         <v>133752</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>137040</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>147401</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>152906</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>156733</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>159397</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>162044</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>167968</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>187925</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>192102</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" ref="L24:M24" si="38">+L21+L9</f>
+        <f t="shared" ref="L24:M24" si="40">+L21+L9</f>
         <v>204742</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>209127</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" ref="N24:O24" si="39">+N21+N9</f>
+        <f t="shared" ref="N24:O24" si="41">+N21+N9</f>
         <v>215829</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>218920</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" ref="P24:Q24" si="40">+P21+P9</f>
+        <f t="shared" ref="P24:Q24" si="42">+P21+P9</f>
         <v>211121</v>
       </c>
       <c r="Q24" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>209609</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:S24" si="41">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="43">+R21+R9</f>
         <v>215160</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>216237</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" ref="T24:U24" si="42">+T21+T9</f>
-        <v>213174</v>
+        <f t="shared" ref="T24" si="44">+T21+T9</f>
+        <v>212254</v>
       </c>
       <c r="U24" s="21">
-        <f t="shared" si="42"/>
-        <v>213245</v>
+        <f t="shared" ref="U24:W24" si="45">+U21+U9</f>
+        <v>212598</v>
       </c>
       <c r="V24" s="21">
-        <v>214710</v>
+        <f t="shared" si="45"/>
+        <v>214111</v>
       </c>
       <c r="W24" s="21">
+        <f t="shared" si="45"/>
         <v>214135</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" ref="B25:L25" si="43">+B5/B24</f>
+        <f t="shared" ref="B25:L25" si="46">+B5/B24</f>
         <v>0.77589867815060709</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.65714389959136021</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.68137936649005093</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.67726577112735931</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.74182845986486567</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.6247796382616988</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.58874750067882797</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.51505048580682034</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.74165757616070238</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.66235645646583585</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.73418741635814833</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" ref="M25:N25" si="44">+M5/M24</f>
+        <f t="shared" ref="M25:N25" si="47">+M5/M24</f>
         <v>0.68690795545290662</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.72346162934545399</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" ref="O25:P25" si="45">+O5/O24</f>
+        <f t="shared" ref="O25:P25" si="48">+O5/O24</f>
         <v>0.68316279919605338</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.57931233747471833</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" ref="Q25" si="46">+Q5/Q24</f>
+        <f t="shared" ref="Q25" si="49">+Q5/Q24</f>
         <v>0.53921348797045932</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25:S25" si="47">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="50">+R5/R24</f>
         <v>0.6434142033835285</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.59260441090100213</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" ref="T25:U25" si="48">+T5/T24</f>
-        <v>0.65450289434921705</v>
+        <f t="shared" ref="T25" si="51">+T5/T24</f>
+        <v>0.65875790326684069</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="48"/>
-        <v>0.59773499964829191</v>
+        <f t="shared" ref="U25:W25" si="52">+U5/U24</f>
+        <v>0.59959642141506508</v>
       </c>
       <c r="V25" s="23">
-        <v>0.4983046900470402</v>
+        <f t="shared" si="52"/>
+        <v>0.49969875438440808</v>
       </c>
       <c r="W25" s="23">
+        <f t="shared" si="52"/>
         <v>0.56700212482779555</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>54</v>
       </c>
@@ -7233,7 +7311,7 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>50</v>
       </c>
@@ -7248,7 +7326,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>51</v>
       </c>
@@ -7263,7 +7341,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
@@ -7278,7 +7356,7 @@
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>53</v>
       </c>
@@ -7293,7 +7371,7 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7306,7 +7384,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>9</v>
       </c>
@@ -7336,23 +7414,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -7421,7 +7499,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -7480,10 +7558,10 @@
         <v>40363</v>
       </c>
       <c r="T5" s="21">
-        <v>47856</v>
+        <v>47889</v>
       </c>
       <c r="U5" s="21">
-        <v>46467</v>
+        <v>46499</v>
       </c>
       <c r="V5" s="21">
         <v>26158</v>
@@ -7492,7 +7570,7 @@
         <v>33857</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -7551,19 +7629,19 @@
         <v>38142</v>
       </c>
       <c r="T6" s="21">
-        <v>45645</v>
+        <v>45660</v>
       </c>
       <c r="U6" s="21">
         <v>44015</v>
       </c>
       <c r="V6" s="21">
-        <v>23867</v>
+        <v>23876</v>
       </c>
       <c r="W6" s="21">
         <v>31720</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -7620,7 +7698,7 @@
         <v>1928</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" ref="O7:U7" si="4">+O5-O6</f>
+        <f t="shared" ref="O7:W7" si="4">+O5-O6</f>
         <v>2072</v>
       </c>
       <c r="P7" s="21">
@@ -7641,20 +7719,22 @@
       </c>
       <c r="T7" s="21">
         <f t="shared" si="4"/>
-        <v>2211</v>
+        <v>2229</v>
       </c>
       <c r="U7" s="21">
         <f t="shared" si="4"/>
-        <v>2452</v>
+        <v>2484</v>
       </c>
       <c r="V7" s="21">
-        <v>2291</v>
+        <f t="shared" si="4"/>
+        <v>2282</v>
       </c>
       <c r="W7" s="21">
+        <f t="shared" si="4"/>
         <v>2137</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7677,7 +7757,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -7736,19 +7816,19 @@
         <v>94846</v>
       </c>
       <c r="T9" s="21">
-        <v>92691</v>
+        <v>93321</v>
       </c>
       <c r="U9" s="21">
         <v>94009</v>
       </c>
       <c r="V9" s="21">
-        <v>98181</v>
+        <v>98599</v>
       </c>
       <c r="W9" s="21">
         <v>98695</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -7807,7 +7887,7 @@
         <v>76114</v>
       </c>
       <c r="T10" s="21">
-        <v>75835</v>
+        <v>76342</v>
       </c>
       <c r="U10" s="21">
         <v>76603</v>
@@ -7819,7 +7899,7 @@
         <v>77990</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -7880,7 +7960,7 @@
         <v>0.77820777323577273</v>
       </c>
       <c r="P11" s="23">
-        <f t="shared" ref="P11:U11" si="9">+P6/P10</f>
+        <f t="shared" ref="P11:W11" si="9">+P6/P10</f>
         <v>0.44586554041490689</v>
       </c>
       <c r="Q11" s="23">
@@ -7897,20 +7977,22 @@
       </c>
       <c r="T11" s="23">
         <f t="shared" si="9"/>
-        <v>0.60189885936572818</v>
+        <v>0.59809803253779048</v>
       </c>
       <c r="U11" s="23">
         <f t="shared" si="9"/>
         <v>0.57458585172904453</v>
       </c>
       <c r="V11" s="23">
-        <v>0.30423587298754606</v>
+        <f t="shared" si="9"/>
+        <v>0.30435059720327856</v>
       </c>
       <c r="W11" s="23">
+        <f t="shared" si="9"/>
         <v>0.40671881010385946</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -7933,7 +8015,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -8010,21 +8092,23 @@
         <v>78335</v>
       </c>
       <c r="T13" s="21">
-        <f t="shared" ref="T13:U13" si="15">+T10+T7</f>
-        <v>78046</v>
+        <f t="shared" ref="T13:W13" si="15">+T10+T7</f>
+        <v>78571</v>
       </c>
       <c r="U13" s="21">
         <f t="shared" si="15"/>
-        <v>79055</v>
+        <v>79087</v>
       </c>
       <c r="V13" s="21">
-        <v>80740</v>
+        <f t="shared" si="15"/>
+        <v>80731</v>
       </c>
       <c r="W13" s="21">
+        <f t="shared" si="15"/>
         <v>80127</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -8101,24 +8185,26 @@
         <v>0.51526137741750178</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" ref="T14:U14" si="21">+T5/T13</f>
-        <v>0.61317684442508269</v>
+        <f t="shared" ref="T14:W14" si="21">+T5/T13</f>
+        <v>0.60949968818011735</v>
       </c>
       <c r="U14" s="23">
         <f t="shared" si="21"/>
-        <v>0.58778065903484911</v>
+        <v>0.58794745027627804</v>
       </c>
       <c r="V14" s="23">
-        <v>0.32397820163487739</v>
+        <f t="shared" si="21"/>
+        <v>0.3240143191586875</v>
       </c>
       <c r="W14" s="23">
+        <f t="shared" si="21"/>
         <v>0.42254171502739402</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>54</v>
       </c>
@@ -8145,7 +8231,7 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>45</v>
       </c>
@@ -8160,7 +8246,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
@@ -8175,7 +8261,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>46</v>
       </c>
@@ -8190,7 +8276,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -8203,7 +8289,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>1</v>
       </c>
@@ -8233,24 +8319,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -8319,7 +8405,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -8397,20 +8483,22 @@
       </c>
       <c r="T5" s="21">
         <f>+T6+T7</f>
-        <v>251348</v>
+        <v>251419</v>
       </c>
       <c r="U5" s="21">
-        <f>+U6+U7</f>
-        <v>294121</v>
+        <f t="shared" ref="U5:W5" si="4">+U6+U7</f>
+        <v>294692</v>
       </c>
       <c r="V5" s="21">
-        <v>227905</v>
+        <f t="shared" si="4"/>
+        <v>227737</v>
       </c>
       <c r="W5" s="21">
+        <f t="shared" si="4"/>
         <v>261788</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -8469,19 +8557,19 @@
         <v>44053</v>
       </c>
       <c r="T6" s="21">
-        <v>49304</v>
+        <v>49303</v>
       </c>
       <c r="U6" s="21">
-        <v>51057</v>
+        <v>51058</v>
       </c>
       <c r="V6" s="21">
-        <v>41565</v>
+        <v>41286</v>
       </c>
       <c r="W6" s="21">
         <v>44926</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -8540,19 +8628,19 @@
         <v>176550</v>
       </c>
       <c r="T7" s="21">
-        <v>202044</v>
+        <v>202116</v>
       </c>
       <c r="U7" s="21">
-        <v>243064</v>
+        <v>243634</v>
       </c>
       <c r="V7" s="21">
-        <v>186340</v>
+        <v>186451</v>
       </c>
       <c r="W7" s="21">
         <v>216862</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8611,19 +8699,19 @@
         <v>119088</v>
       </c>
       <c r="T8" s="21">
-        <v>142739</v>
+        <v>144175</v>
       </c>
       <c r="U8" s="21">
-        <v>181109</v>
+        <v>176455</v>
       </c>
       <c r="V8" s="21">
-        <v>116389</v>
+        <v>117058</v>
       </c>
       <c r="W8" s="21">
         <v>149214</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -8632,89 +8720,91 @@
         <v>30406</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" ref="C9:H9" si="4">+C7-C8</f>
+        <f t="shared" ref="C9:H9" si="5">+C7-C8</f>
         <v>30724</v>
       </c>
       <c r="D9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32236</v>
       </c>
       <c r="E9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35958</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32247</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32788</v>
       </c>
       <c r="H9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34915</v>
       </c>
       <c r="I9" s="21">
-        <f t="shared" ref="I9:J9" si="5">+I7-I8</f>
+        <f t="shared" ref="I9:J9" si="6">+I7-I8</f>
         <v>36652</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41115</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" ref="K9:L9" si="6">+K7-K8</f>
+        <f t="shared" ref="K9:L9" si="7">+K7-K8</f>
         <v>43509</v>
       </c>
       <c r="L9" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47126</v>
       </c>
       <c r="M9" s="21">
-        <f t="shared" ref="M9:N9" si="7">+M7-M8</f>
+        <f t="shared" ref="M9:N9" si="8">+M7-M8</f>
         <v>45255</v>
       </c>
       <c r="N9" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43862</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" ref="O9:P9" si="8">+O7-O8</f>
+        <f t="shared" ref="O9:P9" si="9">+O7-O8</f>
         <v>47095</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48881</v>
       </c>
       <c r="Q9" s="21">
-        <f t="shared" ref="Q9:T9" si="9">+Q7-Q8</f>
+        <f t="shared" ref="Q9:W9" si="10">+Q7-Q8</f>
         <v>50159</v>
       </c>
       <c r="R9" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58427</v>
       </c>
       <c r="S9" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57462</v>
       </c>
       <c r="T9" s="21">
-        <f t="shared" si="9"/>
-        <v>59305</v>
+        <f t="shared" si="10"/>
+        <v>57941</v>
       </c>
       <c r="U9" s="21">
-        <f t="shared" ref="U9" si="10">+U7-U8</f>
-        <v>61955</v>
+        <f t="shared" si="10"/>
+        <v>67179</v>
       </c>
       <c r="V9" s="21">
-        <v>69951</v>
+        <f t="shared" si="10"/>
+        <v>69393</v>
       </c>
       <c r="W9" s="21">
+        <f t="shared" si="10"/>
         <v>67648</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -8785,7 +8875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -8808,7 +8898,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -8870,7 +8960,7 @@
         <v>89680</v>
       </c>
       <c r="U12" s="21">
-        <v>90330</v>
+        <v>90051</v>
       </c>
       <c r="V12" s="21">
         <v>86594</v>
@@ -8879,7 +8969,7 @@
         <v>87769</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -8941,7 +9031,7 @@
         <v>73279</v>
       </c>
       <c r="U13" s="21">
-        <v>73686</v>
+        <v>73449</v>
       </c>
       <c r="V13" s="21">
         <v>68867</v>
@@ -8950,7 +9040,7 @@
         <v>71604</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -9011,7 +9101,7 @@
         <v>0.67675558278108816</v>
       </c>
       <c r="P14" s="23">
-        <f t="shared" ref="P14:U14" si="14">+P6/P13</f>
+        <f t="shared" ref="P14:W14" si="14">+P6/P13</f>
         <v>0.64523303444489799</v>
       </c>
       <c r="Q14" s="23">
@@ -9028,20 +9118,22 @@
       </c>
       <c r="T14" s="23">
         <f t="shared" si="14"/>
-        <v>0.67282577546090971</v>
+        <v>0.67281212898647635</v>
       </c>
       <c r="U14" s="23">
         <f t="shared" si="14"/>
-        <v>0.69289960100968973</v>
+        <v>0.69514901496276327</v>
       </c>
       <c r="V14" s="23">
-        <v>0.6035546778573192</v>
+        <f t="shared" si="14"/>
+        <v>0.5995033905934628</v>
       </c>
       <c r="W14" s="23">
+        <f t="shared" si="14"/>
         <v>0.62742304899167645</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -9064,7 +9156,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -9123,19 +9215,19 @@
         <v>346882</v>
       </c>
       <c r="T16" s="21">
-        <v>372545</v>
+        <v>376459</v>
       </c>
       <c r="U16" s="21">
-        <v>405820</v>
+        <v>398243</v>
       </c>
       <c r="V16" s="21">
-        <v>398522</v>
+        <v>397005</v>
       </c>
       <c r="W16" s="21">
         <v>402404</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -9194,19 +9286,19 @@
         <v>297481</v>
       </c>
       <c r="T17" s="21">
-        <v>317328</v>
+        <v>317387</v>
       </c>
       <c r="U17" s="21">
-        <v>346331</v>
+        <v>338478</v>
       </c>
       <c r="V17" s="21">
-        <v>334045</v>
+        <v>332231</v>
       </c>
       <c r="W17" s="21">
         <v>338539</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -9267,7 +9359,7 @@
         <v>0.5305904315134331</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" ref="P18:U18" si="18">P8/P17</f>
+        <f t="shared" ref="P18:W18" si="18">P8/P17</f>
         <v>0.45034426121323662</v>
       </c>
       <c r="Q18" s="23">
@@ -9284,20 +9376,22 @@
       </c>
       <c r="T18" s="23">
         <f t="shared" si="18"/>
-        <v>0.44981533303080723</v>
+        <v>0.4542561604602583</v>
       </c>
       <c r="U18" s="23">
         <f t="shared" si="18"/>
-        <v>0.52293615067666477</v>
+        <v>0.52131896312315718</v>
       </c>
       <c r="V18" s="23">
-        <v>0.34842311664596087</v>
+        <f t="shared" si="18"/>
+        <v>0.35233918568706712</v>
       </c>
       <c r="W18" s="23">
+        <f t="shared" si="18"/>
         <v>0.44075867182215345</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -9320,7 +9414,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -9397,21 +9491,23 @@
         <v>435199</v>
       </c>
       <c r="T20" s="21">
-        <f t="shared" ref="T20:U20" si="25">+T12+T16</f>
-        <v>462225</v>
+        <f t="shared" ref="T20" si="25">+T12+T16</f>
+        <v>466139</v>
       </c>
       <c r="U20" s="21">
-        <f t="shared" si="25"/>
-        <v>496150</v>
+        <f t="shared" ref="U20:W20" si="26">+U12+U16</f>
+        <v>488294</v>
       </c>
       <c r="V20" s="21">
-        <v>485116</v>
+        <f t="shared" si="26"/>
+        <v>483599</v>
       </c>
       <c r="W20" s="21">
+        <f t="shared" si="26"/>
         <v>490173</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -9420,180 +9516,184 @@
         <v>246521</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" ref="C21:I21" si="26">+C13+C17</f>
+        <f t="shared" ref="C21:I21" si="27">+C13+C17</f>
         <v>252454</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>257024</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>267101</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>269930</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>274561</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>275750</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>285602</v>
       </c>
       <c r="J21" s="21">
-        <f t="shared" ref="J21:K21" si="27">+J13+J17</f>
+        <f t="shared" ref="J21:K21" si="28">+J13+J17</f>
         <v>297176</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>301921</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" ref="L21:M21" si="28">+L13+L17</f>
+        <f t="shared" ref="L21:M21" si="29">+L13+L17</f>
         <v>311476</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>322300</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" ref="N21:O21" si="29">+N13+N17</f>
+        <f t="shared" ref="N21:O21" si="30">+N13+N17</f>
         <v>332107</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>341275</v>
       </c>
       <c r="P21" s="21">
-        <f t="shared" ref="P21:Q21" si="30">+P13+P17</f>
+        <f t="shared" ref="P21:Q21" si="31">+P13+P17</f>
         <v>343799</v>
       </c>
       <c r="Q21" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>353560</v>
       </c>
       <c r="R21" s="21">
-        <f t="shared" ref="R21:S21" si="31">+R13+R17</f>
+        <f t="shared" ref="R21:S21" si="32">+R13+R17</f>
         <v>356728</v>
       </c>
       <c r="S21" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>369979</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" ref="T21:U21" si="32">+T13+T17</f>
-        <v>390607</v>
+        <f t="shared" ref="T21" si="33">+T13+T17</f>
+        <v>390666</v>
       </c>
       <c r="U21" s="21">
-        <f t="shared" si="32"/>
-        <v>420017</v>
+        <f t="shared" ref="U21:W21" si="34">+U13+U17</f>
+        <v>411927</v>
       </c>
       <c r="V21" s="21">
-        <v>402912</v>
+        <f t="shared" si="34"/>
+        <v>401098</v>
       </c>
       <c r="W21" s="21">
+        <f t="shared" si="34"/>
         <v>410143</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" ref="B22:K22" si="33">(B6+B8)/B21</f>
+        <f t="shared" ref="B22:K22" si="35">(B6+B8)/B21</f>
         <v>0.52129433192304109</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.44874313736363852</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.50751680776892427</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.47510492285689682</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.49186826214203683</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.4880809728985544</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.51968449682683593</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.45265789455255917</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5739528091097531</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.58078768949493409</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" ref="L22:M22" si="34">(L6+L8)/L21</f>
+        <f t="shared" ref="L22:M22" si="36">(L6+L8)/L21</f>
         <v>0.68114076204908247</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.60394353087185848</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" ref="N22:O22" si="35">(N6+N8)/N21</f>
+        <f t="shared" ref="N22:O22" si="37">(N6+N8)/N21</f>
         <v>0.71890986940955781</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.56135374697824336</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" ref="P22:Q22" si="36">(P6+P8)/P21</f>
+        <f t="shared" ref="P22:Q22" si="38">(P6+P8)/P21</f>
         <v>0.49061515594867933</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.4826139834822944</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" ref="R22:S22" si="37">(R6+R8)/R21</f>
+        <f t="shared" ref="R22:S22" si="39">(R6+R8)/R21</f>
         <v>0.49191821219528603</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.44094664832328323</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" ref="T22:U22" si="38">(T6+T8)/T21</f>
-        <v>0.49165273535804532</v>
+        <f t="shared" ref="T22" si="40">(T6+T8)/T21</f>
+        <v>0.49525169838173783</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="38"/>
-        <v>0.55275381710740279</v>
+        <f t="shared" ref="U22:W22" si="41">(U6+U8)/U21</f>
+        <v>0.55231388085753064</v>
       </c>
       <c r="V22" s="23">
-        <v>0.39203101421650383</v>
+        <f t="shared" si="41"/>
+        <v>0.39477633894958342</v>
       </c>
       <c r="W22" s="23">
+        <f t="shared" si="41"/>
         <v>0.47334710088920207</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9616,192 +9716,196 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="21">
-        <f t="shared" ref="B24:K24" si="39">+B21+B9</f>
+        <f t="shared" ref="B24:K24" si="42">+B21+B9</f>
         <v>276927</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>283178</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>289260</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>303059</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>302177</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>307349</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>310665</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>322254</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>338291</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>345430</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" ref="L24:M24" si="40">+L21+L9</f>
+        <f t="shared" ref="L24:M24" si="43">+L21+L9</f>
         <v>358602</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>367555</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" ref="N24:O24" si="41">+N21+N9</f>
+        <f t="shared" ref="N24:O24" si="44">+N21+N9</f>
         <v>375969</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>388370</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" ref="P24:Q24" si="42">+P21+P9</f>
+        <f t="shared" ref="P24:Q24" si="45">+P21+P9</f>
         <v>392680</v>
       </c>
       <c r="Q24" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>403719</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:S24" si="43">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="46">+R21+R9</f>
         <v>415155</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>427441</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" ref="T24:U24" si="44">+T21+T9</f>
-        <v>449912</v>
+        <f t="shared" ref="T24:W24" si="47">+T21+T9</f>
+        <v>448607</v>
       </c>
       <c r="U24" s="21">
-        <f t="shared" si="44"/>
-        <v>481972</v>
+        <f t="shared" si="47"/>
+        <v>479106</v>
       </c>
       <c r="V24" s="21">
-        <v>472863</v>
+        <f t="shared" si="47"/>
+        <v>470491</v>
       </c>
       <c r="W24" s="21">
+        <f t="shared" si="47"/>
         <v>477791</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" ref="B25:K25" si="45">+B5/B24</f>
+        <f t="shared" ref="B25:K25" si="48">+B5/B24</f>
         <v>0.57385520371794729</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.50855292430909182</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.56240060844914608</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.53738380975321642</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.54609384565999397</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.54269250916710321</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.57366616773695134</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.51491059847201281</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.62573346615783454</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.63359001823813799</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="L25:M25" si="46">+L5/L24</f>
+        <f t="shared" ref="L25:M25" si="49">+L5/L24</f>
         <v>0.72304393171259507</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.65270775802260883</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" ref="N25:O25" si="47">+N5/N24</f>
+        <f t="shared" ref="N25:O25" si="50">+N5/N24</f>
         <v>0.75170293295457868</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.61454540772974231</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" ref="P25:Q25" si="48">+P5/P24</f>
+        <f t="shared" ref="P25:Q25" si="51">+P5/P24</f>
         <v>0.55402363247427933</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.54689524149222601</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25:S25" si="49">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="52">+R5/R24</f>
         <v>0.56342329973142558</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.51610163741896542</v>
       </c>
       <c r="T25" s="23">
         <f>+T5/T24</f>
-        <v>0.5586603602482263</v>
+        <v>0.56044377372622367</v>
       </c>
       <c r="U25" s="23">
-        <f>+U5/U24</f>
-        <v>0.61024499348509875</v>
+        <f t="shared" ref="U25:W25" si="53">+U5/U24</f>
+        <v>0.61508726670089708</v>
       </c>
       <c r="V25" s="23">
-        <v>0.48196835024097889</v>
+        <f t="shared" si="53"/>
+        <v>0.48404114000055259</v>
       </c>
       <c r="W25" s="23">
+        <f t="shared" si="53"/>
         <v>0.5479132089135208</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
@@ -9828,7 +9932,7 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>50</v>
       </c>
@@ -9844,7 +9948,7 @@
       <c r="K28" s="16"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>51</v>
       </c>
@@ -9860,7 +9964,7 @@
       <c r="K29" s="16"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
@@ -9875,7 +9979,7 @@
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>53</v>
       </c>
@@ -9890,7 +9994,7 @@
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9903,7 +10007,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>9</v>
       </c>
@@ -9936,23 +10040,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -10021,7 +10125,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -10082,7 +10186,7 @@
         <v>21053</v>
       </c>
       <c r="P5" s="21">
-        <f t="shared" ref="P5:U5" si="3">+P6+P7</f>
+        <f t="shared" ref="P5:W5" si="3">+P6+P7</f>
         <v>23148</v>
       </c>
       <c r="Q5" s="21">
@@ -10099,20 +10203,22 @@
       </c>
       <c r="T5" s="21">
         <f t="shared" si="3"/>
-        <v>23314</v>
+        <v>23655</v>
       </c>
       <c r="U5" s="21">
         <f t="shared" si="3"/>
-        <v>23494</v>
+        <v>23617</v>
       </c>
       <c r="V5" s="21">
+        <f t="shared" si="3"/>
         <v>25698</v>
       </c>
       <c r="W5" s="21">
+        <f t="shared" si="3"/>
         <v>25799</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -10183,7 +10289,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -10242,10 +10348,10 @@
         <v>18274</v>
       </c>
       <c r="T7" s="21">
-        <v>20775</v>
+        <v>21116</v>
       </c>
       <c r="U7" s="21">
-        <v>20980</v>
+        <v>21103</v>
       </c>
       <c r="V7" s="21">
         <v>23091</v>
@@ -10254,7 +10360,7 @@
         <v>23245</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -10313,19 +10419,19 @@
         <v>9047</v>
       </c>
       <c r="T8" s="21">
-        <v>10868</v>
+        <v>11827</v>
       </c>
       <c r="U8" s="21">
-        <v>11099</v>
+        <v>11061</v>
       </c>
       <c r="V8" s="21">
-        <v>12511</v>
+        <v>12833</v>
       </c>
       <c r="W8" s="21">
         <v>12796</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -10402,21 +10508,23 @@
         <v>9227</v>
       </c>
       <c r="T9" s="21">
-        <f t="shared" ref="T9:U9" si="10">+T7-T8</f>
-        <v>9907</v>
+        <f t="shared" ref="T9:W9" si="10">+T7-T8</f>
+        <v>9289</v>
       </c>
       <c r="U9" s="21">
         <f t="shared" si="10"/>
-        <v>9881</v>
+        <v>10042</v>
       </c>
       <c r="V9" s="21">
-        <v>10580</v>
+        <f t="shared" si="10"/>
+        <v>10258</v>
       </c>
       <c r="W9" s="21">
+        <f t="shared" si="10"/>
         <v>10449</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -10487,7 +10595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -10510,7 +10618,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -10581,7 +10689,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -10652,7 +10760,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -10713,7 +10821,7 @@
         <v>0.60747422680412366</v>
       </c>
       <c r="P14" s="23">
-        <f t="shared" ref="P14:U14" si="14">+P6/P13</f>
+        <f t="shared" ref="P14:W14" si="14">+P6/P13</f>
         <v>0.68210036213140202</v>
       </c>
       <c r="Q14" s="23">
@@ -10737,13 +10845,15 @@
         <v>0.6575987444415381</v>
       </c>
       <c r="V14" s="23">
+        <f t="shared" si="14"/>
         <v>0.70005370569280345</v>
       </c>
       <c r="W14" s="23">
+        <f t="shared" si="14"/>
         <v>0.66165803108808285</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -10766,7 +10876,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -10825,10 +10935,10 @@
         <v>27363</v>
       </c>
       <c r="T16" s="21">
-        <v>27880</v>
+        <v>27912</v>
       </c>
       <c r="U16" s="21">
-        <v>30067</v>
+        <v>29845</v>
       </c>
       <c r="V16" s="21">
         <v>30435</v>
@@ -10837,7 +10947,7 @@
         <v>29872</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -10896,10 +11006,10 @@
         <v>21573</v>
       </c>
       <c r="T17" s="21">
-        <v>22087</v>
+        <v>22095</v>
       </c>
       <c r="U17" s="21">
-        <v>23346</v>
+        <v>23171</v>
       </c>
       <c r="V17" s="21">
         <v>23446</v>
@@ -10908,7 +11018,7 @@
         <v>22304</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -10969,7 +11079,7 @@
         <v>0.48880615057298971</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" ref="P18:U18" si="18">+P8/P17</f>
+        <f t="shared" ref="P18:W18" si="18">+P8/P17</f>
         <v>0.57404185514738781</v>
       </c>
       <c r="Q18" s="23">
@@ -10986,20 +11096,22 @@
       </c>
       <c r="T18" s="23">
         <f t="shared" si="18"/>
-        <v>0.49205414949970572</v>
+        <v>0.53527947499434259</v>
       </c>
       <c r="U18" s="23">
         <f t="shared" si="18"/>
-        <v>0.47541334704017818</v>
+        <v>0.47736394631220058</v>
       </c>
       <c r="V18" s="23">
-        <v>0.53360914441695817</v>
+        <f t="shared" si="18"/>
+        <v>0.54734283033353237</v>
       </c>
       <c r="W18" s="23">
+        <f t="shared" si="18"/>
         <v>0.57370875179340031</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -11022,7 +11134,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -11099,21 +11211,23 @@
         <v>31819</v>
       </c>
       <c r="T20" s="21">
-        <f t="shared" ref="T20:U20" si="25">+T12+T16</f>
-        <v>32487</v>
+        <f t="shared" ref="T20" si="25">+T12+T16</f>
+        <v>32519</v>
       </c>
       <c r="U20" s="21">
-        <f t="shared" si="25"/>
-        <v>34426</v>
+        <f t="shared" ref="U20:W20" si="26">+U12+U16</f>
+        <v>34204</v>
       </c>
       <c r="V20" s="21">
+        <f t="shared" si="26"/>
         <v>34731</v>
       </c>
       <c r="W20" s="21">
+        <f t="shared" si="26"/>
         <v>34348</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -11122,180 +11236,184 @@
         <v>14506</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" ref="C21:I21" si="26">+C13+C17</f>
+        <f t="shared" ref="C21:I21" si="27">+C13+C17</f>
         <v>14286</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>15399</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>15633</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16072</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16033</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16696</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16981</v>
       </c>
       <c r="J21" s="21">
-        <f t="shared" ref="J21:K21" si="27">+J13+J17</f>
+        <f t="shared" ref="J21:K21" si="28">+J13+J17</f>
         <v>19184</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20676</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" ref="L21:M21" si="28">+L13+L17</f>
+        <f t="shared" ref="L21:M21" si="29">+L13+L17</f>
         <v>21855</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>23413</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" ref="N21:O21" si="29">+N13+N17</f>
+        <f t="shared" ref="N21:O21" si="30">+N13+N17</f>
         <v>24113</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24561</v>
       </c>
       <c r="P21" s="21">
-        <f t="shared" ref="P21:Q21" si="30">+P13+P17</f>
+        <f t="shared" ref="P21:Q21" si="31">+P13+P17</f>
         <v>23983</v>
       </c>
       <c r="Q21" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23944</v>
       </c>
       <c r="R21" s="21">
-        <f t="shared" ref="R21:S21" si="31">+R13+R17</f>
+        <f t="shared" ref="R21:S21" si="32">+R13+R17</f>
         <v>24172</v>
       </c>
       <c r="S21" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>25344</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" ref="T21:U21" si="32">+T13+T17</f>
-        <v>25968</v>
+        <f t="shared" ref="T21" si="33">+T13+T17</f>
+        <v>25976</v>
       </c>
       <c r="U21" s="21">
-        <f t="shared" si="32"/>
-        <v>27169</v>
+        <f t="shared" ref="U21:W21" si="34">+U13+U17</f>
+        <v>26994</v>
       </c>
       <c r="V21" s="21">
+        <f t="shared" si="34"/>
         <v>27170</v>
       </c>
       <c r="W21" s="21">
+        <f t="shared" si="34"/>
         <v>26164</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" ref="B22:K22" si="33">(B6+B8)/B21</f>
+        <f t="shared" ref="B22:K22" si="35">(B6+B8)/B21</f>
         <v>0.469598786708948</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.58385832283354333</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.55899733748944735</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.536429348173735</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5721129915380786</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5445643360568827</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.66189506468615233</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.49779164949060717</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.63349666388657211</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.50706132714258079</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" ref="L22:M22" si="34">(L6+L8)/L21</f>
+        <f t="shared" ref="L22:M22" si="36">(L6+L8)/L21</f>
         <v>0.62315259665980327</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.54896852176141464</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" ref="N22:O22" si="35">(N6+N8)/N21</f>
+        <f t="shared" ref="N22:O22" si="37">(N6+N8)/N21</f>
         <v>0.71081988968606147</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.50755262407882418</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" ref="P22:Q22" si="36">(P6+P8)/P21</f>
+        <f t="shared" ref="P22:Q22" si="38">(P6+P8)/P21</f>
         <v>0.59146061793770588</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.51248747076511858</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" ref="R22:S22" si="37">(R6+R8)/R21</f>
+        <f t="shared" ref="R22:S22" si="39">(R6+R8)/R21</f>
         <v>0.55150587456561306</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.45860953282828282</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" ref="T22:U22" si="38">(T6+T8)/T21</f>
-        <v>0.51628927911275413</v>
+        <f t="shared" ref="T22" si="40">(T6+T8)/T21</f>
+        <v>0.55304896827841088</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="38"/>
-        <v>0.50104898965733002</v>
+        <f t="shared" ref="U22:W22" si="41">(U6+U8)/U21</f>
+        <v>0.50288953100689038</v>
       </c>
       <c r="V22" s="23">
-        <v>0.55642252484357746</v>
+        <f t="shared" si="41"/>
+        <v>0.56827383143172616</v>
       </c>
       <c r="W22" s="23">
+        <f t="shared" si="41"/>
         <v>0.58668399327319987</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11317,8 +11435,10 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -11327,183 +11447,187 @@
         <v>20814</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:K24" si="39">+C21+C9</f>
+        <f t="shared" ref="C24:K24" si="42">+C21+C9</f>
         <v>20787</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>21628</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22127</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22662</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22720</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>23198</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>24320</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>27008</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>28620</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" ref="L24:M24" si="40">+L21+L9</f>
+        <f t="shared" ref="L24:M24" si="43">+L21+L9</f>
         <v>29590</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>32265</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" ref="N24:O24" si="41">+N21+N9</f>
+        <f t="shared" ref="N24:O24" si="44">+N21+N9</f>
         <v>32804</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>33148</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" ref="P24:Q24" si="42">+P21+P9</f>
+        <f t="shared" ref="P24:Q24" si="45">+P21+P9</f>
         <v>32946</v>
       </c>
       <c r="Q24" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>33196</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:S24" si="43">+R21+R9</f>
+        <f t="shared" ref="R24:S24" si="46">+R21+R9</f>
         <v>33746</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>34571</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" ref="T24:U24" si="44">+T21+T9</f>
-        <v>35875</v>
+        <f t="shared" ref="T24" si="47">+T21+T9</f>
+        <v>35265</v>
       </c>
       <c r="U24" s="21">
-        <f t="shared" si="44"/>
-        <v>37050</v>
+        <f t="shared" ref="U24:W24" si="48">+U21+U9</f>
+        <v>37036</v>
       </c>
       <c r="V24" s="21">
-        <v>37750</v>
+        <f t="shared" si="48"/>
+        <v>37428</v>
       </c>
       <c r="W24" s="21">
+        <f t="shared" si="48"/>
         <v>36613</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" ref="B25:K25" si="45">+B5/B24</f>
+        <f t="shared" ref="B25:K25" si="49">+B5/B24</f>
         <v>0.63034496012299412</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.71400394477317553</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.68600887738117255</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.67248158358566457</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.69654046421322036</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.67860915492957752</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.75666005690145699</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.64934210526315794</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.73966972748815163</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.64388539482879104</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="L25:M25" si="46">+L5/L24</f>
+        <f t="shared" ref="L25:M25" si="50">+L5/L24</f>
         <v>0.72166272389320718</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.67271036727103672</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" ref="N25:O25" si="47">+N5/N24</f>
+        <f t="shared" ref="N25:O25" si="51">+N5/N24</f>
         <v>0.78743445921229116</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.63512127428502474</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" ref="P25:Q25" si="48">+P5/P24</f>
+        <f t="shared" ref="P25:Q25" si="52">+P5/P24</f>
         <v>0.70260426151884903</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.64836124834317388</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25:S25" si="49">+R5/R24</f>
+        <f t="shared" ref="R25:S25" si="53">+R5/R24</f>
         <v>0.67874711076868366</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.60310665008243902</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" ref="T25:U25" si="50">+T5/T24</f>
-        <v>0.64986759581881537</v>
+        <f t="shared" ref="T25" si="54">+T5/T24</f>
+        <v>0.67077839217354318</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="50"/>
-        <v>0.63411605937921722</v>
+        <f t="shared" ref="U25:W25" si="55">+U5/U24</f>
+        <v>0.63767685495193871</v>
       </c>
       <c r="V25" s="23">
-        <v>0.68074172185430459</v>
+        <f t="shared" si="55"/>
+        <v>0.6865982686758576</v>
       </c>
       <c r="W25" s="23">
+        <f t="shared" si="55"/>
         <v>0.70464042826318518</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
@@ -11530,7 +11654,7 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>50</v>
       </c>
@@ -11545,7 +11669,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>51</v>
       </c>
@@ -11560,7 +11684,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>47</v>
       </c>
@@ -11575,7 +11699,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>48</v>
       </c>
@@ -11590,7 +11714,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -11603,7 +11727,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>9</v>
       </c>
@@ -11633,23 +11757,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -11718,7 +11842,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -11779,7 +11903,7 @@
         <v>48337</v>
       </c>
       <c r="P5" s="21">
-        <f t="shared" ref="P5:U5" si="3">+P6+P7+P11</f>
+        <f t="shared" ref="P5:W5" si="3">+P6+P7+P11</f>
         <v>49623</v>
       </c>
       <c r="Q5" s="21">
@@ -11796,20 +11920,22 @@
       </c>
       <c r="T5" s="21">
         <f t="shared" si="3"/>
-        <v>56900</v>
+        <v>57074</v>
       </c>
       <c r="U5" s="21">
         <f t="shared" si="3"/>
-        <v>48281</v>
+        <v>48325</v>
       </c>
       <c r="V5" s="21">
-        <v>46798</v>
+        <f t="shared" si="3"/>
+        <v>46797</v>
       </c>
       <c r="W5" s="21">
+        <f t="shared" si="3"/>
         <v>49402</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -11868,19 +11994,19 @@
         <v>21484</v>
       </c>
       <c r="T6" s="21">
-        <v>24290</v>
+        <v>24464</v>
       </c>
       <c r="U6" s="21">
-        <v>19922</v>
+        <v>19966</v>
       </c>
       <c r="V6" s="21">
-        <v>18557</v>
+        <v>18556</v>
       </c>
       <c r="W6" s="21">
         <v>20726</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -11951,7 +12077,7 @@
         <v>23726</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -12010,19 +12136,19 @@
         <v>10687</v>
       </c>
       <c r="T8" s="21">
-        <v>14794</v>
+        <v>14555</v>
       </c>
       <c r="U8" s="21">
         <v>12977</v>
       </c>
       <c r="V8" s="21">
-        <v>12453</v>
+        <v>12724</v>
       </c>
       <c r="W8" s="21">
         <v>12129</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -12099,21 +12225,23 @@
         <v>11706</v>
       </c>
       <c r="T9" s="21">
-        <f t="shared" ref="T9:U9" si="9">+T7-T8</f>
-        <v>11991</v>
+        <f t="shared" ref="T9:W9" si="9">+T7-T8</f>
+        <v>12230</v>
       </c>
       <c r="U9" s="21">
         <f t="shared" si="9"/>
         <v>11834</v>
       </c>
       <c r="V9" s="21">
-        <v>11796</v>
+        <f t="shared" si="9"/>
+        <v>11525</v>
       </c>
       <c r="W9" s="21">
+        <f t="shared" si="9"/>
         <v>11597</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -12184,7 +12312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -12255,7 +12383,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12279,7 +12407,7 @@
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
     </row>
-    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -12341,16 +12469,16 @@
         <v>40391</v>
       </c>
       <c r="U13" s="21">
-        <v>37298</v>
+        <v>36729</v>
       </c>
       <c r="V13" s="21">
-        <v>37154</v>
+        <v>37047</v>
       </c>
       <c r="W13" s="21">
         <v>37402</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -12412,16 +12540,16 @@
         <v>34200</v>
       </c>
       <c r="U14" s="21">
-        <v>31722</v>
+        <v>31142</v>
       </c>
       <c r="V14" s="21">
-        <v>32186</v>
+        <v>32126</v>
       </c>
       <c r="W14" s="21">
         <v>31309</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -12482,7 +12610,7 @@
         <v>0.61197150166423675</v>
       </c>
       <c r="P15" s="23">
-        <f t="shared" ref="P15:U15" si="13">+P6/P14</f>
+        <f t="shared" ref="P15:W15" si="13">+P6/P14</f>
         <v>0.60815364804515193</v>
       </c>
       <c r="Q15" s="23">
@@ -12499,20 +12627,22 @@
       </c>
       <c r="T15" s="23">
         <f t="shared" si="13"/>
-        <v>0.710233918128655</v>
+        <v>0.71532163742690058</v>
       </c>
       <c r="U15" s="23">
         <f t="shared" si="13"/>
-        <v>0.62801840993632174</v>
+        <v>0.64112773746066409</v>
       </c>
       <c r="V15" s="23">
-        <v>0.57655502392344493</v>
+        <f t="shared" si="13"/>
+        <v>0.5776006972545602</v>
       </c>
       <c r="W15" s="23">
+        <f t="shared" si="13"/>
         <v>0.66198217764859946</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -12536,7 +12666,7 @@
       <c r="U16" s="4"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -12595,19 +12725,19 @@
         <v>35153</v>
       </c>
       <c r="T17" s="21">
-        <v>33622</v>
+        <v>31157</v>
       </c>
       <c r="U17" s="21">
         <v>29914</v>
       </c>
       <c r="V17" s="21">
-        <v>29937</v>
+        <v>29023</v>
       </c>
       <c r="W17" s="21">
         <v>29442</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -12666,19 +12796,19 @@
         <v>27353</v>
       </c>
       <c r="T18" s="21">
-        <v>26732</v>
+        <v>24791</v>
       </c>
       <c r="U18" s="21">
         <v>24806</v>
       </c>
       <c r="V18" s="21">
-        <v>25673</v>
+        <v>24904</v>
       </c>
       <c r="W18" s="21">
         <v>24519</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -12755,21 +12885,23 @@
         <v>0.39070668665228675</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" ref="T19:U19" si="18">+T8/T18</f>
-        <v>0.55341912314828667</v>
+        <f t="shared" ref="T19:W19" si="18">+T8/T18</f>
+        <v>0.58710822475898516</v>
       </c>
       <c r="U19" s="23">
         <f t="shared" si="18"/>
         <v>0.52313956300894948</v>
       </c>
       <c r="V19" s="23">
-        <v>0.48506212752697386</v>
+        <f t="shared" si="18"/>
+        <v>0.51092194025056215</v>
       </c>
       <c r="W19" s="23">
+        <f t="shared" si="18"/>
         <v>0.49467759696561853</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -12792,7 +12924,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -12869,21 +13001,23 @@
         <v>76087</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" ref="T21:U21" si="25">+T13+T17</f>
-        <v>74013</v>
+        <f t="shared" ref="T21" si="25">+T13+T17</f>
+        <v>71548</v>
       </c>
       <c r="U21" s="21">
-        <f t="shared" si="25"/>
-        <v>67212</v>
+        <f t="shared" ref="U21:W21" si="26">+U13+U17</f>
+        <v>66643</v>
       </c>
       <c r="V21" s="21">
-        <v>67091</v>
+        <f t="shared" si="26"/>
+        <v>66070</v>
       </c>
       <c r="W21" s="21">
+        <f t="shared" si="26"/>
         <v>66844</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -12892,180 +13026,184 @@
         <v>64548</v>
       </c>
       <c r="C22" s="21">
-        <f t="shared" ref="C22:I22" si="26">+C14+C18</f>
+        <f t="shared" ref="C22:I22" si="27">+C14+C18</f>
         <v>64323</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>62934</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>63140</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>63450</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>63374</v>
       </c>
       <c r="H22" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>62471</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>62655</v>
       </c>
       <c r="J22" s="21">
-        <f t="shared" ref="J22:K22" si="27">+J14+J18</f>
+        <f t="shared" ref="J22:K22" si="28">+J14+J18</f>
         <v>64192</v>
       </c>
       <c r="K22" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>64031</v>
       </c>
       <c r="L22" s="21">
-        <f t="shared" ref="L22:M22" si="28">+L14+L18</f>
+        <f t="shared" ref="L22:M22" si="29">+L14+L18</f>
         <v>64877</v>
       </c>
       <c r="M22" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>65251</v>
       </c>
       <c r="N22" s="21">
-        <f t="shared" ref="N22:O22" si="29">+N14+N18</f>
+        <f t="shared" ref="N22:O22" si="30">+N14+N18</f>
         <v>63874</v>
       </c>
       <c r="O22" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>64064</v>
       </c>
       <c r="P22" s="21">
-        <f t="shared" ref="P22:Q22" si="30">+P14+P18</f>
+        <f t="shared" ref="P22:Q22" si="31">+P14+P18</f>
         <v>63955</v>
       </c>
       <c r="Q22" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>63022</v>
       </c>
       <c r="R22" s="21">
-        <f t="shared" ref="R22:S22" si="31">+R14+R18</f>
+        <f t="shared" ref="R22:S22" si="32">+R14+R18</f>
         <v>63440</v>
       </c>
       <c r="S22" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>62419</v>
       </c>
       <c r="T22" s="21">
-        <f t="shared" ref="T22:U22" si="32">+T14+T18</f>
-        <v>60932</v>
+        <f t="shared" ref="T22" si="33">+T14+T18</f>
+        <v>58991</v>
       </c>
       <c r="U22" s="21">
-        <f t="shared" si="32"/>
-        <v>56528</v>
+        <f t="shared" ref="U22:W22" si="34">+U14+U18</f>
+        <v>55948</v>
       </c>
       <c r="V22" s="21">
-        <v>57859</v>
+        <f t="shared" si="34"/>
+        <v>57030</v>
       </c>
       <c r="W22" s="21">
+        <f t="shared" si="34"/>
         <v>55828</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="23">
-        <f t="shared" ref="B23:K23" si="33">(B6+B8)/B22</f>
+        <f t="shared" ref="B23:K23" si="35">(B6+B8)/B22</f>
         <v>0.53487327260333395</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.48663775010493915</v>
       </c>
       <c r="D23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.63598372898592181</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.58642698764649981</v>
       </c>
       <c r="F23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.60567375886524821</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.5789756051377537</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.54561316450833186</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.59781342271167504</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.64375623130608173</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.53528759507113743</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" ref="L23:M23" si="34">(L6+L8)/L22</f>
+        <f t="shared" ref="L23:M23" si="36">(L6+L8)/L22</f>
         <v>0.56386700988023486</v>
       </c>
       <c r="M23" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.51327948996950234</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" ref="N23:O23" si="35">(N6+N8)/N22</f>
+        <f t="shared" ref="N23:O23" si="37">(N6+N8)/N22</f>
         <v>0.61865547797225784</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.51201923076923073</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" ref="P23:Q23" si="36">(P6+P8)/P22</f>
+        <f t="shared" ref="P23:Q23" si="38">(P6+P8)/P22</f>
         <v>0.509217418497381</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.52597505632953567</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" ref="R23:S23" si="37">(R6+R8)/R22</f>
+        <f t="shared" ref="R23:S23" si="39">(R6+R8)/R22</f>
         <v>0.52413303909205544</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.51540396353674367</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" ref="T23:U23" si="38">(T6+T8)/T22</f>
-        <v>0.64143635528129717</v>
+        <f t="shared" ref="T23" si="40">(T6+T8)/T22</f>
+        <v>0.66143988065976167</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="38"/>
-        <v>0.5819947636569488</v>
+        <f t="shared" ref="U23:W23" si="41">(U6+U8)/U22</f>
+        <v>0.58881461356974329</v>
       </c>
       <c r="V23" s="23">
-        <v>0.53595810504847996</v>
+        <f t="shared" si="41"/>
+        <v>0.54848325442749435</v>
       </c>
       <c r="W23" s="23">
+        <f t="shared" si="41"/>
         <v>0.58850397649924768</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -13087,193 +13225,199 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="21">
-        <f t="shared" ref="B25:K25" si="39">+B22+B9</f>
+        <f t="shared" ref="B25:K25" si="42">+B22+B9</f>
         <v>77629</v>
       </c>
       <c r="C25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>77058</v>
       </c>
       <c r="D25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75850</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75739</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>76097</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75921</v>
       </c>
       <c r="H25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75492</v>
       </c>
       <c r="I25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>75622</v>
       </c>
       <c r="J25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>77311</v>
       </c>
       <c r="K25" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>76648</v>
       </c>
       <c r="L25" s="21">
-        <f t="shared" ref="L25:M25" si="40">+L22+L9</f>
+        <f t="shared" ref="L25:M25" si="43">+L22+L9</f>
         <v>77617</v>
       </c>
       <c r="M25" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>77535</v>
       </c>
       <c r="N25" s="21">
-        <f t="shared" ref="N25:O25" si="41">+N22+N9</f>
+        <f t="shared" ref="N25:O25" si="44">+N22+N9</f>
         <v>76379</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>76011</v>
       </c>
       <c r="P25" s="21">
-        <f t="shared" ref="P25:Q25" si="42">+P22+P9</f>
+        <f t="shared" ref="P25:Q25" si="45">+P22+P9</f>
         <v>76053</v>
       </c>
       <c r="Q25" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>75107</v>
       </c>
       <c r="R25" s="21">
-        <f t="shared" ref="R25:S25" si="43">+R22+R9</f>
+        <f t="shared" ref="R25:S25" si="46">+R22+R9</f>
         <v>75119</v>
       </c>
       <c r="S25" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>74125</v>
       </c>
       <c r="T25" s="21">
-        <f t="shared" ref="T25:U25" si="44">+T22+T9</f>
-        <v>72923</v>
+        <f t="shared" ref="T25" si="47">+T22+T9</f>
+        <v>71221</v>
       </c>
       <c r="U25" s="21">
-        <f t="shared" si="44"/>
-        <v>68362</v>
+        <f t="shared" ref="U25:W25" si="48">+U22+U9</f>
+        <v>67782</v>
       </c>
       <c r="V25" s="21">
-        <v>69655</v>
+        <f t="shared" si="48"/>
+        <v>68555</v>
       </c>
       <c r="W25" s="21">
+        <f t="shared" si="48"/>
         <v>67425</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="23">
-        <f t="shared" ref="B26:K26" si="45">+(B5-B11)/B25</f>
+        <f t="shared" ref="B26:K26" si="49">+(B5-B11)/B25</f>
         <v>0.61325020288809595</v>
       </c>
       <c r="C26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.57147862648913805</v>
       </c>
       <c r="D26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.6979696769940672</v>
       </c>
       <c r="E26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.6552238608906904</v>
       </c>
       <c r="F26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.67120911468257616</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.64855573556723434</v>
       </c>
       <c r="H26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.62398664759179778</v>
       </c>
       <c r="I26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.66677686387559176</v>
       </c>
       <c r="J26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.70420768066639938</v>
       </c>
       <c r="K26" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.61178373864941027</v>
       </c>
       <c r="L26" s="23">
-        <f t="shared" ref="L26:M26" si="46">+(L5-L11)/L25</f>
+        <f t="shared" ref="L26:M26" si="50">+(L5-L11)/L25</f>
         <v>0.63545357331512431</v>
       </c>
       <c r="M26" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.59039143612562073</v>
       </c>
       <c r="N26" s="23">
-        <f t="shared" ref="N26:O26" si="47">+(N5-N11)/N25</f>
+        <f t="shared" ref="N26:O26" si="51">+(N5-N11)/N25</f>
         <v>0.68109035206012125</v>
       </c>
       <c r="O26" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.58871742247832548</v>
       </c>
       <c r="P26" s="23">
-        <f t="shared" ref="P26:Q26" si="48">+(P5-P11)/P25</f>
+        <f t="shared" ref="P26:Q26" si="52">+(P5-P11)/P25</f>
         <v>0.58728781244658335</v>
       </c>
       <c r="Q26" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.60224746028998632</v>
       </c>
       <c r="R26" s="23">
-        <f t="shared" ref="R26:S26" si="49">+(R5-R11)/R25</f>
+        <f t="shared" ref="R26:S26" si="53">+(R5-R11)/R25</f>
         <v>0.59811765332339351</v>
       </c>
       <c r="S26" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.59193254637436765</v>
       </c>
       <c r="T26" s="23">
-        <f t="shared" ref="T26:U26" si="50">+(T5-T11)/T25</f>
-        <v>0.70039630843492451</v>
+        <f t="shared" ref="T26" si="54">+(T5-T11)/T25</f>
+        <v>0.71957709102652312</v>
       </c>
       <c r="U26" s="23">
-        <f t="shared" si="50"/>
-        <v>0.65435475849155966</v>
+        <f t="shared" ref="U26:W26" si="55">+(U5-U11)/U25</f>
+        <v>0.66060310997019855</v>
       </c>
       <c r="V26" s="23">
-        <v>0.61454310530471612</v>
+        <f t="shared" si="55"/>
+        <v>0.62438917657355408</v>
       </c>
       <c r="W26" s="23">
+        <f t="shared" si="55"/>
         <v>0.65928068223952541</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>49</v>
       </c>
@@ -13300,7 +13444,7 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>50</v>
       </c>
@@ -13315,7 +13459,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>51</v>
       </c>
@@ -13330,7 +13474,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>52</v>
       </c>
@@ -13345,7 +13489,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
@@ -13360,7 +13504,7 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13373,7 +13517,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>9</v>
       </c>

--- a/data-raw/crudeoilstorage.xlsx
+++ b/data-raw/crudeoilstorage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eiagov-my.sharepoint.com/personal/molly_sellers_eia_gov/Documents/Documents/M_docs/work_2023/Pet_Storage_Cap_2022_PSA_update/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2023 Storage Capacity\PSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41AB6B3-8DEF-44E9-89E2-CBB64BB856D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F811A09-912C-4DE2-9DD3-C727F52EB183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="5" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="57">
   <si>
     <t>(thousand barrels except where noted)</t>
   </si>
@@ -1943,19 +1943,17 @@
   </sheetPr>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.875" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="68.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" customWidth="1"/>
     <col min="3" max="7" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1970,7 +1968,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1983,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1998,7 +1996,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -2066,8 +2064,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2157,12 +2158,15 @@
       </c>
       <c r="W5" s="7">
         <f t="shared" si="5"/>
-        <v>465437</v>
-      </c>
-      <c r="X5" s="1"/>
+        <v>465219</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" ref="X5" si="6">+X6+X7+X11</f>
+        <v>447206</v>
+      </c>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2246,12 +2250,15 @@
       </c>
       <c r="W6" s="7">
         <f>'PADD 1'!W6+'PADD 2'!W6+'PADD 3'!W6+'PADD 4'!W6+'PADD 5'!W6</f>
-        <v>86779</v>
-      </c>
-      <c r="X6" s="1"/>
+        <v>86922</v>
+      </c>
+      <c r="X6" s="7">
+        <f>'PADD 1'!X6+'PADD 2'!X6+'PADD 3'!X6+'PADD 4'!X6+'PADD 5'!X6</f>
+        <v>88593</v>
+      </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -2335,12 +2342,15 @@
       </c>
       <c r="W7" s="7">
         <f>'PADD 1'!W7+'PADD 2'!W7+'PADD 3'!W7+'PADD 4'!W7+'PADD 5'!W7</f>
-        <v>373708</v>
-      </c>
-      <c r="X7" s="1"/>
+        <v>373347</v>
+      </c>
+      <c r="X7" s="7">
+        <f>'PADD 1'!X7+'PADD 2'!X7+'PADD 3'!X7+'PADD 4'!X7+'PADD 5'!X7</f>
+        <v>354401</v>
+      </c>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2424,12 +2434,15 @@
       </c>
       <c r="W8" s="7">
         <f>'PADD 1'!W8+'PADD 2'!W8+'PADD 3'!W8+'PADD 4'!W8+'PADD 5'!W8</f>
-        <v>239622</v>
-      </c>
-      <c r="X8" s="1"/>
+        <v>239318</v>
+      </c>
+      <c r="X8" s="7">
+        <f>'PADD 1'!X8+'PADD 2'!X8+'PADD 3'!X8+'PADD 4'!X8+'PADD 5'!X8</f>
+        <v>218659</v>
+      </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2438,93 +2451,96 @@
         <v>75419</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:H9" si="6">+C7-C8</f>
+        <f t="shared" ref="C9:H9" si="7">+C7-C8</f>
         <v>75543</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77569</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82649</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80846</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81252</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84564</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" ref="I9:J9" si="7">+I7-I8</f>
+        <f t="shared" ref="I9:J9" si="8">+I7-I8</f>
         <v>89290</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>96929</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" ref="K9:L9" si="8">+K7-K8</f>
+        <f t="shared" ref="K9:L9" si="9">+K7-K8</f>
         <v>98694</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>107165</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:N9" si="9">+M7-M8</f>
+        <f t="shared" ref="M9:N9" si="10">+M7-M8</f>
         <v>106875</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>107264</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" ref="O9:P9" si="10">+O7-O8</f>
+        <f t="shared" ref="O9:P9" si="11">+O7-O8</f>
         <v>114515</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>113143</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" ref="Q9:R9" si="11">+Q7-Q8</f>
+        <f t="shared" ref="Q9:R9" si="12">+Q7-Q8</f>
         <v>114632</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>123370</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" ref="S9:T9" si="12">+S7-S8</f>
+        <f t="shared" ref="S9:T9" si="13">+S7-S8</f>
         <v>122199</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>121741</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" ref="U9:W9" si="13">+U7-U8</f>
+        <f t="shared" ref="U9:W9" si="14">+U7-U8</f>
         <v>130999</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>135389</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="13"/>
-        <v>134086</v>
-      </c>
-      <c r="X9" s="1"/>
+        <f t="shared" si="14"/>
+        <v>134029</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" ref="X9" si="15">+X7-X8</f>
+        <v>135742</v>
+      </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2594,10 +2610,12 @@
       <c r="W10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="1"/>
+      <c r="X10" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -2683,10 +2701,13 @@
         <f>'PADD 5'!W11</f>
         <v>4950</v>
       </c>
-      <c r="X11" s="1"/>
+      <c r="X11" s="7">
+        <f>'PADD 5'!X11</f>
+        <v>4212</v>
+      </c>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2710,10 +2731,10 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2797,12 +2818,15 @@
       </c>
       <c r="W13" s="7">
         <f>'PADD 1'!W12+'PADD 2'!W12+'PADD 3'!W12+'PADD 4'!W12+'PADD 5'!W13</f>
-        <v>164913</v>
-      </c>
-      <c r="X13" s="1"/>
+        <v>165289</v>
+      </c>
+      <c r="X13" s="7">
+        <f>'PADD 1'!X12+'PADD 2'!X12+'PADD 3'!X12+'PADD 4'!X12+'PADD 5'!X13</f>
+        <v>164302</v>
+      </c>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2886,107 +2910,113 @@
       </c>
       <c r="W14" s="7">
         <f>'PADD 1'!W13+'PADD 2'!W13+'PADD 3'!W13+'PADD 4'!W13+'PADD 5'!W14</f>
-        <v>134057</v>
-      </c>
-      <c r="X14" s="1"/>
+        <v>135340</v>
+      </c>
+      <c r="X14" s="7">
+        <f>'PADD 1'!X13+'PADD 2'!X13+'PADD 3'!X13+'PADD 4'!X13+'PADD 5'!X14</f>
+        <v>135125</v>
+      </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" ref="B15:L15" si="14">+B6/B14</f>
+        <f t="shared" ref="B15:L15" si="16">+B6/B14</f>
         <v>0.633757510773028</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.59585276650001673</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.65122661968013007</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.61009137650851164</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.66877486623679516</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.62424946869605291</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.64254428519945661</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.62563991293793775</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.69215616882900088</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.67528170924562136</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.68788721666451313</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" ref="M15:N15" si="15">+M6/M14</f>
+        <f t="shared" ref="M15:N15" si="17">+M6/M14</f>
         <v>0.6663463750659756</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.71196977829717556</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" ref="O15:P15" si="16">+O6/O14</f>
+        <f t="shared" ref="O15:P15" si="18">+O6/O14</f>
         <v>0.66973379028628799</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.66355029338096272</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" ref="Q15:R15" si="17">+Q6/Q14</f>
+        <f t="shared" ref="Q15:R15" si="19">+Q6/Q14</f>
         <v>0.69121934964316456</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.65653430153198034</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" ref="S15:T15" si="18">+S6/S14</f>
+        <f t="shared" ref="S15:T15" si="20">+S6/S14</f>
         <v>0.62060924267072548</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.68594336523204036</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" ref="U15:W15" si="19">+U6/U14</f>
+        <f t="shared" ref="U15:W15" si="21">+U6/U14</f>
         <v>0.67671915178933251</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.61839636313709934</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="19"/>
-        <v>0.64732912119471564</v>
-      </c>
-      <c r="X15" s="1"/>
+        <f t="shared" si="21"/>
+        <v>0.6422491502881631</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15" si="22">+X6/X14</f>
+        <v>0.65563737280296019</v>
+      </c>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3010,10 +3040,10 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="1"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3097,12 +3127,15 @@
       </c>
       <c r="W17" s="7">
         <f>'PADD 1'!W16+'PADD 2'!W16+'PADD 3'!W16+'PADD 4'!W16+'PADD 5'!W17</f>
-        <v>667513</v>
-      </c>
-      <c r="X17" s="1"/>
+        <v>666933</v>
+      </c>
+      <c r="X17" s="7">
+        <f>'PADD 1'!X16+'PADD 2'!X16+'PADD 3'!X16+'PADD 4'!X16+'PADD 5'!X17</f>
+        <v>667240</v>
+      </c>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -3186,107 +3219,113 @@
       </c>
       <c r="W18" s="7">
         <f>'PADD 1'!W17+'PADD 2'!W17+'PADD 3'!W17+'PADD 4'!W17+'PADD 5'!W18</f>
-        <v>546727</v>
-      </c>
-      <c r="X18" s="1"/>
+        <v>546255</v>
+      </c>
+      <c r="X18" s="7">
+        <f>'PADD 1'!X17+'PADD 2'!X17+'PADD 3'!X17+'PADD 4'!X17+'PADD 5'!X18</f>
+        <v>548623</v>
+      </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" ref="B19:L19" si="20">B8/B18</f>
+        <f t="shared" ref="B19:L19" si="23">B8/B18</f>
         <v>0.53809265085288371</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.44239288181351516</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.5135790421176093</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.48905287034296413</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.51965150603272858</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.47392657369100671</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.47489922947499869</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.39439820957128879</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.59452434930191644</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.54489478559284532</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.66173019028685032</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" ref="M19:N19" si="21">M8/M18</f>
+        <f t="shared" ref="M19:N19" si="24">M8/M18</f>
         <v>0.57453107627124222</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.68661127755212104</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" ref="O19:P19" si="22">O8/O18</f>
+        <f t="shared" ref="O19:P19" si="25">O8/O18</f>
         <v>0.53117597998331945</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.44372724853143658</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" ref="Q19:R19" si="23">Q8/Q18</f>
+        <f t="shared" ref="Q19:R19" si="26">Q8/Q18</f>
         <v>0.41061085271317832</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.47730026845990603</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" ref="S19:T19" si="24">S8/S18</f>
+        <f t="shared" ref="S19:T19" si="27">S8/S18</f>
         <v>0.41627344376928915</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.48938401048492791</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" ref="U19:W19" si="25">U8/U18</f>
+        <f t="shared" ref="U19:W19" si="28">U8/U18</f>
         <v>0.50332453960550372</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.35725177609003894</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="25"/>
-        <v>0.43828455518019049</v>
-      </c>
-      <c r="X19" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0.43810674501835223</v>
+      </c>
+      <c r="X19" s="8">
+        <f t="shared" ref="X19" si="29">X8/X18</f>
+        <v>0.3985596666563378</v>
+      </c>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3310,10 +3349,10 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="1"/>
+      <c r="X20" s="6"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3322,93 +3361,96 @@
         <v>541378</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" ref="C21:H21" si="26">+C13+C17</f>
+        <f t="shared" ref="C21:H21" si="30">+C13+C17</f>
         <v>555844</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>570669</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>585093</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>589948</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>605466</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>615044</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" ref="I21:J21" si="27">+I13+I17</f>
+        <f t="shared" ref="I21:J21" si="31">+I13+I17</f>
         <v>632622</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>671819</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" ref="K21:L21" si="28">+K13+K17</f>
+        <f t="shared" ref="K21:L21" si="32">+K13+K17</f>
         <v>688166</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>712368</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" ref="M21:N21" si="29">+M13+M17</f>
+        <f t="shared" ref="M21:N21" si="33">+M13+M17</f>
         <v>732699</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>742365</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" ref="O21:P21" si="30">+O13+O17</f>
+        <f t="shared" ref="O21:P21" si="34">+O13+O17</f>
         <v>751806</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>758179</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" ref="Q21:R21" si="31">+Q13+Q17</f>
+        <f t="shared" ref="Q21:R21" si="35">+Q13+Q17</f>
         <v>766281</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>759823</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" ref="S21:T21" si="32">+S13+S17</f>
+        <f t="shared" ref="S21:T21" si="36">+S13+S17</f>
         <v>782910</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>810405</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" ref="U21:W21" si="33">+U13+U17</f>
+        <f t="shared" ref="U21:W21" si="37">+U13+U17</f>
         <v>827207</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>824430</v>
       </c>
       <c r="W21" s="7">
-        <f t="shared" si="33"/>
-        <v>832426</v>
-      </c>
-      <c r="X21" s="1"/>
+        <f t="shared" si="37"/>
+        <v>832222</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" ref="X21" si="38">+X13+X17</f>
+        <v>831542</v>
+      </c>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -3417,188 +3459,194 @@
         <v>455656</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" ref="C22:H22" si="34">+C14+C18</f>
+        <f t="shared" ref="C22:H22" si="39">+C14+C18</f>
         <v>464601</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>477517</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>491379</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>494710</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>502408</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>506253</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" ref="I22:J22" si="35">+I14+I18</f>
+        <f t="shared" ref="I22:J22" si="40">+I14+I18</f>
         <v>520576</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>553366</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" ref="K22:L22" si="36">+K14+K18</f>
+        <f t="shared" ref="K22:L22" si="41">+K14+K18</f>
         <v>564620</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>587168</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" ref="M22:N22" si="37">+M14+M18</f>
+        <f t="shared" ref="M22:N22" si="42">+M14+M18</f>
         <v>603773</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>618150</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" ref="O22:P22" si="38">+O14+O18</f>
+        <f t="shared" ref="O22:P22" si="43">+O14+O18</f>
         <v>624035</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>620496</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" ref="Q22:R22" si="39">+Q14+Q18</f>
+        <f t="shared" ref="Q22:R22" si="44">+Q14+Q18</f>
         <v>627794</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>638624</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" ref="S22:T22" si="40">+S14+S18</f>
+        <f t="shared" ref="S22:T22" si="45">+S14+S18</f>
         <v>652904</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>669527</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" ref="U22:W22" si="41">+U14+U18</f>
+        <f t="shared" ref="U22:W22" si="46">+U14+U18</f>
         <v>684218</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>673445</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="41"/>
-        <v>680784</v>
-      </c>
-      <c r="X22" s="1"/>
+        <f t="shared" si="46"/>
+        <v>681595</v>
+      </c>
+      <c r="X22" s="7">
+        <f t="shared" ref="X22" si="47">+X14+X18</f>
+        <v>683748</v>
+      </c>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:L23" si="42">(B6+B8)/B22</f>
+        <f t="shared" ref="B23:L23" si="48">(B6+B8)/B22</f>
         <v>0.56922546833576204</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.49161323372097776</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.55611423258229553</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.52603794626958011</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.56359483333670235</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.51743005684622856</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.52268134707349878</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.45990979223014505</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.62094707661836834</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.57979526052920549</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.66828062837211832</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" ref="M23:N23" si="43">(M6+M8)/M22</f>
+        <f t="shared" ref="M23:N23" si="49">(M6+M8)/M22</f>
         <v>0.59700417209779177</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.69264903340613115</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" ref="O23:P23" si="44">(O6+O8)/O22</f>
+        <f t="shared" ref="O23:P23" si="50">(O6+O8)/O22</f>
         <v>0.5632456512855849</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0.49450439648281375</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" ref="Q23:R23" si="45">(Q6+Q8)/Q22</f>
+        <f t="shared" ref="Q23:R23" si="51">(Q6+Q8)/Q22</f>
         <v>0.4749949824305425</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.51780546925890669</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" ref="S23:T23" si="46">(S6+S8)/S22</f>
+        <f t="shared" ref="S23:T23" si="52">(S6+S8)/S22</f>
         <v>0.46109841569357823</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.53138260294207706</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" ref="U23:W23" si="47">(U6+U8)/U22</f>
+        <f t="shared" ref="U23:W23" si="53">(U6+U8)/U22</f>
         <v>0.53771897260814538</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.40808974749237131</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="47"/>
-        <v>0.47944869444640298</v>
-      </c>
-      <c r="X23" s="1"/>
+        <f t="shared" si="53"/>
+        <v>0.47864200881755292</v>
+      </c>
+      <c r="X23" s="8">
+        <f t="shared" ref="X23" si="54">(X6+X8)/X22</f>
+        <v>0.44936438570935489</v>
+      </c>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3622,200 +3670,206 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="1"/>
+      <c r="X24" s="6"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" ref="B25:L25" si="48">B22+B9</f>
+        <f t="shared" ref="B25:L25" si="55">B22+B9</f>
         <v>531075</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>540144</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>555086</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>574028</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>575556</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>583660</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>590817</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>609866</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>650295</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>663314</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>694333</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" ref="M25:N25" si="49">M22+M9</f>
+        <f t="shared" ref="M25:N25" si="56">M22+M9</f>
         <v>710648</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>725414</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" ref="O25:P25" si="50">O22+O9</f>
+        <f t="shared" ref="O25:P25" si="57">O22+O9</f>
         <v>738550</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>733639</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" ref="Q25:R25" si="51">Q22+Q9</f>
+        <f t="shared" ref="Q25:R25" si="58">Q22+Q9</f>
         <v>742426</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>761994</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" ref="S25:T25" si="52">S22+S9</f>
+        <f t="shared" ref="S25:T25" si="59">S22+S9</f>
         <v>775103</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>791268</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" ref="U25:W25" si="53">U22+U9</f>
+        <f t="shared" ref="U25:W25" si="60">U22+U9</f>
         <v>815217</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>808834</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="53"/>
-        <v>814870</v>
-      </c>
-      <c r="X25" s="1"/>
+        <f t="shared" si="60"/>
+        <v>815624</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" ref="X25" si="61">X22+X9</f>
+        <v>819490</v>
+      </c>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8">
-        <f t="shared" ref="B26:L26" si="54">+(B5-B11)/B25</f>
+        <f t="shared" ref="B26:L26" si="62">+(B5-B11)/B25</f>
         <v>0.63040060255142871</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.56271475754613587</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.61814385518640358</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.59427937313162427</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.62489488425105466</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.58460919028201352</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.59100025896343533</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.53898397352861116</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.6774463897154368</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.64231721326551228</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.71947898198702931</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" ref="M26:N26" si="55">+(M5-M11)/M25</f>
+        <f t="shared" ref="M26:N26" si="63">+(M5-M11)/M25</f>
         <v>0.65761108171696814</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>0.73809576324691828</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" ref="O26:P26" si="56">+(O5-O11)/O25</f>
+        <f t="shared" ref="O26:P26" si="64">+(O5-O11)/O25</f>
         <v>0.63096608218807126</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0.572462750753436</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" ref="Q26:R26" si="57">+(Q5-Q11)/Q25</f>
+        <f t="shared" ref="Q26:R26" si="65">+(Q5-Q11)/Q25</f>
         <v>0.556056765253372</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.59587477066748562</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" ref="S26:T26" si="58">+(S5-S11)/S25</f>
+        <f t="shared" ref="S26:T26" si="66">+(S5-S11)/S25</f>
         <v>0.54605903989534299</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0.60348200609654379</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" ref="U26:W26" si="59">+(U5-U11)/U25</f>
+        <f t="shared" ref="U26:W26" si="67">+(U5-U11)/U25</f>
         <v>0.61200392042854845</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.50716834356617058</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" si="59"/>
-        <v>0.56510486335243659</v>
-      </c>
-      <c r="X26" s="1"/>
+        <f t="shared" si="67"/>
+        <v>0.56431517463929459</v>
+      </c>
+      <c r="X26" s="8">
+        <f t="shared" ref="X26" si="68">+(X5-X11)/X25</f>
+        <v>0.54057279527511015</v>
+      </c>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3829,7 +3883,7 @@
       <c r="K27" s="2"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
@@ -3855,8 +3909,9 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -3872,7 +3927,7 @@
       <c r="K29" s="16"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -3888,7 +3943,7 @@
       <c r="K30" s="16"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>52</v>
       </c>
@@ -3904,7 +3959,7 @@
       <c r="K31" s="29"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
@@ -3919,7 +3974,7 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -3932,7 +3987,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>9</v>
       </c>
@@ -3947,7 +4002,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3971,32 +4026,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -4064,8 +4119,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4154,11 +4212,13 @@
         <v>6984</v>
       </c>
       <c r="W5" s="21">
-        <f t="shared" si="2"/>
         <v>7033</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X5" s="21">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -4228,8 +4288,11 @@
       <c r="W6" s="21">
         <v>5434</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X6" s="21">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -4299,8 +4362,11 @@
       <c r="W7" s="21">
         <v>1599</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X7" s="21">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4370,8 +4436,11 @@
       <c r="W8" s="21">
         <v>1313</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X8" s="21">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -4460,11 +4529,13 @@
         <v>285</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="7"/>
         <v>286</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X9" s="21">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -4534,8 +4605,11 @@
       <c r="W10" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X10" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4558,7 +4632,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -4628,8 +4702,11 @@
       <c r="W12" s="21">
         <v>11313</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X12" s="21">
+        <v>12576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4699,8 +4776,11 @@
       <c r="W13" s="21">
         <v>8862</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X13" s="21">
+        <v>9476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4789,11 +4869,13 @@
         <v>0.65546418782028359</v>
       </c>
       <c r="W14" s="23">
-        <f t="shared" si="10"/>
         <v>0.61317986910403977</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X14" s="23">
+        <v>0.78039257070493884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4816,7 +4898,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -4886,8 +4968,11 @@
       <c r="W16" s="21">
         <v>11822</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X16" s="21">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -4957,8 +5042,11 @@
       <c r="W17" s="21">
         <v>9758</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X17" s="21">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -5047,11 +5135,13 @@
         <v>0.12524809359657368</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" si="13"/>
         <v>0.13455626152900185</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X18" s="23">
+        <v>0.16567211055276382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5074,7 +5164,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -5163,11 +5253,13 @@
         <v>22743</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="21"/>
         <v>23135</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X20" s="21">
+        <v>21134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5256,11 +5348,13 @@
         <v>17964</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="29"/>
         <v>18620</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X21" s="21">
+        <v>15844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -5349,11 +5443,13 @@
         <v>0.37291249164996659</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" si="33"/>
         <v>0.36235230934479057</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X22" s="23">
+        <v>0.53332491795001258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5376,7 +5472,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -5465,11 +5561,13 @@
         <v>18249</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="38"/>
         <v>18906</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X24" s="21">
+        <v>16218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -5558,16 +5656,18 @@
         <v>0.38270590169324348</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" si="43"/>
         <v>0.37199830741563522</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="23">
+        <v>0.54408681711678386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>54</v>
       </c>
@@ -5593,8 +5693,9 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>50</v>
       </c>
@@ -5610,7 +5711,7 @@
       <c r="K28" s="16"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>51</v>
       </c>
@@ -5626,7 +5727,7 @@
       <c r="K29" s="16"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
@@ -5641,7 +5742,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>53</v>
       </c>
@@ -5656,7 +5757,7 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -5669,7 +5770,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>9</v>
       </c>
@@ -5695,27 +5796,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -5783,8 +5884,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -5873,11 +5977,13 @@
         <v>106991</v>
       </c>
       <c r="W5" s="21">
-        <f t="shared" si="3"/>
-        <v>121415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>121224</v>
+      </c>
+      <c r="X5" s="21">
+        <v>119798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -5945,10 +6051,13 @@
         <v>13124</v>
       </c>
       <c r="W6" s="21">
-        <v>13139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>13313</v>
+      </c>
+      <c r="X6" s="21">
+        <v>13537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -6016,10 +6125,13 @@
         <v>93867</v>
       </c>
       <c r="W7" s="21">
-        <v>108276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>107911</v>
+      </c>
+      <c r="X7" s="21">
+        <v>106261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6087,10 +6199,13 @@
         <v>49939</v>
       </c>
       <c r="W8" s="21">
-        <v>64170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>64025</v>
+      </c>
+      <c r="X8" s="21">
+        <v>61777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -6179,11 +6294,13 @@
         <v>43928</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="9"/>
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>43886</v>
+      </c>
+      <c r="X9" s="21">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -6253,8 +6370,11 @@
       <c r="W10" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X10" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6277,7 +6397,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -6345,10 +6465,13 @@
         <v>23900</v>
       </c>
       <c r="W12" s="21">
-        <v>23953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>24329</v>
+      </c>
+      <c r="X12" s="21">
+        <v>23113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -6416,10 +6539,13 @@
         <v>17994</v>
       </c>
       <c r="W13" s="21">
-        <v>18422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>18705</v>
+      </c>
+      <c r="X13" s="21">
+        <v>17768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6508,11 +6634,13 @@
         <v>0.72935422918750692</v>
       </c>
       <c r="W14" s="23">
-        <f t="shared" si="13"/>
-        <v>0.71322331994354571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.71173483025928896</v>
+      </c>
+      <c r="X14" s="23">
+        <v>0.76187528140477268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6535,7 +6663,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -6603,10 +6731,13 @@
         <v>193387</v>
       </c>
       <c r="W16" s="21">
-        <v>193973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>194043</v>
+      </c>
+      <c r="X16" s="21">
+        <v>190644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -6674,10 +6805,13 @@
         <v>152189</v>
       </c>
       <c r="W17" s="21">
-        <v>151607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>151513</v>
+      </c>
+      <c r="X17" s="21">
+        <v>146954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -6766,11 +6900,13 @@
         <v>0.32813803888585902</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" si="16"/>
-        <v>0.42326541650451499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.42257100050820723</v>
+      </c>
+      <c r="X18" s="23">
+        <v>0.42038324918001552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6793,7 +6929,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -6882,11 +7018,13 @@
         <v>217287</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="24"/>
-        <v>217926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>218372</v>
+      </c>
+      <c r="X20" s="21">
+        <v>213757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -6975,11 +7113,13 @@
         <v>170183</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="32"/>
-        <v>170029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>170218</v>
+      </c>
+      <c r="X21" s="21">
+        <v>164722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -7068,11 +7208,13 @@
         <v>0.37055992666717591</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" si="38"/>
-        <v>0.45468126025560346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.45434677883655078</v>
+      </c>
+      <c r="X22" s="23">
+        <v>0.45721882930027563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7097,7 +7239,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -7186,11 +7328,13 @@
         <v>214111</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="45"/>
-        <v>214135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>214104</v>
+      </c>
+      <c r="X24" s="21">
+        <v>209206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -7279,12 +7423,14 @@
         <v>0.49969875438440808</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" si="52"/>
-        <v>0.56700212482779555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.56619213092702614</v>
+      </c>
+      <c r="X25" s="23">
+        <v>0.57263176008336281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>54</v>
       </c>
@@ -7310,8 +7456,9 @@
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>50</v>
       </c>
@@ -7326,7 +7473,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7488,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
@@ -7356,7 +7503,7 @@
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>53</v>
       </c>
@@ -7371,7 +7518,7 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7384,7 +7531,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>9</v>
       </c>
@@ -7410,27 +7557,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -7498,8 +7645,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -7569,8 +7719,11 @@
       <c r="W5" s="21">
         <v>33857</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X5" s="21">
+        <v>33086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -7638,10 +7791,13 @@
         <v>23876</v>
       </c>
       <c r="W6" s="21">
-        <v>31720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>31700</v>
+      </c>
+      <c r="X6" s="21">
+        <v>30892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -7730,11 +7886,13 @@
         <v>2282</v>
       </c>
       <c r="W7" s="21">
-        <f t="shared" si="4"/>
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="X7" s="21">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7757,7 +7915,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -7827,8 +7985,11 @@
       <c r="W9" s="21">
         <v>98695</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X9" s="21">
+        <v>97742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -7898,8 +8059,11 @@
       <c r="W10" s="21">
         <v>77990</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X10" s="21">
+        <v>78410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -7988,11 +8152,13 @@
         <v>0.30435059720327856</v>
       </c>
       <c r="W11" s="23">
-        <f t="shared" si="9"/>
-        <v>0.40671881010385946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.40646236697012439</v>
+      </c>
+      <c r="X11" s="23">
+        <v>0.3939803596480041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -8015,7 +8181,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -8104,11 +8270,13 @@
         <v>80731</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" si="15"/>
-        <v>80127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>80147</v>
+      </c>
+      <c r="X13" s="21">
+        <v>80604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -8197,14 +8365,16 @@
         <v>0.3240143191586875</v>
       </c>
       <c r="W14" s="23">
-        <f t="shared" si="21"/>
-        <v>0.42254171502739402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.42243627334772355</v>
+      </c>
+      <c r="X14" s="23">
+        <v>0.41047590690288321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>54</v>
       </c>
@@ -8230,8 +8400,9 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>45</v>
       </c>
@@ -8246,7 +8417,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
@@ -8261,7 +8432,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>46</v>
       </c>
@@ -8276,7 +8447,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -8289,7 +8460,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>1</v>
       </c>
@@ -8315,28 +8486,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -8404,8 +8575,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -8494,11 +8668,13 @@
         <v>227737</v>
       </c>
       <c r="W5" s="21">
-        <f t="shared" si="4"/>
-        <v>261788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>261804</v>
+      </c>
+      <c r="X5" s="21">
+        <v>245076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -8566,10 +8742,13 @@
         <v>41286</v>
       </c>
       <c r="W6" s="21">
-        <v>44926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>44895</v>
+      </c>
+      <c r="X6" s="21">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -8637,10 +8816,13 @@
         <v>186451</v>
       </c>
       <c r="W7" s="21">
-        <v>216862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>216909</v>
+      </c>
+      <c r="X7" s="21">
+        <v>200603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8708,10 +8890,13 @@
         <v>117058</v>
       </c>
       <c r="W8" s="21">
-        <v>149214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>149047</v>
+      </c>
+      <c r="X8" s="21">
+        <v>131483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -8800,11 +8985,13 @@
         <v>69393</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="10"/>
-        <v>67648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>67862</v>
+      </c>
+      <c r="X9" s="21">
+        <v>69120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -8874,8 +9061,11 @@
       <c r="W10" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X10" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -8898,7 +9088,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -8968,8 +9158,11 @@
       <c r="W12" s="21">
         <v>87769</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X12" s="21">
+        <v>87241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -9039,8 +9232,11 @@
       <c r="W13" s="21">
         <v>71604</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X13" s="21">
+        <v>72206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -9129,11 +9325,13 @@
         <v>0.5995033905934628</v>
       </c>
       <c r="W14" s="23">
-        <f t="shared" si="14"/>
-        <v>0.62742304899167645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.62699011228422996</v>
+      </c>
+      <c r="X14" s="23">
+        <v>0.61591834473589457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -9156,7 +9354,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -9224,10 +9422,13 @@
         <v>397005</v>
       </c>
       <c r="W16" s="21">
-        <v>402404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>401965</v>
+      </c>
+      <c r="X16" s="21">
+        <v>409414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -9295,10 +9496,13 @@
         <v>332231</v>
       </c>
       <c r="W17" s="21">
-        <v>338539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>338198</v>
+      </c>
+      <c r="X17" s="21">
+        <v>348573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -9387,11 +9591,13 @@
         <v>0.35233918568706712</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" si="18"/>
-        <v>0.44075867182215345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.440709288641565</v>
+      </c>
+      <c r="X18" s="23">
+        <v>0.37720362736069635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -9414,7 +9620,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -9503,11 +9709,13 @@
         <v>483599</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="26"/>
-        <v>490173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>489734</v>
+      </c>
+      <c r="X20" s="21">
+        <v>496655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -9596,11 +9804,13 @@
         <v>401098</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="34"/>
-        <v>410143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>409802</v>
+      </c>
+      <c r="X21" s="21">
+        <v>420779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -9689,11 +9899,13 @@
         <v>0.39477633894958342</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" si="41"/>
-        <v>0.47334710088920207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.47325781718976484</v>
+      </c>
+      <c r="X22" s="23">
+        <v>0.41816725644578268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9716,7 +9928,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -9805,11 +10017,13 @@
         <v>470491</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="47"/>
-        <v>477791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>477664</v>
+      </c>
+      <c r="X24" s="21">
+        <v>489899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -9898,14 +10112,16 @@
         <v>0.48404114000055259</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" si="53"/>
-        <v>0.5479132089135208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.54809238293026064</v>
+      </c>
+      <c r="X25" s="23">
+        <v>0.50025821648952129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
@@ -9931,8 +10147,9 @@
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>50</v>
       </c>
@@ -9948,7 +10165,7 @@
       <c r="K28" s="16"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>51</v>
       </c>
@@ -9964,7 +10181,7 @@
       <c r="K29" s="16"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
@@ -9979,7 +10196,7 @@
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>53</v>
       </c>
@@ -9994,7 +10211,7 @@
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10007,7 +10224,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>9</v>
       </c>
@@ -10036,27 +10253,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -10124,8 +10341,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -10214,11 +10434,13 @@
         <v>25698</v>
       </c>
       <c r="W5" s="21">
-        <f t="shared" si="3"/>
-        <v>25799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>25756</v>
+      </c>
+      <c r="X5" s="21">
+        <v>25891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -10288,8 +10510,11 @@
       <c r="W6" s="21">
         <v>2554</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X6" s="21">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -10357,10 +10582,13 @@
         <v>23091</v>
       </c>
       <c r="W7" s="21">
-        <v>23245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>23202</v>
+      </c>
+      <c r="X7" s="21">
+        <v>23482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -10428,10 +10656,13 @@
         <v>12833</v>
       </c>
       <c r="W8" s="21">
-        <v>12796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>12800</v>
+      </c>
+      <c r="X8" s="21">
+        <v>13072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -10520,11 +10751,13 @@
         <v>10258</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="10"/>
-        <v>10449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>10402</v>
+      </c>
+      <c r="X9" s="21">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -10594,8 +10827,11 @@
       <c r="W10" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X10" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -10618,7 +10854,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -10688,8 +10924,11 @@
       <c r="W12" s="21">
         <v>4476</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X12" s="21">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -10759,8 +10998,11 @@
       <c r="W13" s="21">
         <v>3860</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X13" s="21">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -10849,11 +11091,13 @@
         <v>0.70005370569280345</v>
       </c>
       <c r="W14" s="23">
-        <f t="shared" si="14"/>
         <v>0.66165803108808285</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X14" s="23">
+        <v>0.60270202651988991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -10876,7 +11120,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -10944,10 +11188,13 @@
         <v>30435</v>
       </c>
       <c r="W16" s="21">
-        <v>29872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>29661</v>
+      </c>
+      <c r="X16" s="21">
+        <v>29863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -11015,10 +11262,13 @@
         <v>23446</v>
       </c>
       <c r="W17" s="21">
-        <v>22304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>22267</v>
+      </c>
+      <c r="X17" s="21">
+        <v>22786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -11107,11 +11357,13 @@
         <v>0.54734283033353237</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" si="18"/>
-        <v>0.57370875179340031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.574841693986617</v>
+      </c>
+      <c r="X18" s="23">
+        <v>0.57368559641885364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -11134,7 +11386,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -11223,11 +11475,13 @@
         <v>34731</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="26"/>
-        <v>34348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>34137</v>
+      </c>
+      <c r="X20" s="21">
+        <v>34490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -11316,11 +11570,13 @@
         <v>27170</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="34"/>
-        <v>26164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>26127</v>
+      </c>
+      <c r="X21" s="21">
+        <v>26783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -11409,11 +11665,13 @@
         <v>0.56827383143172616</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" si="41"/>
-        <v>0.58668399327319987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.58766792972786774</v>
+      </c>
+      <c r="X22" s="23">
+        <v>0.57801590561176863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11438,7 +11696,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -11527,11 +11785,13 @@
         <v>37428</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="48"/>
-        <v>36613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>36529</v>
+      </c>
+      <c r="X24" s="21">
+        <v>37193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -11620,14 +11880,16 @@
         <v>0.6865982686758576</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" si="55"/>
-        <v>0.70464042826318518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.70508363218264936</v>
+      </c>
+      <c r="X25" s="23">
+        <v>0.6961256150350873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
@@ -11653,8 +11915,9 @@
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>50</v>
       </c>
@@ -11669,7 +11932,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>51</v>
       </c>
@@ -11684,7 +11947,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>47</v>
       </c>
@@ -11699,7 +11962,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>48</v>
       </c>
@@ -11714,7 +11977,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -11727,7 +11990,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>9</v>
       </c>
@@ -11753,27 +12016,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>40633</v>
@@ -11841,8 +12104,11 @@
       <c r="W4" s="10">
         <v>44986</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -11931,11 +12197,13 @@
         <v>46797</v>
       </c>
       <c r="W5" s="21">
-        <f t="shared" si="3"/>
         <v>49402</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X5" s="21">
+        <v>47617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -12005,8 +12273,11 @@
       <c r="W6" s="21">
         <v>20726</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X6" s="21">
+        <v>20779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -12076,8 +12347,11 @@
       <c r="W7" s="21">
         <v>23726</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X7" s="21">
+        <v>22626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -12145,10 +12419,13 @@
         <v>12724</v>
       </c>
       <c r="W8" s="21">
-        <v>12129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>12133</v>
+      </c>
+      <c r="X8" s="21">
+        <v>11272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -12237,11 +12514,13 @@
         <v>11525</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="9"/>
-        <v>11597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>11593</v>
+      </c>
+      <c r="X9" s="21">
+        <v>11354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -12311,8 +12590,11 @@
       <c r="W10" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X10" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -12382,8 +12664,11 @@
       <c r="W11" s="21">
         <v>4950</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X11" s="21">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12406,8 +12691,9 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -12477,8 +12763,11 @@
       <c r="W13" s="21">
         <v>37402</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X13" s="21">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -12546,10 +12835,13 @@
         <v>32126</v>
       </c>
       <c r="W14" s="21">
-        <v>31309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>32309</v>
+      </c>
+      <c r="X14" s="21">
+        <v>31678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -12638,11 +12930,13 @@
         <v>0.5776006972545602</v>
       </c>
       <c r="W15" s="23">
-        <f t="shared" si="13"/>
-        <v>0.66198217764859946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.6414930824228543</v>
+      </c>
+      <c r="X15" s="23">
+        <v>0.6559441883957321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -12666,7 +12960,7 @@
       <c r="U16" s="4"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -12736,8 +13030,11 @@
       <c r="W17" s="21">
         <v>29442</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X17" s="21">
+        <v>28761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -12807,8 +13104,11 @@
       <c r="W18" s="21">
         <v>24519</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="X18" s="21">
+        <v>23942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -12897,11 +13197,13 @@
         <v>0.51092194025056215</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" si="18"/>
-        <v>0.49467759696561853</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.49484073575594439</v>
+      </c>
+      <c r="X19" s="23">
+        <v>0.47080444407317684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -12924,7 +13226,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -13013,11 +13315,13 @@
         <v>66070</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="26"/>
         <v>66844</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="X21" s="21">
+        <v>65506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -13106,11 +13410,13 @@
         <v>57030</v>
       </c>
       <c r="W22" s="21">
-        <f t="shared" si="34"/>
-        <v>55828</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>56828</v>
+      </c>
+      <c r="X22" s="21">
+        <v>55620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -13199,11 +13505,13 @@
         <v>0.54848325442749435</v>
       </c>
       <c r="W23" s="23">
-        <f t="shared" si="41"/>
-        <v>0.58850397649924768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0.57821848384599139</v>
+      </c>
+      <c r="X23" s="23">
+        <v>0.57624955052139515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -13228,7 +13536,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -13317,11 +13625,13 @@
         <v>68555</v>
       </c>
       <c r="W25" s="21">
-        <f t="shared" si="48"/>
-        <v>67425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+        <v>68421</v>
+      </c>
+      <c r="X25" s="21">
+        <v>66974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -13410,14 +13720,16 @@
         <v>0.62438917657355408</v>
       </c>
       <c r="W26" s="23">
-        <f t="shared" si="55"/>
-        <v>0.65928068223952541</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.64968357667967436</v>
+      </c>
+      <c r="X26" s="23">
+        <v>0.64808731746647952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>49</v>
       </c>
@@ -13443,8 +13755,9 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
-    </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="20"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>50</v>
       </c>
@@ -13459,7 +13772,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>51</v>
       </c>
@@ -13474,7 +13787,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>52</v>
       </c>
@@ -13489,7 +13802,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
@@ -13504,7 +13817,7 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13517,7 +13830,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>9</v>
       </c>
